--- a/backend/oeps/data/dictionaries/S_Dict.xlsx
+++ b/backend/oeps/data/dictionaries/S_Dict.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z230"/>
+  <dimension ref="A1:Z227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2346,32 +2346,32 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>BedCnt</t>
+          <t>TotPopHh</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Homeless Shelter Available Bed Count</t>
+          <t>Total Population in Households</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Number of beds available to homeless individuals in a continuum of care available at the time of the census</t>
+          <t>Total number of people in households</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/HomelessPop.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/HouseholdType.md</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>HUD, 2018</t>
+          <t>ACS 2018, 5-Year</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>Department of Housing and Urban Development Homeless Census, 2018</t>
+          <t>American Community Survey 2014-2018 5 Year Estimates</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -2381,14 +2381,10 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>38897</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>This is the taken by a team of individuals in a continuum of care in one day. It is difficult to measure homelessness at a local and Federal level as the population is relatively mobile, homelessness can be cyclical and there are visibility issues for the homeless community, so the annual point in time count was used as a proxy for homelessness in this dataset. Data was geocoded then spatially joined at the tract, ZCTA, state and county level to see where continuums of care are located and the availibility of temporary housing solutions.</t>
-        </is>
-      </c>
+          <t>7151776</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
     </row>
     <row r="26">
@@ -2409,49 +2405,45 @@
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>PntInTm</t>
+          <t>NonRelFhhP</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Total Individuals at a Shelter</t>
+          <t>% Nonrelatives in Family Households</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Number of housing-insecure individuals at a shelter on the day of the count</t>
+          <t>Percent of people living in family households that are not related to family</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/HomelessPop.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/HouseholdType.md</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>HUD, 2018</t>
+          <t>ACS 2018, 5-Year</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>Department of Housing and Urban Development Homeless Census, 2018</t>
+          <t>American Community Survey 2014-2018 5 Year Estimates</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>32603</t>
-        </is>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>This is the taken by a team of individuals in a continuum of care in one day. It is difficult to measure homelessness at a local and Federal level as the population is relatively mobile, homelessness can be cyclical and there are visibility issues for the homeless community, so the annual point in time count was used as a proxy for homelessness in this dataset. Data was geocoded then spatially joined at the tract, ZCTA, state and county level to see where continuums of care are located and the availibility of temporary housing solutions.</t>
-        </is>
-      </c>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr"/>
     </row>
     <row r="27">
@@ -2472,49 +2464,45 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>YrlyBedCnt</t>
+          <t>NonRelNfhhP</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Homeless Shelter Total Beds Available Annually</t>
+          <t>% Nonrelatives in Non-family Households</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Number of beds available to homeless populations in group quarters available year-round</t>
+          <t>Percent of people living in non-family households that are not related</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/HomelessPop.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/HouseholdType.md</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>HUD, 2018</t>
+          <t>ACS 2018, 5-Year</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>Department of Housing and Urban Development Homeless Census, 2018</t>
+          <t>American Community Survey 2014-2018 5 Year Estimates</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>37597</t>
-        </is>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>This is the taken by a team of individuals in a continuum of care in one day. It is difficult to measure homelessness at a local and Federal level as the population is relatively mobile, homelessness can be cyclical and there are visibility issues for the homeless community, so the annual point in time count was used as a proxy for homelessness in this dataset. Data was geocoded then spatially joined at the tract, ZCTA, state and county level to see where continuums of care are located and the availibility of temporary housing solutions.</t>
-        </is>
-      </c>
+          <t>25.61</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr"/>
     </row>
     <row r="28">
@@ -2535,22 +2523,22 @@
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>TotPopHh</t>
+          <t>TotWrkE</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Total Population in Households</t>
+          <t>Count of Working Population</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Total number of people in households</t>
+          <t>Estimated count of working population</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/HouseholdType.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Job_Categories_byIndustry_2018.md</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2570,7 +2558,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>7151776</t>
+          <t>3513856</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr"/>
@@ -2582,44 +2570,64 @@
           <t>Social</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F29" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>NonRelFhhP</t>
+          <t>NoHsP</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>% Nonrelatives in Family Households</t>
+          <t>% Population without High School Degree</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Percent of people living in family households that are not related to family</t>
+          <t>Percentage of population 25 years and over, less than a high school degree</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/HouseholdType.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Other_Demographic_2018.md</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year</t>
+          <t>ACS 2018, 5-Year; ACS 2012, 5-Year; IPUMS NHGIS</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimates</t>
+          <t>American Community Survey 2014-2018 5 Year Estimate; American Community Survey 2008-2012 5-Year Estimates; Integrated Public Use Microdata Service National Historic Geographic Information Systems</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2629,10 +2637,14 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="Q29" t="inlineStr"/>
+          <t>13.01</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
+        </is>
+      </c>
       <c r="R29" t="inlineStr"/>
     </row>
     <row r="30">
@@ -2643,8 +2655,16 @@
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F30" t="inlineStr">
         <is>
           <t>x</t>
@@ -2653,32 +2673,32 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>NonRelNfhhP</t>
+          <t>DisbP</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>% Nonrelatives in Non-family Households</t>
+          <t>% Population with Disability</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Percent of people living in non-family households that are not related</t>
+          <t>Percentage of civilian non institutionalized population with a disability</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/HouseholdType.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Other_Demographic_2018.md</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year</t>
+          <t>ACS 2018, 5-Year; ACS 2012, 5-Year</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimates</t>
+          <t>American Community Survey 2014-2018 5 Year Estimate; American Community Survey 2008-2012 5-Year Estimates; Integrated Public Use Microdata Service National Historic Geographic Information Systems</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2688,11 +2708,15 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>25.61</t>
+          <t>12.7</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>Data from 2000 Census downloaded at county level from NHGIS and aggregated upwards.</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2700,57 +2724,81 @@
           <t>Social</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F31" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>TotWrkE</t>
+          <t>WhiteP</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Count of Working Population</t>
+          <t>% White Population</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Estimated count of working population</t>
+          <t>Percentage of population with race identified as white alone</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Job_Categories_byIndustry_2018.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Race_Ethnicity_2018.md</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year</t>
+          <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimates</t>
+          <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>3513856</t>
-        </is>
-      </c>
-      <c r="Q31" t="inlineStr"/>
+          <t>56.2</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
+        </is>
+      </c>
       <c r="R31" t="inlineStr"/>
     </row>
     <row r="32">
@@ -2791,32 +2839,32 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>NoHsP</t>
+          <t>BlackP</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>% Population without High School Degree</t>
+          <t>% Black/African American Population</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Percentage of population 25 years and over, less than a high school degree</t>
+          <t>Percentage of population with race identified as Black or African American alone</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Other_Demographic_2018.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Race_Ethnicity_2018.md</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; ACS 2012, 5-Year; IPUMS NHGIS</t>
+          <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimate; American Community Survey 2008-2012 5-Year Estimates; Integrated Public Use Microdata Service National Historic Geographic Information Systems</t>
+          <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2826,7 +2874,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>13.01</t>
+          <t>14.81</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
@@ -2842,8 +2890,16 @@
           <t>Social</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="D33" t="inlineStr">
         <is>
           <t>x</t>
@@ -2859,35 +2915,39 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>DisbP</t>
+          <t>HispP</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>% Population with Disability</t>
+          <t>% Hispanic/Latinx Population</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Percentage of civilian non institutionalized population with a disability</t>
+          <t>Percentage of population with ethnicity identified as of Hispanic or Latinx origin</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Other_Demographic_2018.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Race_Ethnicity_2018.md</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; ACS 2012, 5-Year</t>
+          <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimate; American Community Survey 2008-2012 5-Year Estimates; Integrated Public Use Microdata Service National Historic Geographic Information Systems</t>
+          <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -2897,15 +2957,15 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>12.7</t>
-        </is>
-      </c>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>Data from 2000 Census downloaded at county level from NHGIS and aggregated upwards.</t>
-        </is>
-      </c>
+          <t>25.95</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2945,17 +3005,17 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>WhiteP</t>
+          <t>AmIndP</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>% White Population</t>
+          <t>% Native American/Alaska Native Population</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Percentage of population with race identified as white alone</t>
+          <t>Percentage of population with race identified as Native American or Alaska Native alone</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2980,7 +3040,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>56.2</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
@@ -3028,17 +3088,17 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>BlackP</t>
+          <t>AsianP</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>% Black/African American Population</t>
+          <t>% Asian Population</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Percentage of population with race identified as Black or African American alone</t>
+          <t>Percentage of population with race identified as Asian alone</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -3063,7 +3123,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>14.81</t>
+          <t>12.03</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
@@ -3111,17 +3171,17 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>HispP</t>
+          <t>PacIsP</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>% Hispanic/Latinx Population</t>
+          <t>% Native Hawaiian &amp; Other PI Population</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Percentage of population with ethnicity identified as of Hispanic or Latinx origin</t>
+          <t>Percentage of population with race identified as Native Hawaiian and Other Pacific Islander alone</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -3146,7 +3206,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>25.95</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
@@ -3194,17 +3254,17 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>AmIndP</t>
+          <t>OtherP</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>% Native American/Alaska Native Population</t>
+          <t>% Other (race) Population</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Percentage of population with race identified as Native American or Alaska Native alone</t>
+          <t>Percentage of Population with race not mentioned in any of the options above (includes two race or more races)</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -3229,7 +3289,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>16.48</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
@@ -3245,64 +3305,44 @@
           <t>Social</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
         <is>
-          <t>AsianP</t>
+          <t>DsmBlk</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>% Asian Population</t>
+          <t>Segregation: Dissimilarity (Black)</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Percentage of population with race identified as Asian alone</t>
+          <t>Dissimilarity index for Black and non-Hispanic White residents</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Race_Ethnicity_2018.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Residential_Seg_Indices.md</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
+          <t>ACS 2018, 5-Year</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
+          <t>American Community Survey 2014-2018 5 Year Estimates</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -3312,15 +3352,20 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>12.03</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
-        </is>
-      </c>
-      <c r="R38" t="inlineStr"/>
+          <t>The three indices measuring residential segregation included here represent two categories of measures of residential segregation: measures of evenness (dissimiliarity) and measures of exposure (interaction and isolation). Three additional categories of residential segregation measurements described by Massey and Denton (1998) include measures of concentration, centralization, and clustering. Read more on the indices and their expressions from the U.S. Census Bureau.</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>From the U.S. Census Bureau, on Measures of Residential Segregation: "Massey and Denton (1988) used an extensive literature search and cluster analysis to identify 20 different indexes of segregation and classify them into five key dimensions of segregation. Basically, evenness involves the differential distribution of the subject population, exposure measures potential contact, concentration refers to the relative amount of physical space occupied, centralization indicates the degree to which a group is located near the center of an urban area, and clustering measures the degree to which minority group members live disproportionately in contiguous areas.""
+Note: In all of the calculations, non-Hispanic whites are considered the "majority" (reference) population.</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3328,64 +3373,44 @@
           <t>Social</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
         <is>
-          <t>PacIsP</t>
+          <t>IntrBlkWht</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>% Native Hawaiian &amp; Other PI Population</t>
+          <t>Segregation: Interaction (Black)</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Percentage of population with race identified as Native Hawaiian and Other Pacific Islander alone</t>
+          <t>Interaction index for Black and non-Hispanic White residents</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Race_Ethnicity_2018.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Residential_Seg_Indices.md</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
+          <t>ACS 2018, 5-Year</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
+          <t>American Community Survey 2014-2018 5 Year Estimates</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -3395,15 +3420,20 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
-        </is>
-      </c>
-      <c r="R39" t="inlineStr"/>
+          <t>The three indices measuring residential segregation included here represent two categories of measures of residential segregation: measures of evenness (dissimiliarity) and measures of exposure (interaction and isolation). Three additional categories of residential segregation measurements described by Massey and Denton (1998) include measures of concentration, centralization, and clustering. Read more on the indices and their expressions from the U.S. Census Bureau.</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>From the U.S. Census Bureau, on Measures of Residential Segregation: "Massey and Denton (1988) used an extensive literature search and cluster analysis to identify 20 different indexes of segregation and classify them into five key dimensions of segregation. Basically, evenness involves the differential distribution of the subject population, exposure measures potential contact, concentration refers to the relative amount of physical space occupied, centralization indicates the degree to which a group is located near the center of an urban area, and clustering measures the degree to which minority group members live disproportionately in contiguous areas.""
+Note: In all of the calculations, non-Hispanic whites are considered the "majority" (reference) population.</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3411,64 +3441,44 @@
           <t>Social</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
         <is>
-          <t>OtherP</t>
+          <t>IsoBlk</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>% Other (race) Population</t>
+          <t>Segregation: Isolation (Black)</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Percentage of Population with race not mentioned in any of the options above (includes two race or more races)</t>
+          <t>Isolation index for Black and non-Hispanic White residents</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Race_Ethnicity_2018.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Residential_Seg_Indices.md</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
+          <t>ACS 2018, 5-Year</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
+          <t>American Community Survey 2014-2018 5 Year Estimates</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -3478,15 +3488,20 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>16.48</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
-        </is>
-      </c>
-      <c r="R40" t="inlineStr"/>
+          <t>The three indices measuring residential segregation included here represent two categories of measures of residential segregation: measures of evenness (dissimiliarity) and measures of exposure (interaction and isolation). Three additional categories of residential segregation measurements described by Massey and Denton (1998) include measures of concentration, centralization, and clustering. Read more on the indices and their expressions from the U.S. Census Bureau.</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>From the U.S. Census Bureau, on Measures of Residential Segregation: "Massey and Denton (1988) used an extensive literature search and cluster analysis to identify 20 different indexes of segregation and classify them into five key dimensions of segregation. Basically, evenness involves the differential distribution of the subject population, exposure measures potential contact, concentration refers to the relative amount of physical space occupied, centralization indicates the degree to which a group is located near the center of an urban area, and clustering measures the degree to which minority group members live disproportionately in contiguous areas.""
+Note: In all of the calculations, non-Hispanic whites are considered the "majority" (reference) population.</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3506,17 +3521,17 @@
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
         <is>
-          <t>DsmBlk</t>
+          <t>DsmHsp</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Segregation: Dissimilarity (Black)</t>
+          <t>Segregation: Dissimilarity (Hispanic)</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Dissimilarity index for Black and non-Hispanic White residents</t>
+          <t>Dissimilarity index for Hispanic and non-Hispanic White residents</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -3541,7 +3556,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
@@ -3574,17 +3589,17 @@
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr">
         <is>
-          <t>IntrBlkWht</t>
+          <t>IntrHspWht</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Segregation: Interaction (Black)</t>
+          <t>Segregation: Interaction (Hispanic)</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Interaction index for Black and non-Hispanic White residents</t>
+          <t>Interaction index for Hispanic and non-Hispanic White residents</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -3642,17 +3657,17 @@
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
         <is>
-          <t>IsoBlk</t>
+          <t>IsoHsp</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Segregation: Isolation (Black)</t>
+          <t>Segregation: Isolation (Hispanic)</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Isolation index for Black and non-Hispanic White residents</t>
+          <t>Isolation index for Hispanic and non-Hispanic White residents</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -3677,7 +3692,7 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
@@ -3710,17 +3725,17 @@
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
         <is>
-          <t>DsmHsp</t>
+          <t>DsmAs</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Segregation: Dissimilarity (Hispanic)</t>
+          <t>Segregation: Dissimilarity (Asian)</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Dissimilarity index for Hispanic and non-Hispanic White residents</t>
+          <t>Dissimilarity index for Asian and non-Hispanic White residents</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3745,7 +3760,7 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
@@ -3778,17 +3793,17 @@
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
         <is>
-          <t>IntrHspWht</t>
+          <t>IntrAsWht</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Segregation: Interaction (Hispanic)</t>
+          <t>Segregation: Interaction (Asian)</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Interaction index for Hispanic and non-Hispanic White residents</t>
+          <t>Area (in square meters) of park or green space in a state).</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -3813,7 +3828,7 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
@@ -3846,17 +3861,17 @@
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
-          <t>IsoHsp</t>
+          <t>IsoAs</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Segregation: Isolation (Hispanic)</t>
+          <t>Segregation: Isolation (Asian)</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Isolation index for Hispanic and non-Hispanic White residents</t>
+          <t>Isolation index for Asian and non-Hispanic White residents</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3881,7 +3896,7 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
@@ -3905,7 +3920,11 @@
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F47" t="inlineStr">
         <is>
           <t>x</t>
@@ -3914,55 +3933,46 @@
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
-          <t>DsmAs</t>
+          <t>TotVetPop</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Segregation: Dissimilarity (Asian)</t>
+          <t>Total Veteran Population</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Dissimilarity index for Asian and non-Hispanic White residents</t>
+          <t>Total Veteran population</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Residential_Seg_Indices.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/VetPop.md</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year</t>
+          <t>ACS 2018, 5-Year; ACS 2012, 5-Year</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimates</t>
+          <t>American Community Survey 2014-2018 5 Year Estimates; American Community Survey 2008-2012 5-Year Estimates</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="Q47" t="inlineStr">
-        <is>
-          <t>The three indices measuring residential segregation included here represent two categories of measures of residential segregation: measures of evenness (dissimiliarity) and measures of exposure (interaction and isolation). Three additional categories of residential segregation measurements described by Massey and Denton (1998) include measures of concentration, centralization, and clustering. Read more on the indices and their expressions from the U.S. Census Bureau.</t>
-        </is>
-      </c>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>From the U.S. Census Bureau, on Measures of Residential Segregation: "Massey and Denton (1988) used an extensive literature search and cluster analysis to identify 20 different indexes of segregation and classify them into five key dimensions of segregation. Basically, evenness involves the differential distribution of the subject population, exposure measures potential contact, concentration refers to the relative amount of physical space occupied, centralization indicates the degree to which a group is located near the center of an urban area, and clustering measures the degree to which minority group members live disproportionately in contiguous areas.""
-Note: In all of the calculations, non-Hispanic whites are considered the "majority" (reference) population.</t>
-        </is>
-      </c>
+          <t>537713</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3973,7 +3983,11 @@
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F48" t="inlineStr">
         <is>
           <t>x</t>
@@ -3982,32 +3996,32 @@
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
         <is>
-          <t>IntrAsWht</t>
+          <t>VetP</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Segregation: Interaction (Asian)</t>
+          <t>% Veteran Population</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Area (in square meters) of park or green space in a state).</t>
+          <t>Percent of population that are veterans</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Residential_Seg_Indices.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/VetPop.md</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year</t>
+          <t>ACS 2017, 5-Year; ACS 2012, 5-Year</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimates</t>
+          <t>American Community Survey 2013-2017 5 Year Estimate; American Community Survey 2008-2012 5-Year Estimates</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -4017,25 +4031,16 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="Q48" t="inlineStr">
-        <is>
-          <t>The three indices measuring residential segregation included here represent two categories of measures of residential segregation: measures of evenness (dissimiliarity) and measures of exposure (interaction and isolation). Three additional categories of residential segregation measurements described by Massey and Denton (1998) include measures of concentration, centralization, and clustering. Read more on the indices and their expressions from the U.S. Census Bureau.</t>
-        </is>
-      </c>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>From the U.S. Census Bureau, on Measures of Residential Segregation: "Massey and Denton (1988) used an extensive literature search and cluster analysis to identify 20 different indexes of segregation and classify them into five key dimensions of segregation. Basically, evenness involves the differential distribution of the subject population, exposure measures potential contact, concentration refers to the relative amount of physical space occupied, centralization indicates the degree to which a group is located near the center of an urban area, and clustering measures the degree to which minority group members live disproportionately in contiguous areas.""
-Note: In all of the calculations, non-Hispanic whites are considered the "majority" (reference) population.</t>
-        </is>
-      </c>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Social</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
@@ -4050,70 +4055,65 @@
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
-          <t>IsoAs</t>
+          <t>FqhcCtTmDr</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Segregation: Isolation (Asian)</t>
+          <t>Tracts with Federally Qualified Health Center (30-min driving)</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Isolation index for Asian and non-Hispanic White residents</t>
+          <t>Number of tracts with Federally Qualified Health Center within a 30-min driving range</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Residential_Seg_Indices.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_FQHCs_MinDistance.md</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year</t>
+          <t>US Covid Atlas via HRSA, 2020</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimates</t>
+          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>1359</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>The three indices measuring residential segregation included here represent two categories of measures of residential segregation: measures of evenness (dissimiliarity) and measures of exposure (interaction and isolation). Three additional categories of residential segregation measurements described by Massey and Denton (1998) include measures of concentration, centralization, and clustering. Read more on the indices and their expressions from the U.S. Census Bureau.</t>
+          <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>From the U.S. Census Bureau, on Measures of Residential Segregation: "Massey and Denton (1988) used an extensive literature search and cluster analysis to identify 20 different indexes of segregation and classify them into five key dimensions of segregation. Basically, evenness involves the differential distribution of the subject population, exposure measures potential contact, concentration refers to the relative amount of physical space occupied, centralization indicates the degree to which a group is located near the center of an urban area, and clustering measures the degree to which minority group members live disproportionately in contiguous areas.""
-Note: In all of the calculations, non-Hispanic whites are considered the "majority" (reference) population.</t>
+          <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Social</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
           <t>x</t>
@@ -4122,61 +4122,65 @@
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr">
         <is>
-          <t>TotVetPop</t>
+          <t>FqhcAvTmDr</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Total Veteran Population</t>
+          <t>Driving Time to nearest Federally Qualified Health Center</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Total Veteran population</t>
+          <t>Average driving time (minutes) across tracts in state to nearest Federally Qualified Health Center</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/VetPop.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_FQHCs_MinDistance.md</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; ACS 2012, 5-Year</t>
+          <t>US Covid Atlas via HRSA, 2020</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimates; American Community Survey 2008-2012 5-Year Estimates</t>
+          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>537713</t>
-        </is>
-      </c>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
+          <t>10.65</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Social</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
           <t>x</t>
@@ -4185,32 +4189,32 @@
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
         <is>
-          <t>VetP</t>
+          <t>FqhcTmDrP</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>% Veteran Population</t>
+          <t>% tracts within 30-min drive of Federally Qualified Health Center</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Percent of population that are veterans</t>
+          <t>Percent of tracts with Federally Qualified Health Center within a 30-min driving range.</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/VetPop.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_FQHCs_MinDistance.md</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>ACS 2017, 5-Year; ACS 2012, 5-Year</t>
+          <t>US Covid Atlas via HRSA, 2020</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>American Community Survey 2013-2017 5 Year Estimate; American Community Survey 2008-2012 5-Year Estimates</t>
+          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -4220,11 +4224,19 @@
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>9.58</t>
-        </is>
-      </c>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4244,32 +4256,32 @@
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr">
         <is>
-          <t>FqhcCtTmDr</t>
+          <t>CntBupT</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Tracts with Federally Qualified Health Center (30-min driving)</t>
+          <t>Tracts with Buprenorphine Provider (30-min driving)</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Number of tracts with Federally Qualified Health Center within a 30-min driving range</t>
+          <t>Number of tracts with buprenorphine provider within a 30-min driving range</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_FQHCs_MinDistance.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>US Covid Atlas via HRSA, 2020</t>
+          <t>SAMSHA, 2019; Vivitrol, 2020; OSRM, 2020</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -4279,17 +4291,17 @@
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>1359</t>
+          <t>1400</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
+          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
+          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
         </is>
       </c>
     </row>
@@ -4311,52 +4323,52 @@
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
         <is>
-          <t>FqhcAvTmDr</t>
+          <t>CntMetT</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Driving Time to nearest Federally Qualified Health Center</t>
+          <t>Tracts with Methadone Provider (30-min driving)</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Average driving time (minutes) across tracts in state to nearest Federally Qualified Health Center</t>
+          <t>Number of tracts with methadone provider within a 30-min driving range</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_FQHCs_MinDistance.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>US Covid Atlas via HRSA, 2020</t>
+          <t>SAMSHA, 2019; Vivitrol, 2020; OSRM, 2020</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>10.65</t>
+          <t>996</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
+          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
+          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
         </is>
       </c>
     </row>
@@ -4378,52 +4390,52 @@
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr">
         <is>
-          <t>FqhcTmDrP</t>
+          <t>CntNalT</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>% tracts within 30-min drive of Federally Qualified Health Center</t>
+          <t>Tracts with Naltrexone Provider (30-min driving)</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Percent of tracts with Federally Qualified Health Center within a 30-min driving range.</t>
+          <t>Number of tracts within 30 -min of naltrexone driving range</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_FQHCs_MinDistance.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>US Covid Atlas via HRSA, 2020</t>
+          <t>SAMSHA, 2019; Vivitrol, 2020; OSRM, 2020</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>1323</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
+          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
+          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
         </is>
       </c>
     </row>
@@ -4445,17 +4457,17 @@
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
-          <t>CntBupT</t>
+          <t>AvBupTime</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Tracts with Buprenorphine Provider (30-min driving)</t>
+          <t>Driving Time to Buprenorphine Provider (driving time across all tracts)</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Number of tracts with buprenorphine provider within a 30-min driving range</t>
+          <t>Average driving time (minutes) across tracts in state to nearest buprenorphine provider.</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -4475,12 +4487,12 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>1400</t>
+          <t>6.9</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
@@ -4512,17 +4524,17 @@
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr">
         <is>
-          <t>CntMetT</t>
+          <t>AvMetTime</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Tracts with Methadone Provider (30-min driving)</t>
+          <t>Driving Time to Methadone Provider (driving time across all tracts)</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Number of tracts with methadone provider within a 30-min driving range</t>
+          <t>Average driving time (minutes) across tracts in state to nearest methadone provider.</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -4542,12 +4554,12 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>996</t>
+          <t>29.15</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
@@ -4579,17 +4591,17 @@
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr">
         <is>
-          <t>CntNalT</t>
+          <t>AvNalTime</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Tracts with Naltrexone Provider (30-min driving)</t>
+          <t>Driving Time to Naltrexone Provider (driving time across all tracts)</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Number of tracts within 30 -min of naltrexone driving range</t>
+          <t>Average driving time (minutes) across tracts in state to nearest naltrexone provider.</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -4609,12 +4621,12 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>1323</t>
+          <t>11.68</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr">
@@ -4646,17 +4658,17 @@
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
         <is>
-          <t>AvBupTime</t>
+          <t>PctBupT</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Driving Time to Buprenorphine Provider (driving time across all tracts)</t>
+          <t>% Tracts within 30-min Drive of Buprenorphine Provider</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Average driving time (minutes) across tracts in state to nearest buprenorphine provider.</t>
+          <t>Percent of tracts with buprenorphine provider within a 30-min driving range</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -4681,7 +4693,7 @@
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>6.9</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr">
@@ -4713,17 +4725,17 @@
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr">
         <is>
-          <t>AvMetTime</t>
+          <t>PctMetT</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Driving Time to Methadone Provider (driving time across all tracts)</t>
+          <t>% Tracts within 30-min Drive of Methadone Provider</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Average driving time (minutes) across tracts in state to nearest methadone provider.</t>
+          <t>Percent of tracts with methadone provider within a 30-min driving range</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -4748,7 +4760,7 @@
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>29.15</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
@@ -4780,17 +4792,17 @@
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr">
         <is>
-          <t>AvNalTime</t>
+          <t>PctNalT</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Driving Time to Naltrexone Provider (driving time across all tracts)</t>
+          <t>% Tracts within 30-min Drive of Naltrexone Provider</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Average driving time (minutes) across tracts in state to nearest naltrexone provider.</t>
+          <t>Percent of tracts with naltrexone provider within a 30-min driving range</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -4815,7 +4827,7 @@
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>11.68</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr">
@@ -4847,52 +4859,52 @@
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr">
         <is>
-          <t>PctBupT</t>
+          <t>MhCtTmDr</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>% Tracts within 30-min Drive of Buprenorphine Provider</t>
+          <t>Tracts with Mental Health Provider (30-min drive)</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Percent of tracts with buprenorphine provider within a 30-min driving range</t>
+          <t>Number of tracts with a mental health provider within a 30-min driving range.</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MentalHealth_MinDistance.md</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>SAMSHA, 2019; Vivitrol, 2020; OSRM, 2020</t>
+          <t>SAMHSA, 2020</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2020</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>1342</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
+          <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
+          <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
         </is>
       </c>
     </row>
@@ -4914,32 +4926,32 @@
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr">
         <is>
-          <t>PctMetT</t>
+          <t>MhAvTmDr</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>% Tracts within 30-min Drive of Methadone Provider</t>
+          <t>Driving Time (min) to nearest Mental Health Provider</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Percent of tracts with methadone provider within a 30-min driving range</t>
+          <t>Average driving time (minutes) across tracts in state to nearest mental health provider.</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MentalHealth_MinDistance.md</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>SAMSHA, 2019; Vivitrol, 2020; OSRM, 2020</t>
+          <t>SAMHSA, 2020</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2020</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -4949,17 +4961,17 @@
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>11.42</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
+          <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
+          <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
         </is>
       </c>
     </row>
@@ -4981,32 +4993,32 @@
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr">
         <is>
-          <t>PctNalT</t>
+          <t>MhTmDrP</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>% Tracts within 30-min Drive of Naltrexone Provider</t>
+          <t>% Tracts with Mental Health Provider (30-min drive)</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Percent of tracts with naltrexone provider within a 30-min driving range</t>
+          <t>Percent of tracts with a mental health provider within a 30-min driving range.</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MentalHealth_MinDistance.md</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>SAMSHA, 2019; Vivitrol, 2020; OSRM, 2020</t>
+          <t>SAMHSA, 2020</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2020</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -5016,17 +5028,17 @@
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
+          <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
+          <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
         </is>
       </c>
     </row>
@@ -5048,32 +5060,32 @@
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr">
         <is>
-          <t>MhCtTmDr</t>
+          <t>OtpCtTmDr</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Tracts with Mental Health Provider (30-min drive)</t>
+          <t>Tracts with Opioid Treatment Program (OTP) (30-min drive)</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Number of tracts with a mental health provider within a 30-min driving range.</t>
+          <t>Number of tracts within 30-min of opioid treatment program driving range</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MentalHealth_MinDistance.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_OpioidUseTreatment.md</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>SAMHSA, 2020</t>
+          <t>SAMSHA, 2021</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2020</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2021</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -5083,7 +5095,7 @@
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>1342</t>
+          <t>1092</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr">
@@ -5115,32 +5127,32 @@
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr">
         <is>
-          <t>MhAvTmDr</t>
+          <t>OtpAvTmDr</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Driving Time (min) to nearest Mental Health Provider</t>
+          <t>Driving Time (min) to nearest Opioid Treatment Program (OTP)</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Average driving time (minutes) across tracts in state to nearest mental health provider.</t>
+          <t>Average driving time (minutes) across tracts to nearest opioid treatment program.</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MentalHealth_MinDistance.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_OpioidUseTreatment.md</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>SAMHSA, 2020</t>
+          <t>SAMSHA, 2021</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2020</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2021</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -5150,7 +5162,7 @@
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>11.42</t>
+          <t>24.18</t>
         </is>
       </c>
       <c r="Q65" t="inlineStr">
@@ -5182,32 +5194,32 @@
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr">
         <is>
-          <t>MhTmDrP</t>
+          <t>OtpTmDrP</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>% Tracts with Mental Health Provider (30-min drive)</t>
+          <t>% Tracts with Opioid Treatment Program (OTP) (30-min drive)</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Percent of tracts with a mental health provider within a 30-min driving range.</t>
+          <t>Percent of tracts within a 30-minute drive time of an opioid treatment program.</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MentalHealth_MinDistance.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_OpioidUseTreatment.md</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>SAMHSA, 2020</t>
+          <t>SAMSHA, 2021</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2020</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2021</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -5217,7 +5229,7 @@
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr">
@@ -5249,32 +5261,32 @@
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr">
         <is>
-          <t>OtpCtTmDr</t>
+          <t>RxCtTmDr</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Tracts with Opioid Treatment Program (OTP) (30-min drive)</t>
+          <t>Tracts with Pharmacy (30-min drive)</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Number of tracts within 30-min of opioid treatment program driving range</t>
+          <t>Number of tracts with pharmacy within a 30-min driving range</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_OpioidUseTreatment.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_Pharmacies_MinDistance.md</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>SAMSHA, 2021</t>
+          <t>InfoGroup, 2019</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2021</t>
+          <t>InfoGroup, 2019</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -5284,7 +5296,7 @@
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>1092</t>
+          <t>1406</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr">
@@ -5316,32 +5328,32 @@
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr">
         <is>
-          <t>OtpAvTmDr</t>
+          <t>RxAvTmDr</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Driving Time (min) to nearest Opioid Treatment Program (OTP)</t>
+          <t xml:space="preserve">Driving Time (min) to nearest Pharmacy </t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Average driving time (minutes) across tracts to nearest opioid treatment program.</t>
+          <t>Average driving time (minutes) across tracts in state to nearest pharmacy.</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_OpioidUseTreatment.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_Pharmacies_MinDistance.md</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>SAMSHA, 2021</t>
+          <t>InfoGroup, 2019</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2021</t>
+          <t>InfoGroup, 2019</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -5351,7 +5363,7 @@
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>24.18</t>
+          <t>5.97</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
@@ -5383,32 +5395,32 @@
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr">
         <is>
-          <t>OtpTmDrP</t>
+          <t>RxTmDrP</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>% Tracts with Opioid Treatment Program (OTP) (30-min drive)</t>
+          <t>% tracts with Pharmacy (30-min drive)</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Percent of tracts within a 30-minute drive time of an opioid treatment program.</t>
+          <t>Percent of tracts with pharmacy within a 30-min driving range</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_OpioidUseTreatment.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_Pharmacies_MinDistance.md</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>SAMSHA, 2021</t>
+          <t>InfoGroup, 2019</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2021</t>
+          <t>InfoGroup, 2019</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -5418,7 +5430,7 @@
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="Q69" t="inlineStr">
@@ -5450,32 +5462,32 @@
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr">
         <is>
-          <t>RxCtTmDr</t>
+          <t>SutpCtTmDr</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Tracts with Pharmacy (30-min drive)</t>
+          <t>Tracts with Substance Use Treatment (SUT) program (30-min drive)</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Number of tracts with pharmacy within a 30-min driving range</t>
+          <t>Number of tracts with Substance Use Treatment within a 30-min driving range.</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_Pharmacies_MinDistance.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_SubstanceUseTreatment.md</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>InfoGroup, 2019</t>
+          <t>SAMHSA, 2020</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>InfoGroup, 2019</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2020</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -5485,7 +5497,7 @@
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>1406</t>
+          <t>1364</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
@@ -5517,32 +5529,32 @@
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr">
         <is>
-          <t>RxAvTmDr</t>
+          <t>SutpAvTmDr</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t xml:space="preserve">Driving Time (min) to nearest Pharmacy </t>
+          <t>Driving Time (min) to nearest Substance Use Treatment program</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Average driving time (minutes) across tracts in state to nearest pharmacy.</t>
+          <t>Average driving time (minutes) across tracts in state to nearest Substance Use Treatment program.</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_Pharmacies_MinDistance.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_SubstanceUseTreatment.md</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>InfoGroup, 2019</t>
+          <t>SAMHSA, 2020</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>InfoGroup, 2019</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2020</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -5552,7 +5564,7 @@
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>5.97</t>
+          <t>9.96</t>
         </is>
       </c>
       <c r="Q71" t="inlineStr">
@@ -5584,32 +5596,32 @@
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr">
         <is>
-          <t>RxTmDrP</t>
+          <t>SutpTmDrP</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>% tracts with Pharmacy (30-min drive)</t>
+          <t>% tracts with Substance Use Treatment program (30-min drive)</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Percent of tracts with pharmacy within a 30-min driving range</t>
+          <t>Percent of tracts with Substance Use Treatment program within a 30-minute driving range.</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_Pharmacies_MinDistance.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_SubstanceUseTreatment.md</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>InfoGroup, 2019</t>
+          <t>SAMHSA, 2020</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>InfoGroup, 2019</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2020</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -5619,7 +5631,7 @@
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="Q72" t="inlineStr">
@@ -5651,32 +5663,32 @@
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr">
         <is>
-          <t>SutpCtTmDr</t>
+          <t>HospCtTmDr</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Tracts with Substance Use Treatment (SUT) program (30-min drive)</t>
+          <t>Tracts with Hospital (30-min drive)</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Number of tracts with Substance Use Treatment within a 30-min driving range.</t>
+          <t>Number of tracts with hospital within a 30-min driving range</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_SubstanceUseTreatment.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Acesss_Hospitals_MinDistance.md</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>SAMHSA, 2020</t>
+          <t>CovidCareMap, 2020</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2020</t>
+          <t>CovidCareMap, 2020</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -5686,7 +5698,7 @@
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>1364</t>
+          <t>1334</t>
         </is>
       </c>
       <c r="Q73" t="inlineStr">
@@ -5718,32 +5730,32 @@
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr">
         <is>
-          <t>SutpAvTmDr</t>
+          <t>HospAvTmDr</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Driving Time (min) to nearest Substance Use Treatment program</t>
+          <t>Driving Time to nearest Hospital</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Average driving time (minutes) across tracts in state to nearest Substance Use Treatment program.</t>
+          <t>Average driving time (minutes) across tracts in state to nearest hospital.</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_SubstanceUseTreatment.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Acesss_Hospitals_MinDistance.md</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>SAMHSA, 2020</t>
+          <t>CovidCareMap, 2020</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2020</t>
+          <t>CovidCareMap, 2020</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -5753,7 +5765,7 @@
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>9.96</t>
+          <t>13.13</t>
         </is>
       </c>
       <c r="Q74" t="inlineStr">
@@ -5785,32 +5797,32 @@
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr">
         <is>
-          <t>SutpTmDrP</t>
+          <t>HospTmDrP</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>% tracts with Substance Use Treatment program (30-min drive)</t>
+          <t>% Tracts within 30-min Drive of Hospital</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Percent of tracts with Substance Use Treatment program within a 30-minute driving range.</t>
+          <t>Percent of tracts with hospital within a 30-mini driving range</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_SubstanceUseTreatment.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Acesss_Hospitals_MinDistance.md</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>SAMHSA, 2020</t>
+          <t>CovidCareMap, 2020</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2020</t>
+          <t>CovidCareMap, 2020</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -5820,7 +5832,7 @@
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="Q75" t="inlineStr">
@@ -5852,32 +5864,32 @@
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr">
         <is>
-          <t>HospCtTmDr</t>
+          <t>AlcTot</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Tracts with Hospital (30-min drive)</t>
+          <t>Total Alcohol Outlets</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Number of tracts with hospital within a 30-min driving range</t>
+          <t>Total number of alcohol outlets</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Acesss_Hospitals_MinDistance.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/AlcoholOutlets_2018.md</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>CovidCareMap, 2020</t>
+          <t>InfoGroup, 2018</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>CovidCareMap, 2020</t>
+          <t>InfoGroup's 2018 Business and Consumer Historical Datafile</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -5887,19 +5899,16 @@
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>1334</t>
+          <t>421</t>
         </is>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
-        </is>
-      </c>
-      <c r="R76" t="inlineStr">
-        <is>
-          <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
-        </is>
-      </c>
+          <t>Alcohol outlet density is one approximation for accessibility or demand, though a limited one for describing or understanding the complex relationship between alcohol consumption and the surrounding area or communithy.
+The category of 'alcohol outlets' included in this dataset does not include supermarkets and/or drug stores that may carry beer, wine, or liquor. The laws governing these sales varies from state to state, permitting alcohol sales in different kind of sales outlets. Outlets that are permitted to make these sales may not always fall under the same NAICS code for Beer, Wine, and Liquor Stores.</t>
+        </is>
+      </c>
+      <c r="R76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -5919,32 +5928,32 @@
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr">
         <is>
-          <t>HospAvTmDr</t>
+          <t>AlcDens</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Driving Time to nearest Hospital</t>
+          <t>Alcohol Outlets Density</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Average driving time (minutes) across tracts in state to nearest hospital.</t>
+          <t>Number of alcohol outlets per square mile</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Acesss_Hospitals_MinDistance.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/AlcoholOutlets_2018.md</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>CovidCareMap, 2020</t>
+          <t>InfoGroup, 2018</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>CovidCareMap, 2020</t>
+          <t>InfoGroup's 2018 Business and Consumer Historical Datafile</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -5954,19 +5963,16 @@
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>13.13</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
-        </is>
-      </c>
-      <c r="R77" t="inlineStr">
-        <is>
-          <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
-        </is>
-      </c>
+          <t>Alcohol outlet density is one approximation for accessibility or demand, though a limited one for describing or understanding the complex relationship between alcohol consumption and the surrounding area or communithy.
+The category of 'alcohol outlets' included in this dataset does not include supermarkets and/or drug stores that may carry beer, wine, or liquor. The laws governing these sales varies from state to state, permitting alcohol sales in different kind of sales outlets. Outlets that are permitted to make these sales may not always fall under the same NAICS code for Beer, Wine, and Liquor Stores.</t>
+        </is>
+      </c>
+      <c r="R77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -5986,32 +5992,32 @@
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr">
         <is>
-          <t>HospTmDrP</t>
+          <t>AlcPerCap</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>% Tracts within 30-min Drive of Hospital</t>
+          <t>Alcohol Outlets per Capita</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Percent of tracts with hospital within a 30-mini driving range</t>
+          <t>Number of alcohol outlets per capita</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Acesss_Hospitals_MinDistance.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/AlcoholOutlets_2018.md</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>CovidCareMap, 2020</t>
+          <t>InfoGroup, 2018</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>CovidCareMap, 2020</t>
+          <t>InfoGroup's 2018 Business and Consumer Historical Datafile</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -6021,19 +6027,16 @@
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
-        </is>
-      </c>
-      <c r="R78" t="inlineStr">
-        <is>
-          <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
-        </is>
-      </c>
+          <t>Alcohol outlet density is one approximation for accessibility or demand, though a limited one for describing or understanding the complex relationship between alcohol consumption and the surrounding area or communithy.
+The category of 'alcohol outlets' included in this dataset does not include supermarkets and/or drug stores that may carry beer, wine, or liquor. The laws governing these sales varies from state to state, permitting alcohol sales in different kind of sales outlets. Outlets that are permitted to make these sales may not always fall under the same NAICS code for Beer, Wine, and Liquor Stores.</t>
+        </is>
+      </c>
+      <c r="R78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -6053,32 +6056,32 @@
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr">
         <is>
-          <t>AlcTot</t>
+          <t>TotPcp</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Total Alcohol Outlets</t>
+          <t>Count of Primary Care Physicians (PCPs)</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Total number of alcohol outlets</t>
+          <t>Number of primary care providers in area</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/AlcoholOutlets_2018.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Health_PCPs.md</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>InfoGroup, 2018</t>
+          <t>Dartmouth Atlas, 2010</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>InfoGroup's 2018 Business and Consumer Historical Datafile</t>
+          <t>Dartmouth Atlas' Primary Care Service Area Project, 2010</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -6088,13 +6091,12 @@
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>421</t>
+          <t>5904</t>
         </is>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>Alcohol outlet density is one approximation for accessibility or demand, though a limited one for describing or understanding the complex relationship between alcohol consumption and the surrounding area or communithy.
-The category of 'alcohol outlets' included in this dataset does not include supermarkets and/or drug stores that may carry beer, wine, or liquor. The laws governing these sales varies from state to state, permitting alcohol sales in different kind of sales outlets. Outlets that are permitted to make these sales may not always fall under the same NAICS code for Beer, Wine, and Liquor Stores.</t>
+          <t>Does not include U.S. territories Puerto Rico, Guam, Northern Mariana Islands, American Samoa, Virgin Islands, or Washington, D.C.</t>
         </is>
       </c>
       <c r="R79" t="inlineStr"/>
@@ -6117,48 +6119,47 @@
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr">
         <is>
-          <t>AlcDens</t>
+          <t>TotSp</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Alcohol Outlets Density</t>
+          <t>Count of Specialty Physicians</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Number of alcohol outlets per square mile</t>
+          <t>Number of specialty physicians in area</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/AlcoholOutlets_2018.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Health_PCPs.md</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>InfoGroup, 2018</t>
+          <t>Dartmouth Atlas, 2010</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>InfoGroup's 2018 Business and Consumer Historical Datafile</t>
+          <t>Dartmouth Atlas' Primary Care Service Area Project, 2010</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>9499</t>
         </is>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>Alcohol outlet density is one approximation for accessibility or demand, though a limited one for describing or understanding the complex relationship between alcohol consumption and the surrounding area or communithy.
-The category of 'alcohol outlets' included in this dataset does not include supermarkets and/or drug stores that may carry beer, wine, or liquor. The laws governing these sales varies from state to state, permitting alcohol sales in different kind of sales outlets. Outlets that are permitted to make these sales may not always fall under the same NAICS code for Beer, Wine, and Liquor Stores.</t>
+          <t>Does not include U.S. territories Puerto Rico, Guam, Northern Mariana Islands, American Samoa, Virgin Islands, or Washington, D.C.</t>
         </is>
       </c>
       <c r="R80" t="inlineStr"/>
@@ -6169,60 +6170,79 @@
           <t>Environment</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr"/>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr"/>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F81" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr"/>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>AlcPerCap</t>
+          <t>TotUnits</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Alcohol Outlets per Capita</t>
+          <t>Total Occupied Housing Units</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Number of alcohol outlets per capita</t>
+          <t>Count of total occupied housing units</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/AlcoholOutlets_2018.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Housing_2018.md</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>InfoGroup, 2018</t>
+          <t>ACS 2018, 5-Year; Census 2010; Social Explorer</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>InfoGroup's 2018 Business and Consumer Historical Datafile</t>
+          <t>American Community Survey 2014-2018 5 Year Estimate; American Community Survey 2008-2012; Social Explorer Historic Census Data on 2010 Geometries</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>874237</t>
         </is>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>Alcohol outlet density is one approximation for accessibility or demand, though a limited one for describing or understanding the complex relationship between alcohol consumption and the surrounding area or communithy.
-The category of 'alcohol outlets' included in this dataset does not include supermarkets and/or drug stores that may carry beer, wine, or liquor. The laws governing these sales varies from state to state, permitting alcohol sales in different kind of sales outlets. Outlets that are permitted to make these sales may not always fall under the same NAICS code for Beer, Wine, and Liquor Stores.</t>
+          <t>1980-2000 historic data was  interpolated onto 2010 county geographies by Social Explorer.</t>
         </is>
       </c>
       <c r="R81" t="inlineStr"/>
@@ -6233,59 +6253,79 @@
           <t>Environment</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr"/>
-      <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr"/>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F82" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr"/>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>TotPcp</t>
+          <t>VacantP</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Count of Primary Care Physicians (PCPs)</t>
+          <t>Vacant Housing Units %</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Number of primary care providers in area</t>
+          <t>Percentage of vacant housing units</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Health_PCPs.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Housing_2018.md</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Dartmouth Atlas, 2010</t>
+          <t>ACS 2018, 5-Year; ACS 2012, 5-Year; Social Explorer</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>Dartmouth Atlas' Primary Care Service Area Project, 2010</t>
+          <t>American Community Survey 2014-2018 5 Year Estimate; American Community Survey 2008-2012 5 Year Estimate; Social Explorer Historic Data on 2010 Geographies</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>5904</t>
+          <t>13.28</t>
         </is>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>Does not include U.S. territories Puerto Rico, Guam, Northern Mariana Islands, American Samoa, Virgin Islands, or Washington, D.C.</t>
+          <t>1980-2000 historic data was  interpolated onto 2010 county geographies by Social Explorer.</t>
         </is>
       </c>
       <c r="R82" t="inlineStr"/>
@@ -6308,49 +6348,45 @@
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr">
         <is>
-          <t>TotSp</t>
+          <t>MobileP</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Count of Specialty Physicians</t>
+          <t>Mobile Homes %</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Number of specialty physicians in area</t>
+          <t>Percentage of total housing units categorized as mobile housing structures</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Health_PCPs.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Housing_2018.md</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Dartmouth Atlas, 2010</t>
+          <t>ACS 2018, 5-Year</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>Dartmouth Atlas' Primary Care Service Area Project, 2010</t>
+          <t>American Community Survey 2014-2018 5 Year Estimate</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>9499</t>
-        </is>
-      </c>
-      <c r="Q83" t="inlineStr">
-        <is>
-          <t>Does not include U.S. territories Puerto Rico, Guam, Northern Mariana Islands, American Samoa, Virgin Islands, or Washington, D.C.</t>
-        </is>
-      </c>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="Q83" t="inlineStr"/>
       <c r="R83" t="inlineStr"/>
     </row>
     <row r="84">
@@ -6359,49 +6395,29 @@
           <t>Environment</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr">
         <is>
-          <t>TotUnits</t>
+          <t>LngTermP</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Total Occupied Housing Units</t>
+          <t>Long-Term Occupancy %</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Count of total occupied housing units</t>
+          <t>Percentage of population who moved into their current housing more than 20 years ago</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -6411,29 +6427,25 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; Census 2010; Social Explorer</t>
+          <t>ACS 2018, 5-Year</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimate; American Community Survey 2008-2012; Social Explorer Historic Census Data on 2010 Geometries</t>
+          <t>American Community Survey 2014-2018 5 Year Estimate</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>874237</t>
-        </is>
-      </c>
-      <c r="Q84" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was  interpolated onto 2010 county geographies by Social Explorer.</t>
-        </is>
-      </c>
+          <t>19.99</t>
+        </is>
+      </c>
+      <c r="Q84" t="inlineStr"/>
       <c r="R84" t="inlineStr"/>
     </row>
     <row r="85">
@@ -6442,49 +6454,29 @@
           <t>Environment</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr">
         <is>
-          <t>VacantP</t>
+          <t>RentalP</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Vacant Housing Units %</t>
+          <t>Rentals %</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Percentage of vacant housing units</t>
+          <t>Percentage of occupied housing units that are rented</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -6494,12 +6486,12 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; ACS 2012, 5-Year; Social Explorer</t>
+          <t>ACS 2018, 5-Year</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimate; American Community Survey 2008-2012 5 Year Estimate; Social Explorer Historic Data on 2010 Geographies</t>
+          <t>American Community Survey 2014-2018 5 Year Estimate</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -6509,14 +6501,10 @@
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>13.28</t>
-        </is>
-      </c>
-      <c r="Q85" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was  interpolated onto 2010 county geographies by Social Explorer.</t>
-        </is>
-      </c>
+          <t>37.28</t>
+        </is>
+      </c>
+      <c r="Q85" t="inlineStr"/>
       <c r="R85" t="inlineStr"/>
     </row>
     <row r="86">
@@ -6537,17 +6525,17 @@
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr">
         <is>
-          <t>MobileP</t>
+          <t>UnitDens</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Mobile Homes %</t>
+          <t>Housing Unit Density</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Percentage of total housing units categorized as mobile housing structures</t>
+          <t>Number of housing units per square mile of land area</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -6572,7 +6560,7 @@
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>6.39</t>
+          <t>46.11</t>
         </is>
       </c>
       <c r="Q86" t="inlineStr"/>
@@ -6596,32 +6584,32 @@
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr">
         <is>
-          <t>LngTermP</t>
+          <t>NoIntP</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Long-Term Occupancy %</t>
+          <t>Households without Internet Access %</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Percentage of population who moved into their current housing more than 20 years ago</t>
+          <t>Percentage of Households without Internet access</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Housing_2018.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Internet_2019.md</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year</t>
+          <t>ACS, 2019</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimate</t>
+          <t>American Community Survey 2015-2019 5 Year Estimate</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
@@ -6631,7 +6619,7 @@
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>19.99</t>
+          <t>8.79</t>
         </is>
       </c>
       <c r="Q87" t="inlineStr"/>
@@ -6655,32 +6643,32 @@
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr">
         <is>
-          <t>RentalP</t>
+          <t>Ndvi</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Rentals %</t>
+          <t>NDVI Average</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Percentage of occupied housing units that are rented</t>
+          <t>Average normalized difference vegetation index, a measure of greenness used to determine the amount of vegetation in an area, value from all pixel values in each Census tract</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Housing_2018.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/NDVI.md</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year</t>
+          <t>Sentinel-2 MSI, 2018</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimate</t>
+          <t>Sentinel 2 MSI: MultiSpectral Instrument Level-1 C</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -6690,10 +6678,14 @@
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>37.28</t>
-        </is>
-      </c>
-      <c r="Q88" t="inlineStr"/>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>Despite removing identified influences of cloud interferences, there may still be clouds or other atmospheric conditions that alter pixel values used in calculations. See the original source for greater documentation of these effects. Furthermore, summarizing NDVI to the census tract simplifies inter-census tract variability.</t>
+        </is>
+      </c>
       <c r="R88" t="inlineStr"/>
     </row>
     <row r="89">
@@ -6714,32 +6706,32 @@
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr">
         <is>
-          <t>UnitDens</t>
+          <t>ParkArea</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Housing Unit Density</t>
+          <t>Park Area</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Number of housing units per square mile of land area</t>
+          <t>Area (in square meters) of park or green space in a state).</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Housing_2018.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Park_Cover.md</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year</t>
+          <t>OSM</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimate</t>
+          <t>OpenStreetMap</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -6749,7 +6741,7 @@
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>46.11</t>
+          <t>39296898972.47</t>
         </is>
       </c>
       <c r="Q89" t="inlineStr"/>
@@ -6773,32 +6765,32 @@
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr">
         <is>
-          <t>NoIntP</t>
+          <t>Cover</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Households without Internet Access %</t>
+          <t>Greenspace Coverage</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Percentage of Households without Internet access</t>
+          <t>Percent of state covered by park or green space</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Internet_2019.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Park_Cover.md</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>ACS, 2019</t>
+          <t>OSM</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>American Community Survey 2015-2019 5 Year Estimate</t>
+          <t>OpenStreetMap</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
@@ -6808,7 +6800,7 @@
       </c>
       <c r="P90" t="inlineStr">
         <is>
-          <t>8.79</t>
+          <t>8.76</t>
         </is>
       </c>
       <c r="Q90" t="inlineStr"/>
@@ -6817,47 +6809,67 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Environment</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr"/>
-      <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr"/>
-      <c r="E91" t="inlineStr"/>
+          <t>Economic</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F91" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr"/>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Ndvi</t>
+          <t>PovP</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>NDVI Average</t>
+          <t>Poverty %</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Average normalized difference vegetation index, a measure of greenness used to determine the amount of vegetation in an area, value from all pixel values in each Census tract</t>
+          <t>Number of individuals earning below the poverty income threshold as a percentage of the total population</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/NDVI.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Economic_2018.md</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Sentinel-2 MSI, 2018</t>
+          <t>ACS 2018, 5-Year; ACS 2012, 5-Year; Social Explorer</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>Sentinel 2 MSI: MultiSpectral Instrument Level-1 C</t>
+          <t>American Community Survey 2014-2018 5 Year Estimates; American Community Survey 2008-2012 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
@@ -6867,60 +6879,84 @@
       </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>16.6</t>
         </is>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>Despite removing identified influences of cloud interferences, there may still be clouds or other atmospheric conditions that alter pixel values used in calculations. See the original source for greater documentation of these effects. Furthermore, summarizing NDVI to the census tract simplifies inter-census tract variability.</t>
-        </is>
-      </c>
-      <c r="R91" t="inlineStr"/>
+          <t>1980-2000 historic data was  interpolated onto 2010 county geographies by Social Explorer.</t>
+        </is>
+      </c>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>For complete definitions of ACS variables described above, please refer to the American Community Survey &amp; Puerto Rico Community Survey 2018 Subject Definitions.</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Environment</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr"/>
-      <c r="C92" t="inlineStr"/>
-      <c r="D92" t="inlineStr"/>
-      <c r="E92" t="inlineStr"/>
+          <t>Economic</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F92" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr"/>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>ParkArea</t>
+          <t>UnempP</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Park Area</t>
+          <t>Unemployment %</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Area (in square meters) of park or green space in a state).</t>
+          <t>The number of unemployed individuals as a percentage of the civilian labor force</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Park_Cover.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Economic_2018.md</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>OSM</t>
+          <t>ACS 2018, 5-Year; ACS 2012, 5-Year; Social Explorer</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>OpenStreetMap</t>
+          <t>American Community Survey 2014-2018 5 Year Estimates; American Community Survey 2008-2012 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
@@ -6930,22 +6966,34 @@
       </c>
       <c r="P92" t="inlineStr">
         <is>
-          <t>39296898972.47</t>
-        </is>
-      </c>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
+          <t>5.7</t>
+        </is>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>1980-2000 historic data was  interpolated onto 2010 county geographies by Social Explorer.</t>
+        </is>
+      </c>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>For complete definitions of ACS variables described above, please refer to the American Community Survey &amp; Puerto Rico Community Survey 2018 Subject Definitions.</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B93" t="inlineStr"/>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr"/>
-      <c r="E93" t="inlineStr"/>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F93" t="inlineStr">
         <is>
           <t>x</t>
@@ -6954,42 +7002,42 @@
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Cover</t>
+          <t>MedInc</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Greenspace Coverage</t>
+          <t>Median Income</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Percent of state covered by park or green space</t>
+          <t>Median income for individuals in the past 12 months (in 2018 inflation-adjusted dollars)</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Park_Cover.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Economic_2018.md</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>OSM</t>
+          <t>ACS 2018, 5-Year; ACS 2012, 5-Year</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>OpenStreetMap</t>
+          <t>American Community Survey 2014-2018 5 Year Estimates; American Community Survey 2008-2012 5-Year Estimates</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="P93" t="inlineStr">
         <is>
-          <t>8.76</t>
+          <t>34148</t>
         </is>
       </c>
       <c r="Q93" t="inlineStr"/>
@@ -7001,21 +7049,9 @@
           <t>Economic</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
           <t>x</t>
@@ -7026,24 +7062,20 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr">
         <is>
-          <t>PovP</t>
+          <t>PciE</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Poverty %</t>
+          <t>Per Capita Income</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Number of individuals earning below the poverty income threshold as a percentage of the total population</t>
+          <t>Per capita income for individuals in the past 12 months (in 2018 inflation-adjusted dollars)</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -7053,34 +7085,26 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; ACS 2012, 5-Year; Social Explorer</t>
+          <t>ACS 2018, 5-Year; ACS 2012, 5-Year</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimates; American Community Survey 2008-2012 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
+          <t>American Community Survey 2014-2018 5 Year Estimates; American Community Survey 2008-2012 5-Year Estimates</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="P94" t="inlineStr">
         <is>
-          <t>16.6</t>
-        </is>
-      </c>
-      <c r="Q94" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was  interpolated onto 2010 county geographies by Social Explorer.</t>
-        </is>
-      </c>
-      <c r="R94" t="inlineStr">
-        <is>
-          <t>For complete definitions of ACS variables described above, please refer to the American Community Survey &amp; Puerto Rico Community Survey 2018 Subject Definitions.</t>
-        </is>
-      </c>
+          <t>36888</t>
+        </is>
+      </c>
+      <c r="Q94" t="inlineStr"/>
+      <c r="R94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -7088,64 +7112,44 @@
           <t>Economic</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr">
         <is>
-          <t>UnempP</t>
+          <t>ForDqP</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Unemployment %</t>
+          <t>Foreclosure &amp; Delinquency %</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>The number of unemployed individuals as a percentage of the civilian labor force</t>
+          <t>Estimated percent of mortgages to start foreclosure process or be seriously delinquent during the 2008 Recession</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Economic_2018.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/ForeclosureRate.md</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; ACS 2012, 5-Year; Social Explorer</t>
+          <t>HUD, 2018</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimates; American Community Survey 2008-2012 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
+          <t>U.S. Department of Housing and Urban Development Neighborhood Stabilization Program</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
@@ -7155,17 +7159,17 @@
       </c>
       <c r="P95" t="inlineStr">
         <is>
-          <t>5.7</t>
+          <t>5.53</t>
         </is>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>1980-2000 historic data was  interpolated onto 2010 county geographies by Social Explorer.</t>
+          <t>The data reflects 2007-2008 estimates. Note again, via NSP2 Data and Methodology: The estimated rate of foreclosure problems do not reflect "real" numbers of foreclosures but rather reflect neighborhood characteristics that are estimated to have a high level of risk for foreclosure.</t>
         </is>
       </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t>For complete definitions of ACS variables described above, please refer to the American Community Survey &amp; Puerto Rico Community Survey 2018 Subject Definitions.</t>
+          <t>For more recent county, state, and metro area data on mortgage delinquencies, see Mortgage Performance Trends data from the U.S. Consumer Financial Protection Bureau.</t>
         </is>
       </c>
     </row>
@@ -7178,11 +7182,7 @@
       <c r="B96" t="inlineStr"/>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr">
         <is>
           <t>x</t>
@@ -7191,46 +7191,54 @@
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr">
         <is>
-          <t>MedInc</t>
+          <t>ForDqTot</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Median Income</t>
+          <t>Foreclosure &amp; Delinquency Count</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Median income for individuals in the past 12 months (in 2018 inflation-adjusted dollars)</t>
+          <t>Estimated number of mortgages to start foreclosure process or be seriously delinquent during the 2008 Recession</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Economic_2018.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/ForeclosureRate.md</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; ACS 2012, 5-Year</t>
+          <t>HUD, 2018</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimates; American Community Survey 2008-2012 5-Year Estimates</t>
+          <t>U.S. Department of Housing and Urban Development Neighborhood Stabilization Program</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="P96" t="inlineStr">
         <is>
-          <t>34148</t>
-        </is>
-      </c>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
+          <t>48.09</t>
+        </is>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>The data reflects 2007-2008 estimates. Note again, via NSP2 Data and Methodology: The estimated rate of foreclosure problems do not reflect "real" numbers of foreclosures but rather reflect neighborhood characteristics that are estimated to have a high level of risk for foreclosure.</t>
+        </is>
+      </c>
+      <c r="R96" t="inlineStr">
+        <is>
+          <t>For more recent county, state, and metro area data on mortgage delinquencies, see Mortgage Performance Trends data from the U.S. Consumer Financial Protection Bureau.</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -7254,22 +7262,22 @@
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr">
         <is>
-          <t>PciE</t>
+          <t>GiniCoeff</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Per Capita Income</t>
+          <t>Income Inequality (Gini Coefficient)</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Per capita income for individuals in the past 12 months (in 2018 inflation-adjusted dollars)</t>
+          <t>Income Inequality (Gini Coefficient)</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Economic_2018.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/ForeclosureRate.md</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
@@ -7284,12 +7292,12 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="P97" t="inlineStr">
         <is>
-          <t>36888</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="Q97" t="inlineStr"/>
@@ -7313,32 +7321,32 @@
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr">
         <is>
-          <t>ForDqP</t>
+          <t>EduP</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Foreclosure &amp; Delinquency %</t>
+          <t>Employed % - Education</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Estimated percent of mortgages to start foreclosure process or be seriously delinquent during the 2008 Recession</t>
+          <t>Percentage of population employed in educational services industry</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/ForeclosureRate.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Job_Categories_byIndustry_2018.md</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>HUD, 2018</t>
+          <t>ACS 2018, 5-Year</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>U.S. Department of Housing and Urban Development Neighborhood Stabilization Program</t>
+          <t>American Community Survey 2014-2018 5 Year Estimates</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
@@ -7348,19 +7356,15 @@
       </c>
       <c r="P98" t="inlineStr">
         <is>
-          <t>5.53</t>
+          <t>8.44</t>
         </is>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>The data reflects 2007-2008 estimates. Note again, via NSP2 Data and Methodology: The estimated rate of foreclosure problems do not reflect "real" numbers of foreclosures but rather reflect neighborhood characteristics that are estimated to have a high level of risk for foreclosure.</t>
-        </is>
-      </c>
-      <c r="R98" t="inlineStr">
-        <is>
-          <t>For more recent county, state, and metro area data on mortgage delinquencies, see Mortgage Performance Trends data from the U.S. Consumer Financial Protection Bureau.</t>
-        </is>
-      </c>
+          <t>Please note this dataset uses industry as a classifier and does not include any information about the specific occupation in that industry. This could lead to an overestimation of High Risk to Injury workers category.</t>
+        </is>
+      </c>
+      <c r="R98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -7380,32 +7384,32 @@
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr">
         <is>
-          <t>ForDqTot</t>
+          <t>HghRskP</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Foreclosure &amp; Delinquency Count</t>
+          <t>Employed % - High Risk of Injury</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Estimated number of mortgages to start foreclosure process or be seriously delinquent during the 2008 Recession</t>
+          <t>Percentage of population employed in following industries: agriculture, forestry, fishing and hunting, mining, quarrying, oil and gas extraction, construction, manufacturing, utilities</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/ForeclosureRate.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Job_Categories_byIndustry_2018.md</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>HUD, 2018</t>
+          <t>ACS 2018, 5-Year</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>U.S. Department of Housing and Urban Development Neighborhood Stabilization Program</t>
+          <t>American Community Survey 2014-2018 5 Year Estimates</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
@@ -7415,19 +7419,15 @@
       </c>
       <c r="P99" t="inlineStr">
         <is>
-          <t>48.09</t>
+          <t>20</t>
         </is>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>The data reflects 2007-2008 estimates. Note again, via NSP2 Data and Methodology: The estimated rate of foreclosure problems do not reflect "real" numbers of foreclosures but rather reflect neighborhood characteristics that are estimated to have a high level of risk for foreclosure.</t>
-        </is>
-      </c>
-      <c r="R99" t="inlineStr">
-        <is>
-          <t>For more recent county, state, and metro area data on mortgage delinquencies, see Mortgage Performance Trends data from the U.S. Consumer Financial Protection Bureau.</t>
-        </is>
-      </c>
+          <t>Please note this dataset uses industry as a classifier and does not include any information about the specific occupation in that industry. This could lead to an overestimation of High Risk to Injury workers category.</t>
+        </is>
+      </c>
+      <c r="R99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -7438,11 +7438,7 @@
       <c r="B100" t="inlineStr"/>
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr"/>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="E100" t="inlineStr"/>
       <c r="F100" t="inlineStr">
         <is>
           <t>x</t>
@@ -7451,32 +7447,32 @@
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr">
         <is>
-          <t>GiniCoeff</t>
+          <t>HltCrP</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Income Inequality (Gini Coefficient)</t>
+          <t>Employed % - Health Care</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Income Inequality (Gini Coefficient)</t>
+          <t>Percentage of population employed in health care and social assistance industries</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/ForeclosureRate.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Job_Categories_byIndustry_2018.md</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; ACS 2012, 5-Year</t>
+          <t>ACS 2018, 5-Year</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimates; American Community Survey 2008-2012 5-Year Estimates</t>
+          <t>American Community Survey 2014-2018 5 Year Estimates</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
@@ -7486,10 +7482,14 @@
       </c>
       <c r="P100" t="inlineStr">
         <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="Q100" t="inlineStr"/>
+          <t>13.13</t>
+        </is>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>Please note this dataset uses industry as a classifier and does not include any information about the specific occupation in that industry. This could lead to an overestimation of High Risk to Injury workers category.</t>
+        </is>
+      </c>
       <c r="R100" t="inlineStr"/>
     </row>
     <row r="101">
@@ -7510,17 +7510,17 @@
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr">
         <is>
-          <t>EduP</t>
+          <t>RetailP</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Employed % - Education</t>
+          <t>Employed % - Retail</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Percentage of population employed in educational services industry</t>
+          <t>Percentage of population employed in retail trade industry</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -7545,7 +7545,7 @@
       </c>
       <c r="P101" t="inlineStr">
         <is>
-          <t>8.44</t>
+          <t>11.7</t>
         </is>
       </c>
       <c r="Q101" t="inlineStr">
@@ -7573,22 +7573,22 @@
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr">
         <is>
-          <t>HghRskP</t>
+          <t>EssnWrkE</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Employed % - High Risk of Injury</t>
+          <t>Count of Essential Workers</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Percentage of population employed in following industries: agriculture, forestry, fishing and hunting, mining, quarrying, oil and gas extraction, construction, manufacturing, utilities</t>
+          <t>Estimated count of population employed in essential occupations.</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Job_Categories_byIndustry_2018.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Job_Categories_byOccupation_2018.md</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
@@ -7603,19 +7603,15 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="P102" t="inlineStr">
         <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="Q102" t="inlineStr">
-        <is>
-          <t>Please note this dataset uses industry as a classifier and does not include any information about the specific occupation in that industry. This could lead to an overestimation of High Risk to Injury workers category.</t>
-        </is>
-      </c>
+          <t>1509709</t>
+        </is>
+      </c>
+      <c r="Q102" t="inlineStr"/>
       <c r="R102" t="inlineStr"/>
     </row>
     <row r="103">
@@ -7636,22 +7632,22 @@
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr">
         <is>
-          <t>HltCrP</t>
+          <t>EssnWrkP</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Employed % - Health Care</t>
+          <t>Essential Workers %</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Percentage of population employed in health care and social assistance industries</t>
+          <t>Percentage of population employed in essential occupations.</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Job_Categories_byIndustry_2018.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Job_Categories_byOccupation_2018.md</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
@@ -7671,20 +7667,16 @@
       </c>
       <c r="P103" t="inlineStr">
         <is>
-          <t>13.13</t>
-        </is>
-      </c>
-      <c r="Q103" t="inlineStr">
-        <is>
-          <t>Please note this dataset uses industry as a classifier and does not include any information about the specific occupation in that industry. This could lead to an overestimation of High Risk to Injury workers category.</t>
-        </is>
-      </c>
+          <t>42.96</t>
+        </is>
+      </c>
+      <c r="Q103" t="inlineStr"/>
       <c r="R103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Policy</t>
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
@@ -7699,55 +7691,57 @@
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr">
         <is>
-          <t>RetailP</t>
+          <t>AnyGslDt</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Employed % - Retail</t>
+          <t>Any Good Samaritan Law (date)</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Percentage of population employed in retail trade industry</t>
+          <t>Date (DMY) any type of GoodDate (DMY) any type of Good Samaritan Law is effective</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Job_Categories_byIndustry_2018.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/GSL_2018.md</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year</t>
+          <t>OPTIC, 2017</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimates</t>
+          <t>RAND-USC Schaeffer Opioid Policy Tools and Information Center, 2021</t>
         </is>
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>date</t>
         </is>
       </c>
       <c r="P104" t="inlineStr">
         <is>
-          <t>11.7</t>
-        </is>
-      </c>
-      <c r="Q104" t="inlineStr">
-        <is>
-          <t>Please note this dataset uses industry as a classifier and does not include any information about the specific occupation in that industry. This could lead to an overestimation of High Risk to Injury workers category.</t>
-        </is>
-      </c>
-      <c r="R104" t="inlineStr"/>
+          <t>2010-06-10 00:00:00</t>
+        </is>
+      </c>
+      <c r="Q104" t="inlineStr"/>
+      <c r="R104" t="inlineStr">
+        <is>
+          <t>Specific dimensions of Good Samaritan policy data included in this public version of the data are based on a review of relevant protections granted through different variations of these laws as described in:
+- Davis, C. S., &amp; Carr, D. (2015). Legal changes to increase access to naloxone for opioid overdose reversal in the United States. Drug and alcohol dependence, 157, 112-120.- 
+- Davis, C., &amp; Carr, D. (2017). State legal innovations to encourage naloxone dispensing. Journal of the American Pharmacists Association, 57(2), S180-S184.</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Policy</t>
         </is>
       </c>
       <c r="B105" t="inlineStr"/>
@@ -7762,51 +7756,57 @@
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr">
         <is>
-          <t>EssnWrkE</t>
+          <t>GslArrDt</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Count of Essential Workers</t>
+          <t>Good Samaritan Law Protecting Arrest (date)</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Estimated count of population employed in essential occupations.</t>
+          <t>Date (DMY) that Good Samaritan Law providing protection from arrest for controlled substance possession laws is effective</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Job_Categories_byOccupation_2018.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/GSL_2018.md</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year</t>
+          <t>OPTIC, 2017</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimates</t>
+          <t>RAND-USC Schaeffer Opioid Policy Tools and Information Center, 2021</t>
         </is>
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>date</t>
         </is>
       </c>
       <c r="P105" t="inlineStr">
         <is>
-          <t>1509709</t>
+          <t>2015-10-01 00:00:00</t>
         </is>
       </c>
       <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
+      <c r="R105" t="inlineStr">
+        <is>
+          <t>Specific dimensions of Good Samaritan policy data included in this public version of the data are based on a review of relevant protections granted through different variations of these laws as described in:
+- Davis, C. S., &amp; Carr, D. (2015). Legal changes to increase access to naloxone for opioid overdose reversal in the United States. Drug and alcohol dependence, 157, 112-120.- 
+- Davis, C., &amp; Carr, D. (2017). State legal innovations to encourage naloxone dispensing. Journal of the American Pharmacists Association, 57(2), S180-S184.</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Policy</t>
         </is>
       </c>
       <c r="B106" t="inlineStr"/>
@@ -7821,32 +7821,32 @@
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr">
         <is>
-          <t>EssnWrkP</t>
+          <t>AnyGslFr</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>Essential Workers %</t>
+          <t>Any Good Samaritan Law (fraction of year in 2018)</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Percentage of population employed in essential occupations.</t>
+          <t>Fraction of year any type of Good Samaritan Law is effective</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Job_Categories_byOccupation_2018.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/GSL_2018.md</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year</t>
+          <t>OPTIC, 2017</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimates</t>
+          <t>RAND-USC Schaeffer Opioid Policy Tools and Information Center, 2021</t>
         </is>
       </c>
       <c r="O106" t="inlineStr">
@@ -7856,11 +7856,17 @@
       </c>
       <c r="P106" t="inlineStr">
         <is>
-          <t>42.96</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
+      <c r="R106" t="inlineStr">
+        <is>
+          <t>Specific dimensions of Good Samaritan policy data included in this public version of the data are based on a review of relevant protections granted through different variations of these laws as described in:
+- Davis, C. S., &amp; Carr, D. (2015). Legal changes to increase access to naloxone for opioid overdose reversal in the United States. Drug and alcohol dependence, 157, 112-120.- 
+- Davis, C., &amp; Carr, D. (2017). State legal innovations to encourage naloxone dispensing. Journal of the American Pharmacists Association, 57(2), S180-S184.</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -7880,17 +7886,17 @@
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr">
         <is>
-          <t>AnyGslDt</t>
+          <t>GslArrFr</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Any Good Samaritan Law (date)</t>
+          <t>Good Samaritan Law Protecting Arrest (fraction of year in 2018)</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>Date (DMY) any type of GoodDate (DMY) any type of Good Samaritan Law is effective</t>
+          <t>Fraction of year that Good Samaritan Law providing protection from arrest for controlled substance possession laws is effective</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -7910,12 +7916,12 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>number</t>
         </is>
       </c>
       <c r="P107" t="inlineStr">
         <is>
-          <t>2010-06-10 00:00:00</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q107" t="inlineStr"/>
@@ -7945,50 +7951,50 @@
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="inlineStr">
         <is>
-          <t>GslArrDt</t>
+          <t>MedcdExp19</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Good Samaritan Law Protecting Arrest (date)</t>
+          <t>Total Medicaid Spending (FY 2019)</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Date (DMY) that Good Samaritan Law providing protection from arrest for controlled substance possession laws is effective</t>
+          <t>Total medicaid spending in FY2019</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/GSL_2018.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/MedExp_2018_19.md</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>OPTIC, 2017</t>
+          <t>KFF, 2019</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>RAND-USC Schaeffer Opioid Policy Tools and Information Center, 2021</t>
+          <t>Kaiser Family Foundation, 2019</t>
         </is>
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="P108" t="inlineStr">
         <is>
-          <t>2015-10-01 00:00:00</t>
+          <t>14959703300</t>
         </is>
       </c>
       <c r="Q108" t="inlineStr"/>
       <c r="R108" t="inlineStr">
         <is>
-          <t>Specific dimensions of Good Samaritan policy data included in this public version of the data are based on a review of relevant protections granted through different variations of these laws as described in:
-- Davis, C. S., &amp; Carr, D. (2015). Legal changes to increase access to naloxone for opioid overdose reversal in the United States. Drug and alcohol dependence, 157, 112-120.- 
-- Davis, C., &amp; Carr, D. (2017). State legal innovations to encourage naloxone dispensing. Journal of the American Pharmacists Association, 57(2), S180-S184.</t>
+          <t>1. Medicaid expenditures do not include administrative costs, accounting adjustments, or the U.S. Territories. Total Medicaid spending including these additional items was $626 billion in FY 2019.
+2. Federal Fiscal Year: Unless otherwise noted, years preceded by "FY" refer to the Federal Fiscal Year, which runs from October 1 through September 30. FY 2019 refers to the period from October 1, 2018 through September 30, 2019.
+3. New York data may reflect anomalous spending due to adjustments, change in expenditures, and lags in state claims.</t>
         </is>
       </c>
     </row>
@@ -8010,241 +8016,46 @@
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr">
         <is>
-          <t>AnyGslFr</t>
+          <t>MedcdExp18</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Any Good Samaritan Law (fraction of year in 2018)</t>
+          <t>Total Medicaid Spending (FY 2018)</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Fraction of year any type of Good Samaritan Law is effective</t>
+          <t>Total medicaid spending in FY2018</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/GSL_2018.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/MedExp_2018_19.md</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>OPTIC, 2017</t>
+          <t>KFF, 2018</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>RAND-USC Schaeffer Opioid Policy Tools and Information Center, 2021</t>
+          <t>Kaiser Family Foundation, 2018</t>
         </is>
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="P109" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12037465400</t>
         </is>
       </c>
       <c r="Q109" t="inlineStr"/>
       <c r="R109" t="inlineStr">
-        <is>
-          <t>Specific dimensions of Good Samaritan policy data included in this public version of the data are based on a review of relevant protections granted through different variations of these laws as described in:
-- Davis, C. S., &amp; Carr, D. (2015). Legal changes to increase access to naloxone for opioid overdose reversal in the United States. Drug and alcohol dependence, 157, 112-120.- 
-- Davis, C., &amp; Carr, D. (2017). State legal innovations to encourage naloxone dispensing. Journal of the American Pharmacists Association, 57(2), S180-S184.</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>Policy</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr"/>
-      <c r="C110" t="inlineStr"/>
-      <c r="D110" t="inlineStr"/>
-      <c r="E110" t="inlineStr"/>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr"/>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>GslArrFr</t>
-        </is>
-      </c>
-      <c r="I110" t="inlineStr">
-        <is>
-          <t>Good Samaritan Law Protecting Arrest (fraction of year in 2018)</t>
-        </is>
-      </c>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>Fraction of year that Good Samaritan Law providing protection from arrest for controlled substance possession laws is effective</t>
-        </is>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/GSL_2018.md</t>
-        </is>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>OPTIC, 2017</t>
-        </is>
-      </c>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>RAND-USC Schaeffer Opioid Policy Tools and Information Center, 2021</t>
-        </is>
-      </c>
-      <c r="O110" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="P110" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr">
-        <is>
-          <t>Specific dimensions of Good Samaritan policy data included in this public version of the data are based on a review of relevant protections granted through different variations of these laws as described in:
-- Davis, C. S., &amp; Carr, D. (2015). Legal changes to increase access to naloxone for opioid overdose reversal in the United States. Drug and alcohol dependence, 157, 112-120.- 
-- Davis, C., &amp; Carr, D. (2017). State legal innovations to encourage naloxone dispensing. Journal of the American Pharmacists Association, 57(2), S180-S184.</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>Policy</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr"/>
-      <c r="C111" t="inlineStr"/>
-      <c r="D111" t="inlineStr"/>
-      <c r="E111" t="inlineStr"/>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr"/>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>MedcdExp19</t>
-        </is>
-      </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>Total Medicaid Spending (FY 2019)</t>
-        </is>
-      </c>
-      <c r="J111" t="inlineStr">
-        <is>
-          <t>Total medicaid spending in FY2019</t>
-        </is>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/MedExp_2018_19.md</t>
-        </is>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>KFF, 2019</t>
-        </is>
-      </c>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>Kaiser Family Foundation, 2019</t>
-        </is>
-      </c>
-      <c r="O111" t="inlineStr">
-        <is>
-          <t>integer</t>
-        </is>
-      </c>
-      <c r="P111" t="inlineStr">
-        <is>
-          <t>14959703300</t>
-        </is>
-      </c>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr">
-        <is>
-          <t>1. Medicaid expenditures do not include administrative costs, accounting adjustments, or the U.S. Territories. Total Medicaid spending including these additional items was $626 billion in FY 2019.
-2. Federal Fiscal Year: Unless otherwise noted, years preceded by "FY" refer to the Federal Fiscal Year, which runs from October 1 through September 30. FY 2019 refers to the period from October 1, 2018 through September 30, 2019.
-3. New York data may reflect anomalous spending due to adjustments, change in expenditures, and lags in state claims.</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>Policy</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr"/>
-      <c r="C112" t="inlineStr"/>
-      <c r="D112" t="inlineStr"/>
-      <c r="E112" t="inlineStr"/>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr"/>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>MedcdExp18</t>
-        </is>
-      </c>
-      <c r="I112" t="inlineStr">
-        <is>
-          <t>Total Medicaid Spending (FY 2018)</t>
-        </is>
-      </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>Total medicaid spending in FY2018</t>
-        </is>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/MedExp_2018_19.md</t>
-        </is>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>KFF, 2018</t>
-        </is>
-      </c>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>Kaiser Family Foundation, 2018</t>
-        </is>
-      </c>
-      <c r="O112" t="inlineStr">
-        <is>
-          <t>integer</t>
-        </is>
-      </c>
-      <c r="P112" t="inlineStr">
-        <is>
-          <t>12037465400</t>
-        </is>
-      </c>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr">
         <is>
           <t xml:space="preserve">
 1. Medicaid is financed by both the federal government and the states using a formula that is based on a state's per capita income. The federal share (FMAP) varies by state from a floor of 50% to a high of 74% with exceptions for certain services or populations. The Affordable Care Act (ACA) expanded Medicaid eligibility for adults under age 65 and provided the states that chose to expand with an Enhanced FMAP of 100% federal funding through 2016 for the newly eligible adults. The federal share for the expansion population phased down to 95% in 2017 and to 90% by 2020 and beyond.
@@ -8255,64 +8066,64 @@
         </is>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
+    <row r="110">
+      <c r="A110" t="inlineStr">
         <is>
           <t>Policy</t>
         </is>
       </c>
-      <c r="B113" t="inlineStr"/>
-      <c r="C113" t="inlineStr"/>
-      <c r="D113" t="inlineStr"/>
-      <c r="E113" t="inlineStr"/>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr"/>
-      <c r="H113" t="inlineStr">
+      <c r="B110" t="inlineStr"/>
+      <c r="C110" t="inlineStr"/>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="inlineStr">
         <is>
           <t>TradFedExp</t>
         </is>
       </c>
-      <c r="I113" t="inlineStr">
+      <c r="I110" t="inlineStr">
         <is>
           <t>Traditional Medicaid Federal Spending</t>
         </is>
       </c>
-      <c r="J113" t="inlineStr">
+      <c r="J110" t="inlineStr">
         <is>
           <t>Traditional medicaid - federal spending</t>
         </is>
       </c>
-      <c r="K113" t="inlineStr">
+      <c r="K110" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/MedExp_2018_19.md</t>
         </is>
       </c>
-      <c r="L113" t="inlineStr">
+      <c r="L110" t="inlineStr">
         <is>
           <t>KFF, 2018</t>
         </is>
       </c>
-      <c r="M113" t="inlineStr">
+      <c r="M110" t="inlineStr">
         <is>
           <t>Kaiser Family Foundation, 2018</t>
         </is>
       </c>
-      <c r="O113" t="inlineStr">
+      <c r="O110" t="inlineStr">
         <is>
           <t>integer</t>
         </is>
       </c>
-      <c r="P113" t="inlineStr">
+      <c r="P110" t="inlineStr">
         <is>
           <t>4610569600</t>
         </is>
       </c>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr">
+      <c r="Q110" t="inlineStr"/>
+      <c r="R110" t="inlineStr">
         <is>
           <t xml:space="preserve">
 1. Medicaid is financed by both the federal government and the states using a formula that is based on a state's per capita income. The federal share (FMAP) varies by state from a floor of 50% to a high of 74% with exceptions for certain services or populations. The Affordable Care Act (ACA) expanded Medicaid eligibility for adults under age 65 and provided the states that chose to expand with an Enhanced FMAP of 100% federal funding through 2016 for the newly eligible adults. The federal share for the expansion population phased down to 95% in 2017 and to 90% by 2020 and beyond.
@@ -8323,64 +8134,64 @@
         </is>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
+    <row r="111">
+      <c r="A111" t="inlineStr">
         <is>
           <t>Policy</t>
         </is>
       </c>
-      <c r="B114" t="inlineStr"/>
-      <c r="C114" t="inlineStr"/>
-      <c r="D114" t="inlineStr"/>
-      <c r="E114" t="inlineStr"/>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr"/>
-      <c r="H114" t="inlineStr">
+      <c r="B111" t="inlineStr"/>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr"/>
+      <c r="H111" t="inlineStr">
         <is>
           <t>TradSttExp</t>
         </is>
       </c>
-      <c r="I114" t="inlineStr">
+      <c r="I111" t="inlineStr">
         <is>
           <t>Traditional Medicaid State Spending</t>
         </is>
       </c>
-      <c r="J114" t="inlineStr">
+      <c r="J111" t="inlineStr">
         <is>
           <t>Traditional medicaid - state spending</t>
         </is>
       </c>
-      <c r="K114" t="inlineStr">
+      <c r="K111" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/MedExp_2018_19.md</t>
         </is>
       </c>
-      <c r="L114" t="inlineStr">
+      <c r="L111" t="inlineStr">
         <is>
           <t>KFF, 2018</t>
         </is>
       </c>
-      <c r="M114" t="inlineStr">
+      <c r="M111" t="inlineStr">
         <is>
           <t>Kaiser Family Foundation, 2018</t>
         </is>
       </c>
-      <c r="O114" t="inlineStr">
+      <c r="O111" t="inlineStr">
         <is>
           <t>integer</t>
         </is>
       </c>
-      <c r="P114" t="inlineStr">
+      <c r="P111" t="inlineStr">
         <is>
           <t>4349828600</t>
         </is>
       </c>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr">
+      <c r="Q111" t="inlineStr"/>
+      <c r="R111" t="inlineStr">
         <is>
           <t xml:space="preserve">
 1. Medicaid is financed by both the federal government and the states using a formula that is based on a state's per capita income. The federal share (FMAP) varies by state from a floor of 50% to a high of 74% with exceptions for certain services or populations. The Affordable Care Act (ACA) expanded Medicaid eligibility for adults under age 65 and provided the states that chose to expand with an Enhanced FMAP of 100% federal funding through 2016 for the newly eligible adults. The federal share for the expansion population phased down to 95% in 2017 and to 90% by 2020 and beyond.
@@ -8391,64 +8202,64 @@
         </is>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
+    <row r="112">
+      <c r="A112" t="inlineStr">
         <is>
           <t>Policy</t>
         </is>
       </c>
-      <c r="B115" t="inlineStr"/>
-      <c r="C115" t="inlineStr"/>
-      <c r="D115" t="inlineStr"/>
-      <c r="E115" t="inlineStr"/>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr"/>
-      <c r="H115" t="inlineStr">
+      <c r="B112" t="inlineStr"/>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr"/>
+      <c r="H112" t="inlineStr">
         <is>
           <t>ExpnFedExp</t>
         </is>
       </c>
-      <c r="I115" t="inlineStr">
+      <c r="I112" t="inlineStr">
         <is>
           <t>Expansion Medicaid Federal Spending</t>
         </is>
       </c>
-      <c r="J115" t="inlineStr">
+      <c r="J112" t="inlineStr">
         <is>
           <t>Expansion Group - Federal Spending</t>
         </is>
       </c>
-      <c r="K115" t="inlineStr">
+      <c r="K112" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/MedExp_2018_19.md</t>
         </is>
       </c>
-      <c r="L115" t="inlineStr">
+      <c r="L112" t="inlineStr">
         <is>
           <t>KFF, 2018</t>
         </is>
       </c>
-      <c r="M115" t="inlineStr">
+      <c r="M112" t="inlineStr">
         <is>
           <t>Kaiser Family Foundation, 2018</t>
         </is>
       </c>
-      <c r="O115" t="inlineStr">
+      <c r="O112" t="inlineStr">
         <is>
           <t>integer</t>
         </is>
       </c>
-      <c r="P115" t="inlineStr">
+      <c r="P112" t="inlineStr">
         <is>
           <t>2902387900</t>
         </is>
       </c>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr">
+      <c r="Q112" t="inlineStr"/>
+      <c r="R112" t="inlineStr">
         <is>
           <t xml:space="preserve">
 1. Medicaid is financed by both the federal government and the states using a formula that is based on a state's per capita income. The federal share (FMAP) varies by state from a floor of 50% to a high of 74% with exceptions for certain services or populations. The Affordable Care Act (ACA) expanded Medicaid eligibility for adults under age 65 and provided the states that chose to expand with an Enhanced FMAP of 100% federal funding through 2016 for the newly eligible adults. The federal share for the expansion population phased down to 95% in 2017 and to 90% by 2020 and beyond.
@@ -8459,64 +8270,64 @@
         </is>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
+    <row r="113">
+      <c r="A113" t="inlineStr">
         <is>
           <t>Policy</t>
         </is>
       </c>
-      <c r="B116" t="inlineStr"/>
-      <c r="C116" t="inlineStr"/>
-      <c r="D116" t="inlineStr"/>
-      <c r="E116" t="inlineStr"/>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr"/>
-      <c r="H116" t="inlineStr">
+      <c r="B113" t="inlineStr"/>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr"/>
+      <c r="H113" t="inlineStr">
         <is>
           <t>ExpnSttExp</t>
         </is>
       </c>
-      <c r="I116" t="inlineStr">
+      <c r="I113" t="inlineStr">
         <is>
           <t>Expansion Medicaid State Spending</t>
         </is>
       </c>
-      <c r="J116" t="inlineStr">
+      <c r="J113" t="inlineStr">
         <is>
           <t>Expansion Group - State Spending</t>
         </is>
       </c>
-      <c r="K116" t="inlineStr">
+      <c r="K113" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/MedExp_2018_19.md</t>
         </is>
       </c>
-      <c r="L116" t="inlineStr">
+      <c r="L113" t="inlineStr">
         <is>
           <t>KFF, 2018</t>
         </is>
       </c>
-      <c r="M116" t="inlineStr">
+      <c r="M113" t="inlineStr">
         <is>
           <t>Kaiser Family Foundation, 2018</t>
         </is>
       </c>
-      <c r="O116" t="inlineStr">
+      <c r="O113" t="inlineStr">
         <is>
           <t>integer</t>
         </is>
       </c>
-      <c r="P116" t="inlineStr">
+      <c r="P113" t="inlineStr">
         <is>
           <t>174679300</t>
         </is>
       </c>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr">
+      <c r="Q113" t="inlineStr"/>
+      <c r="R113" t="inlineStr">
         <is>
           <t xml:space="preserve">
 1. Medicaid is financed by both the federal government and the states using a formula that is based on a state's per capita income. The federal share (FMAP) varies by state from a floor of 50% to a high of 74% with exceptions for certain services or populations. The Affordable Care Act (ACA) expanded Medicaid eligibility for adults under age 65 and provided the states that chose to expand with an Enhanced FMAP of 100% federal funding through 2016 for the newly eligible adults. The federal share for the expansion population phased down to 95% in 2017 and to 90% by 2020 and beyond.
@@ -8527,6 +8338,191 @@
         </is>
       </c>
     </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Policy</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr"/>
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr"/>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>MdMarijLaw</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Laws authorizing medical marijuana use </t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>Dummy variable, indicating whether state has a law authorizing adults to use medical marijuana (0=no, 1=yes)</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/MedMarijLaw.md</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>PDAPS, 2017</t>
+        </is>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>Prescription Drug Abuse Policy System, Medical Marijuana Caregiver Rules, 2017</t>
+        </is>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q114" t="inlineStr"/>
+      <c r="R114" t="inlineStr">
+        <is>
+          <t>The variables included here are very high-level and collected as of Feb 1, 2017. For more detailed and longitudinal data, we recommend the following datasets from Prescription Drug Abuse Policy System:
+1. Medical Marijuana Caregiver Rubles from 2003 to 2017
+2. Medical Marijuana Dispensaries from 1999 to 2017
+3. Medical Marijuana Laws for Patients from 2009 to 2017
+4. Medical Merijuana Product Safety Laws from 2010 to 2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Policy</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr"/>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr"/>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>AnyNalDt</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>Any Naloxone Law (date)</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>Date (MY) any type of Naloxone law effective</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/NAL_2017.md</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>OPTIC, 2017</t>
+        </is>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>RAND-USC Schaeffer Opioid Policy Tools and Information Center, 2021</t>
+        </is>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t>2010-07-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="Q115" t="inlineStr"/>
+      <c r="R115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Policy</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr"/>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>NalPrStDt</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>Naloxone Law allowing distribution through a standing or order (date)</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>Date (MY) Naloxone law allowing distribution through a standing or protocol order effective</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/NAL_2017.md</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>OPTIC, 2017</t>
+        </is>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>RAND-USC Schaeffer Opioid Policy Tools and Information Center, 2021</t>
+        </is>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>2015-08-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="Q116" t="inlineStr"/>
+      <c r="R116" t="inlineStr"/>
+    </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
@@ -8545,54 +8541,46 @@
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr">
         <is>
-          <t>MdMarijLaw</t>
+          <t>NalPresDt</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t xml:space="preserve">Laws authorizing medical marijuana use </t>
+          <t>Naloxone Law allowing pharmacists prescriptive authority (date)</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Dummy variable, indicating whether state has a law authorizing adults to use medical marijuana (0=no, 1=yes)</t>
+          <t>Date (MY) Naloxone law allowing pharmacists prescriptive authority effective</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/MedMarijLaw.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/NAL_2017.md</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>PDAPS, 2017</t>
+          <t>OPTIC, 2017</t>
         </is>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>Prescription Drug Abuse Policy System, Medical Marijuana Caregiver Rules, 2017</t>
+          <t>RAND-USC Schaeffer Opioid Policy Tools and Information Center, 2021</t>
         </is>
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>date</t>
         </is>
       </c>
       <c r="P117" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2014-05-01 00:00:00</t>
         </is>
       </c>
       <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr">
-        <is>
-          <t>The variables included here are very high-level and collected as of Feb 1, 2017. For more detailed and longitudinal data, we recommend the following datasets from Prescription Drug Abuse Policy System:
-1. Medical Marijuana Caregiver Rubles from 2003 to 2017
-2. Medical Marijuana Dispensaries from 1999 to 2017
-3. Medical Marijuana Laws for Patients from 2009 to 2017
-4. Medical Merijuana Product Safety Laws from 2010 to 2017</t>
-        </is>
-      </c>
+      <c r="R117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -8612,17 +8600,17 @@
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr">
         <is>
-          <t>AnyNalDt</t>
+          <t>AnyNalFr</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>Any Naloxone Law (date)</t>
+          <t>Naloxone Law allowing distribution through a standing or order (fraction of year in 2017)</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>Date (MY) any type of Naloxone law effective</t>
+          <t>Fraction of year any type of Naloxone law is effective</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -8642,12 +8630,12 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>number</t>
         </is>
       </c>
       <c r="P118" t="inlineStr">
         <is>
-          <t>2010-07-01 00:00:00</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Q118" t="inlineStr"/>
@@ -8671,17 +8659,17 @@
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>NalPrStDt</t>
+          <t>NalPrStFr</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>Naloxone Law allowing distribution through a standing or order (date)</t>
+          <t>Naloxone Law in Effect (fraction of year in 2017)</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>Date (MY) Naloxone law allowing distribution through a standing or protocol order effective</t>
+          <t>Fraction of year state has an effective Naloxone law allowing distribution through a standing or protocol order</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -8701,12 +8689,12 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>number</t>
         </is>
       </c>
       <c r="P119" t="inlineStr">
         <is>
-          <t>2015-08-01 00:00:00</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Q119" t="inlineStr"/>
@@ -8730,17 +8718,17 @@
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr">
         <is>
-          <t>NalPresDt</t>
+          <t>NalPresFr</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>Naloxone Law allowing pharmacists prescriptive authority (date)</t>
+          <t>Naloxone Law allowing pharmacists prescriptive authority (fraction of year in 2017)</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Date (MY) Naloxone law allowing pharmacists prescriptive authority effective</t>
+          <t>Fraction of year state has an effective Naloxone law allowing pharmacists prescriptive authority</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -8760,12 +8748,12 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>number</t>
         </is>
       </c>
       <c r="P120" t="inlineStr">
         <is>
-          <t>2014-05-01 00:00:00</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q120" t="inlineStr"/>
@@ -8789,22 +8777,22 @@
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr">
         <is>
-          <t>AnyNalFr</t>
+          <t>AnyPdmpFr</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>Naloxone Law allowing distribution through a standing or order (fraction of year in 2017)</t>
+          <t>Any PDMP (fraction of year in 2017)</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>Fraction of year any type of Naloxone law is effective</t>
+          <t>Fraction of year that state has any prescription drug monitoring program operating.</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/NAL_2017.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/PDMP_2017.md</t>
         </is>
       </c>
       <c r="L121" t="inlineStr">
@@ -8827,7 +8815,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="Q121" t="inlineStr"/>
+      <c r="Q121" t="inlineStr">
+        <is>
+          <t>There currently does not exist a standard definition about what counts as Electronic PDMP.</t>
+        </is>
+      </c>
       <c r="R121" t="inlineStr"/>
     </row>
     <row r="122">
@@ -8848,22 +8840,22 @@
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="inlineStr">
         <is>
-          <t>NalPrStFr</t>
+          <t>AnyPdmphFr</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>Naloxone Law in Effect (fraction of year in 2017)</t>
+          <t>Any Horowitz PDMP (fraction of year in 2017)</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>Fraction of year state has an effective Naloxone law allowing distribution through a standing or protocol order</t>
+          <t>Fraction of year that state has prescription drug monitoring program enabling legislation for any type of prescription drug monitoring program in effect ,including paper-based systems (as determined by Horowitz et al., 2018) enacted</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/NAL_2017.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/PDMP_2017.md</t>
         </is>
       </c>
       <c r="L122" t="inlineStr">
@@ -8886,7 +8878,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="Q122" t="inlineStr"/>
+      <c r="Q122" t="inlineStr">
+        <is>
+          <t>There currently does not exist a standard definition about what counts as Electronic PDMP.</t>
+        </is>
+      </c>
       <c r="R122" t="inlineStr"/>
     </row>
     <row r="123">
@@ -8907,22 +8903,22 @@
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr">
         <is>
-          <t>NalPresFr</t>
+          <t>OpPdmpFr</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>Naloxone Law allowing pharmacists prescriptive authority (fraction of year in 2017)</t>
+          <t>Operational PDMP (fraction of year in 2017)</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>Fraction of year state has an effective Naloxone law allowing pharmacists prescriptive authority</t>
+          <t>Fraction of year that state has a “modern system” operational and users could access (as determined by Horowitz et al., 2018).</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/NAL_2017.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/PDMP_2017.md</t>
         </is>
       </c>
       <c r="L123" t="inlineStr">
@@ -8942,10 +8938,14 @@
       </c>
       <c r="P123" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q123" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q123" t="inlineStr">
+        <is>
+          <t>There currently does not exist a standard definition about what counts as Electronic PDMP.</t>
+        </is>
+      </c>
       <c r="R123" t="inlineStr"/>
     </row>
     <row r="124">
@@ -8966,17 +8966,17 @@
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr">
         <is>
-          <t>AnyPdmpFr</t>
+          <t>MsAcPdmpFr</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>Any PDMP (fraction of year in 2017)</t>
+          <t>Must-Access PDMP (fraction of year in 2017)</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>Fraction of year that state has any prescription drug monitoring program operating.</t>
+          <t>Fraction of year that state has any legislation requiring Prescribers to access PDMP before prescribing (as interpreted by PDAPS) enacted.</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -9001,7 +9001,7 @@
       </c>
       <c r="P124" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q124" t="inlineStr">
@@ -9029,17 +9029,17 @@
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr">
         <is>
-          <t>AnyPdmphFr</t>
+          <t>ElcPdmpFr</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>Any Horowitz PDMP (fraction of year in 2017)</t>
+          <t>Electronic PDMP (fraction of year in 2017)</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>Fraction of year that state has prescription drug monitoring program enabling legislation for any type of prescription drug monitoring program in effect ,including paper-based systems (as determined by Horowitz et al., 2018) enacted</t>
+          <t>Fraction of year that state has an electronic PDMP system operating.</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
@@ -9092,17 +9092,17 @@
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr">
         <is>
-          <t>OpPdmpFr</t>
+          <t>AnyPdmpDt</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>Operational PDMP (fraction of year in 2017)</t>
+          <t>Any PDMP start date</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>Fraction of year that state has a “modern system” operational and users could access (as determined by Horowitz et al., 2018).</t>
+          <t>Date when PDMP enabling legislation was first enacted for any type of PDMP in effect (including paper-based systems). Source: PDAPS for first PDMP laws passed after January 1, 1998; Info on laws prior to 1998 came from Brandeis TTAC.</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -9122,12 +9122,12 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>date</t>
         </is>
       </c>
       <c r="P126" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2007-07-22 00:00:00</t>
         </is>
       </c>
       <c r="Q126" t="inlineStr">
@@ -9155,17 +9155,17 @@
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="inlineStr">
         <is>
-          <t>MsAcPdmpFr</t>
+          <t>AnyPdmphDt</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>Must-Access PDMP (fraction of year in 2017)</t>
+          <t>Any Horowitz PDMP start date</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>Fraction of year that state has any legislation requiring Prescribers to access PDMP before prescribing (as interpreted by PDAPS) enacted.</t>
+          <t>Date when PDMP enabling legislation was first enacted for any type of PDMP in effect (including paper-based systems). Source: Horowitz et al., 2018, Table 2, column 1.</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -9185,12 +9185,12 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>date</t>
         </is>
       </c>
       <c r="P127" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2011-08-01 00:00:00</t>
         </is>
       </c>
       <c r="Q127" t="inlineStr">
@@ -9218,17 +9218,17 @@
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="inlineStr">
         <is>
-          <t>ElcPdmpFr</t>
+          <t>OpPdmpDt</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>Electronic PDMP (fraction of year in 2017)</t>
+          <t>Operational PDMP start date</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>Fraction of year that state has an electronic PDMP system operating.</t>
+          <t>Date when a “modern system” became operational and users could access. Source: Horowitz et al., 2018, Table 2, column 4. This definition includes specific caveats adopted by Horowitz et al., 2018, described further below in Notes.</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -9248,12 +9248,12 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>date</t>
         </is>
       </c>
       <c r="P128" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2012-01-01 00:00:00</t>
         </is>
       </c>
       <c r="Q128" t="inlineStr">
@@ -9281,17 +9281,17 @@
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="inlineStr">
         <is>
-          <t>AnyPdmpDt</t>
+          <t>MsAcPdmpDt</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>Any PDMP start date</t>
+          <t>Must-Access PDMP start date</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>Date when PDMP enabling legislation was first enacted for any type of PDMP in effect (including paper-based systems). Source: PDAPS for first PDMP laws passed after January 1, 1998; Info on laws prior to 1998 came from Brandeis TTAC.</t>
+          <t>Date of legislation requiring Prescribers to access PDMP before prescribing as interpreted by PDAPS.</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -9316,7 +9316,7 @@
       </c>
       <c r="P129" t="inlineStr">
         <is>
-          <t>2007-07-22 00:00:00</t>
+          <t>2014-07-01 00:00:00</t>
         </is>
       </c>
       <c r="Q129" t="inlineStr">
@@ -9344,17 +9344,17 @@
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="inlineStr">
         <is>
-          <t>AnyPdmphDt</t>
+          <t>ElcPdmpDt</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>Any Horowitz PDMP start date</t>
+          <t>Electronic PDMP start date</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>Date when PDMP enabling legislation was first enacted for any type of PDMP in effect (including paper-based systems). Source: Horowitz et al., 2018, Table 2, column 1.</t>
+          <t>Date state began operating an electronic PDMP system.</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -9379,7 +9379,7 @@
       </c>
       <c r="P130" t="inlineStr">
         <is>
-          <t>2011-08-01 00:00:00</t>
+          <t>2007-07-22 00:00:00</t>
         </is>
       </c>
       <c r="Q130" t="inlineStr">
@@ -9407,47 +9407,47 @@
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="inlineStr">
         <is>
-          <t>OpPdmpDt</t>
+          <t>CrrctExpS</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>Operational PDMP start date</t>
+          <t>Corrections Expenditures</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>Date when a “modern system” became operational and users could access. Source: Horowitz et al., 2018, Table 2, column 4. This definition includes specific caveats adopted by Horowitz et al., 2018, described further below in Notes.</t>
+          <t>Expenditures on corrections system and operation by the State alone</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/PDMP_2017.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/PublicExpenditures.md</t>
         </is>
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>OPTIC, 2017</t>
+          <t>US Census, 2018</t>
         </is>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>RAND-USC Schaeffer Opioid Policy Tools and Information Center, 2021</t>
+          <t>U.S. Census Bureau Annual Survey of State and Local Government Finances via Urban Institute &amp; Tax Policy Center's State and Local Finance Data Finder</t>
         </is>
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="P131" t="inlineStr">
         <is>
-          <t>2012-01-01 00:00:00</t>
+          <t>915105</t>
         </is>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>There currently does not exist a standard definition about what counts as Electronic PDMP.</t>
+          <t>Local data outside of police and fire expenditures was not available for Washington, D.C.</t>
         </is>
       </c>
       <c r="R131" t="inlineStr"/>
@@ -9470,47 +9470,47 @@
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="inlineStr">
         <is>
-          <t>MsAcPdmpDt</t>
+          <t>PlcFyrExpS</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>Must-Access PDMP start date</t>
+          <t>Police &amp; Fire Expenditures</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>Date of legislation requiring Prescribers to access PDMP before prescribing as interpreted by PDAPS.</t>
+          <t>Expenditures on police and fire protection by the State alone</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/PDMP_2017.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/PublicExpenditures.md</t>
         </is>
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>OPTIC, 2017</t>
+          <t>US Census, 2018</t>
         </is>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>RAND-USC Schaeffer Opioid Policy Tools and Information Center, 2021</t>
+          <t>U.S. Census Bureau Annual Survey of State and Local Government Finances via Urban Institute &amp; Tax Policy Center's State and Local Finance Data Finder</t>
         </is>
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="P132" t="inlineStr">
         <is>
-          <t>2014-07-01 00:00:00</t>
+          <t>305035</t>
         </is>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>There currently does not exist a standard definition about what counts as Electronic PDMP.</t>
+          <t>Local data outside of police and fire expenditures was not available for Washington, D.C.</t>
         </is>
       </c>
       <c r="R132" t="inlineStr"/>
@@ -9533,47 +9533,47 @@
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="inlineStr">
         <is>
-          <t>ElcPdmpDt</t>
+          <t>HlthExpS</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>Electronic PDMP start date</t>
+          <t>Public Health Expenditures</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>Date state began operating an electronic PDMP system.</t>
+          <t>Expenditures on public health and hospitals by the State alone</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/PDMP_2017.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/PublicExpenditures.md</t>
         </is>
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>OPTIC, 2017</t>
+          <t>US Census, 2018</t>
         </is>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>RAND-USC Schaeffer Opioid Policy Tools and Information Center, 2021</t>
+          <t>U.S. Census Bureau Annual Survey of State and Local Government Finances via Urban Institute &amp; Tax Policy Center's State and Local Finance Data Finder</t>
         </is>
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="P133" t="inlineStr">
         <is>
-          <t>2007-07-22 00:00:00</t>
+          <t>915105</t>
         </is>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>There currently does not exist a standard definition about what counts as Electronic PDMP.</t>
+          <t>Local data outside of police and fire expenditures was not available for Washington, D.C.</t>
         </is>
       </c>
       <c r="R133" t="inlineStr"/>
@@ -9596,17 +9596,17 @@
       <c r="G134" t="inlineStr"/>
       <c r="H134" t="inlineStr">
         <is>
-          <t>CrrctExpS</t>
+          <t>WlfrExpS</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>Corrections Expenditures</t>
+          <t>Public Welfare Expenditures</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>Expenditures on corrections system and operation by the State alone</t>
+          <t>Expenditures on public welfare progrmas by the State alone</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
@@ -9631,7 +9631,7 @@
       </c>
       <c r="P134" t="inlineStr">
         <is>
-          <t>915105</t>
+          <t>1830210</t>
         </is>
       </c>
       <c r="Q134" t="inlineStr">
@@ -9659,17 +9659,17 @@
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="inlineStr">
         <is>
-          <t>PlcFyrExpS</t>
+          <t>CrrctExpL</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>Police &amp; Fire Expenditures</t>
+          <t>Corrections Expenditures (Local)</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>Expenditures on police and fire protection by the State alone</t>
+          <t>Expenditures on corrections system and operation by local governments alone</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
@@ -9694,7 +9694,7 @@
       </c>
       <c r="P135" t="inlineStr">
         <is>
-          <t>305035</t>
+          <t>2196606</t>
         </is>
       </c>
       <c r="Q135" t="inlineStr">
@@ -9722,17 +9722,17 @@
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="inlineStr">
         <is>
-          <t>HlthExpS</t>
+          <t>PlcFyrExpL</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>Public Health Expenditures</t>
+          <t>Police &amp; Fire Expenditures (Local)</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>Expenditures on public health and hospitals by the State alone</t>
+          <t>Expenditures on police and fire protection by the local government alone</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
@@ -9757,7 +9757,7 @@
       </c>
       <c r="P136" t="inlineStr">
         <is>
-          <t>915105</t>
+          <t>3385247</t>
         </is>
       </c>
       <c r="Q136" t="inlineStr">
@@ -9785,17 +9785,17 @@
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="inlineStr">
         <is>
-          <t>WlfrExpS</t>
+          <t>HlthExpL</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>Public Welfare Expenditures</t>
+          <t>Public Health Expenditures (Local)</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>Expenditures on public welfare progrmas by the State alone</t>
+          <t>Expenditures on public health and hospitals by the local government alone</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -9820,7 +9820,7 @@
       </c>
       <c r="P137" t="inlineStr">
         <is>
-          <t>1830210</t>
+          <t>2196606</t>
         </is>
       </c>
       <c r="Q137" t="inlineStr">
@@ -9848,17 +9848,17 @@
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="inlineStr">
         <is>
-          <t>CrrctExpL</t>
+          <t>WlfrExpL</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>Corrections Expenditures (Local)</t>
+          <t>Public Welfare Expenditures (Local)</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>Expenditures on corrections system and operation by local governments alone</t>
+          <t>Expenditures on public welfare progrmas by the local government alone</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -9883,7 +9883,7 @@
       </c>
       <c r="P138" t="inlineStr">
         <is>
-          <t>2196606</t>
+          <t>4393212</t>
         </is>
       </c>
       <c r="Q138" t="inlineStr">
@@ -9911,17 +9911,17 @@
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="inlineStr">
         <is>
-          <t>PlcFyrExpL</t>
+          <t>CrrctExpT</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>Police &amp; Fire Expenditures (Local)</t>
+          <t>Total Corrections Expenditures</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>Expenditures on police and fire protection by the local government alone</t>
+          <t>Total expenditures on corrections system and operations</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
@@ -9946,7 +9946,7 @@
       </c>
       <c r="P139" t="inlineStr">
         <is>
-          <t>3385247</t>
+          <t>3111711</t>
         </is>
       </c>
       <c r="Q139" t="inlineStr">
@@ -9974,17 +9974,17 @@
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="inlineStr">
         <is>
-          <t>HlthExpL</t>
+          <t>PlcFyrExpT</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>Public Health Expenditures (Local)</t>
+          <t>Total Police &amp; Fire Expenditures</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>Expenditures on public health and hospitals by the local government alone</t>
+          <t>Total expenditures on police and fire protection</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
@@ -10009,7 +10009,7 @@
       </c>
       <c r="P140" t="inlineStr">
         <is>
-          <t>2196606</t>
+          <t>3690282</t>
         </is>
       </c>
       <c r="Q140" t="inlineStr">
@@ -10037,17 +10037,17 @@
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr">
         <is>
-          <t>WlfrExpL</t>
+          <t>HlthExpT</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>Public Welfare Expenditures (Local)</t>
+          <t>Total Public Health &amp; Welfare Expenditures</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>Expenditures on public welfare progrmas by the local government alone</t>
+          <t>Total expenditures on public health and welfare</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="P141" t="inlineStr">
         <is>
-          <t>4393212</t>
+          <t>3111711</t>
         </is>
       </c>
       <c r="Q141" t="inlineStr">
@@ -10100,17 +10100,17 @@
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr">
         <is>
-          <t>CrrctExpT</t>
+          <t>WlfrExpT</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>Total Corrections Expenditures</t>
+          <t>Total Public Welfare Expenditures</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>Total expenditures on corrections system and operations</t>
+          <t>Total expenditures on public welfare programs</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
@@ -10135,7 +10135,7 @@
       </c>
       <c r="P142" t="inlineStr">
         <is>
-          <t>3111711</t>
+          <t>6223422</t>
         </is>
       </c>
       <c r="Q142" t="inlineStr">
@@ -10163,50 +10163,53 @@
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="inlineStr">
         <is>
-          <t>PlcFyrExpT</t>
+          <t>ExpSsp</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>Total Police &amp; Fire Expenditures</t>
+          <t>Syringe Service Program (SSP) Authorization Laws</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>Total expenditures on police and fire protection</t>
+          <t>Dummy variable indicating whether the state has law that explicitly authorizes Syringe Service Programs (0=no, 1=yes)</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/PublicExpenditures.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Syringe.md</t>
         </is>
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>US Census, 2018</t>
+          <t>LawAtlas, 2019</t>
         </is>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>U.S. Census Bureau Annual Survey of State and Local Government Finances via Urban Institute &amp; Tax Policy Center's State and Local Finance Data Finder</t>
+          <t>Fernández-Viña MH, Prood NE, Herpolsheimer A, Waimberg J, Burris S. State Laws Governing Syringe Services Programs and Participant Syringe Possession, 2014-2019. Public Health Reports. 2020;135:128S-137S. doi:10.1177/0033354920921817</t>
         </is>
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="P143" t="inlineStr">
         <is>
-          <t>3690282</t>
-        </is>
-      </c>
-      <c r="Q143" t="inlineStr">
-        <is>
-          <t>Local data outside of police and fire expenditures was not available for Washington, D.C.</t>
-        </is>
-      </c>
-      <c r="R143" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q143" t="inlineStr"/>
+      <c r="R143" t="inlineStr">
+        <is>
+          <t>The variables included here are very high-level and for August 1, 2019. For more detailed and longitudinal data, we recommend the following datasets from LawAtlas:
+    Syringe Possesssion Laws from 2012 to 2017
+    Syringe Distribution Laws from 2012 to 2017
+    Syringe Service Program Laws, 2019</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -10226,50 +10229,53 @@
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="inlineStr">
         <is>
-          <t>HlthExpT</t>
+          <t>NoPrphLw</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>Total Public Health &amp; Welfare Expenditures</t>
+          <t>Drug Paraphernalia Laws</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Total expenditures on public health and welfare</t>
+          <t>Dummy variable indicating whether the state has no state drug paraphernalia law (0=no, 1=yes)</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/PublicExpenditures.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Syringe.md</t>
         </is>
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>US Census, 2018</t>
+          <t>LawAtlas, 2019</t>
         </is>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>U.S. Census Bureau Annual Survey of State and Local Government Finances via Urban Institute &amp; Tax Policy Center's State and Local Finance Data Finder</t>
+          <t>Fernández-Viña MH, Prood NE, Herpolsheimer A, Waimberg J, Burris S. State Laws Governing Syringe Services Programs and Participant Syringe Possession, 2014-2019. Public Health Reports. 2020;135:128S-137S. doi:10.1177/0033354920921817</t>
         </is>
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="P144" t="inlineStr">
         <is>
-          <t>3111711</t>
-        </is>
-      </c>
-      <c r="Q144" t="inlineStr">
-        <is>
-          <t>Local data outside of police and fire expenditures was not available for Washington, D.C.</t>
-        </is>
-      </c>
-      <c r="R144" t="inlineStr"/>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q144" t="inlineStr"/>
+      <c r="R144" t="inlineStr">
+        <is>
+          <t>The variables included here are very high-level and for August 1, 2019. For more detailed and longitudinal data, we recommend the following datasets from LawAtlas:
+    Syringe Possesssion Laws from 2012 to 2017
+    Syringe Distribution Laws from 2012 to 2017
+    Syringe Service Program Laws, 2019</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -10289,50 +10295,53 @@
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="inlineStr">
         <is>
-          <t>WlfrExpT</t>
+          <t>NtPrFrDsSy</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>Total Public Welfare Expenditures</t>
+          <t>Distribution of Syringes Laws</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>Total expenditures on public welfare programs</t>
+          <t>Dummy variable indicating whether the state law does not prohibit free distribution of syringes (0=no, 1=yes)</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/PublicExpenditures.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Syringe.md</t>
         </is>
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>US Census, 2018</t>
+          <t>LawAtlas, 2019</t>
         </is>
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>U.S. Census Bureau Annual Survey of State and Local Government Finances via Urban Institute &amp; Tax Policy Center's State and Local Finance Data Finder</t>
+          <t>Fernández-Viña MH, Prood NE, Herpolsheimer A, Waimberg J, Burris S. State Laws Governing Syringe Services Programs and Participant Syringe Possession, 2014-2019. Public Health Reports. 2020;135:128S-137S. doi:10.1177/0033354920921817</t>
         </is>
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="P145" t="inlineStr">
         <is>
-          <t>6223422</t>
-        </is>
-      </c>
-      <c r="Q145" t="inlineStr">
-        <is>
-          <t>Local data outside of police and fire expenditures was not available for Washington, D.C.</t>
-        </is>
-      </c>
-      <c r="R145" t="inlineStr"/>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q145" t="inlineStr"/>
+      <c r="R145" t="inlineStr">
+        <is>
+          <t>The variables included here are very high-level and for August 1, 2019. For more detailed and longitudinal data, we recommend the following datasets from LawAtlas:
+    Syringe Possesssion Laws from 2012 to 2017
+    Syringe Distribution Laws from 2012 to 2017
+    Syringe Service Program Laws, 2019</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -10352,17 +10361,17 @@
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="inlineStr">
         <is>
-          <t>ExpSsp</t>
+          <t>PrExcInj</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>Syringe Service Program (SSP) Authorization Laws</t>
+          <t>Paraphernalia exludes objects used for injecting drugs</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>Dummy variable indicating whether the state has law that explicitly authorizes Syringe Service Programs (0=no, 1=yes)</t>
+          <t>Dummy variable indicating whether the paraphernalia definition in the state law explicitly exludes objects used for injecting drugs (0=no, 1=yes)</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
@@ -10387,7 +10396,7 @@
       </c>
       <c r="P146" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q146" t="inlineStr"/>
@@ -10418,17 +10427,17 @@
       <c r="G147" t="inlineStr"/>
       <c r="H147" t="inlineStr">
         <is>
-          <t>NoPrphLw</t>
+          <t>PrNtRefInj</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>Drug Paraphernalia Laws</t>
+          <t>Paraphernalia does not refer to objects used for injecting drugs</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>Dummy variable indicating whether the state has no state drug paraphernalia law (0=no, 1=yes)</t>
+          <t>Dummy variable indicating whether the paraphernalia definition in the state law does not refer to objects used for injecting drugs (0=no, 1=yes)</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
@@ -10484,17 +10493,17 @@
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="inlineStr">
         <is>
-          <t>NtPrFrDsSy</t>
+          <t>NoLwRmUnc</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>Distribution of Syringes Laws</t>
+          <t>Laws removing barriers to SSPs</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>Dummy variable indicating whether the state law does not prohibit free distribution of syringes (0=no, 1=yes)</t>
+          <t>Dummy variable indicating whether the state has no law removing barriers or uncertainty as to SSP legality (0=no, 1=yes)</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
@@ -10535,7 +10544,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Policy</t>
+          <t>Outcome</t>
         </is>
       </c>
       <c r="B149" t="inlineStr"/>
@@ -10550,58 +10559,59 @@
       <c r="G149" t="inlineStr"/>
       <c r="H149" t="inlineStr">
         <is>
-          <t>PrExcInj</t>
+          <t>DrgRlDth</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>Paraphernalia exludes objects used for injecting drugs</t>
+          <t>Deaths from drug-related causes (2009-2018)</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>Dummy variable indicating whether the paraphernalia definition in the state law explicitly exludes objects used for injecting drugs (0=no, 1=yes)</t>
+          <t>Total deaths from drug-related causes, 2009-2018</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Syringe.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Health_DrugDeaths.md</t>
         </is>
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>LawAtlas, 2019</t>
+          <t>CDC WONDER, 2009-2019</t>
         </is>
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>Fernández-Viña MH, Prood NE, Herpolsheimer A, Waimberg J, Burris S. State Laws Governing Syringe Services Programs and Participant Syringe Possession, 2014-2019. Public Health Reports. 2020;135:128S-137S. doi:10.1177/0033354920921817</t>
+          <t>United States CDC's Underlying Cause of Death, 2009-2019 dataset via CDC Wonder.</t>
         </is>
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="P149" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q149" t="inlineStr"/>
+          <t>9691</t>
+        </is>
+      </c>
+      <c r="Q149" t="inlineStr">
+        <is>
+          <t>County-level and other subnational data representing fewer than ten persons (0-9) are suppressed for year 1989 and later years, including our years of interest 2009-2018. Furthermore, rates may be considered "unreliable" when the death count is less than 20. For more information, see CDC.</t>
+        </is>
+      </c>
       <c r="R149" t="inlineStr">
         <is>
-          <t>The variables included here are very high-level and for August 1, 2019. For more detailed and longitudinal data, we recommend the following datasets from LawAtlas:
-    Syringe Possesssion Laws from 2012 to 2017
-    Syringe Distribution Laws from 2012 to 2017
-    Syringe Service Program Laws, 2019</t>
+          <t>This dataset includes data for the 48 contiguous U.S. states and Washington, D.C. It does not include Alaska, Hawaii, or the U.S. territories: Puerto Rico, Guam, American Samoa, Northern Mariana Islands, U.S. Virgin Islands.</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Policy</t>
+          <t>Outcome</t>
         </is>
       </c>
       <c r="B150" t="inlineStr"/>
@@ -10616,58 +10626,55 @@
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="inlineStr">
         <is>
-          <t>PrNtRefInj</t>
+          <t>TotHcv</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>Paraphernalia does not refer to objects used for injecting drugs</t>
+          <t>Yearly Hepatitis C cases (2013-2016)</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>Dummy variable indicating whether the paraphernalia definition in the state law does not refer to objects used for injecting drugs (0=no, 1=yes)</t>
+          <t>Mean total yearly Hepitatis C cases from 2013-2016</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Syringe.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/HepC.md</t>
         </is>
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>LawAtlas, 2019</t>
+          <t>HepVu, 2017</t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>Fernández-Viña MH, Prood NE, Herpolsheimer A, Waimberg J, Burris S. State Laws Governing Syringe Services Programs and Participant Syringe Possession, 2014-2019. Public Health Reports. 2020;135:128S-137S. doi:10.1177/0033354920921817</t>
+          <t>HepVu, 2017</t>
         </is>
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="P150" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>54200</t>
         </is>
       </c>
       <c r="Q150" t="inlineStr"/>
       <c r="R150" t="inlineStr">
         <is>
-          <t>The variables included here are very high-level and for August 1, 2019. For more detailed and longitudinal data, we recommend the following datasets from LawAtlas:
-    Syringe Possesssion Laws from 2012 to 2017
-    Syringe Distribution Laws from 2012 to 2017
-    Syringe Service Program Laws, 2019</t>
+          <t>Data included for Hepatitis C State and County Mortality is for 2014-2017, while Hepatitis C State Prevalence data are available for 2013-2016</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Policy</t>
+          <t>Outcome</t>
         </is>
       </c>
       <c r="B151" t="inlineStr"/>
@@ -10682,51 +10689,48 @@
       <c r="G151" t="inlineStr"/>
       <c r="H151" t="inlineStr">
         <is>
-          <t>NoLwRmUnc</t>
+          <t>MlHcv</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>Laws removing barriers to SSPs</t>
+          <t>Yearly Hepatitis C cases - Men (2013-2016)</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>Dummy variable indicating whether the state has no law removing barriers or uncertainty as to SSP legality (0=no, 1=yes)</t>
+          <t>Mean yearly Hepatitis C cases in men from 2013-2016</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Syringe.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/HepC.md</t>
         </is>
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>LawAtlas, 2019</t>
+          <t>HepVu, 2017</t>
         </is>
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>Fernández-Viña MH, Prood NE, Herpolsheimer A, Waimberg J, Burris S. State Laws Governing Syringe Services Programs and Participant Syringe Possession, 2014-2019. Public Health Reports. 2020;135:128S-137S. doi:10.1177/0033354920921817</t>
+          <t>HepVu, 2017</t>
         </is>
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="P151" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>37500</t>
         </is>
       </c>
       <c r="Q151" t="inlineStr"/>
       <c r="R151" t="inlineStr">
         <is>
-          <t>The variables included here are very high-level and for August 1, 2019. For more detailed and longitudinal data, we recommend the following datasets from LawAtlas:
-    Syringe Possesssion Laws from 2012 to 2017
-    Syringe Distribution Laws from 2012 to 2017
-    Syringe Service Program Laws, 2019</t>
+          <t>Data included for Hepatitis C State and County Mortality is for 2014-2017, while Hepatitis C State Prevalence data are available for 2013-2016</t>
         </is>
       </c>
     </row>
@@ -10748,32 +10752,32 @@
       <c r="G152" t="inlineStr"/>
       <c r="H152" t="inlineStr">
         <is>
-          <t>DrgRlDth</t>
+          <t>FmHcv</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>Deaths from drug-related causes (2009-2018)</t>
+          <t>Yearly Hepatitis C cases - Women (2013-2016)</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>Total deaths from drug-related causes, 2009-2018</t>
+          <t>Mean yearly Hepatitis C cases in women from 2013-2016</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Health_DrugDeaths.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/HepC.md</t>
         </is>
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>CDC WONDER, 2009-2019</t>
+          <t>HepVu, 2017</t>
         </is>
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>United States CDC's Underlying Cause of Death, 2009-2019 dataset via CDC Wonder.</t>
+          <t>HepVu, 2017</t>
         </is>
       </c>
       <c r="O152" t="inlineStr">
@@ -10783,17 +10787,13 @@
       </c>
       <c r="P152" t="inlineStr">
         <is>
-          <t>9691</t>
-        </is>
-      </c>
-      <c r="Q152" t="inlineStr">
-        <is>
-          <t>County-level and other subnational data representing fewer than ten persons (0-9) are suppressed for year 1989 and later years, including our years of interest 2009-2018. Furthermore, rates may be considered "unreliable" when the death count is less than 20. For more information, see CDC.</t>
-        </is>
-      </c>
+          <t>16900</t>
+        </is>
+      </c>
+      <c r="Q152" t="inlineStr"/>
       <c r="R152" t="inlineStr">
         <is>
-          <t>This dataset includes data for the 48 contiguous U.S. states and Washington, D.C. It does not include Alaska, Hawaii, or the U.S. territories: Puerto Rico, Guam, American Samoa, Northern Mariana Islands, U.S. Virgin Islands.</t>
+          <t>Data included for Hepatitis C State and County Mortality is for 2014-2017, while Hepatitis C State Prevalence data are available for 2013-2016</t>
         </is>
       </c>
     </row>
@@ -10815,17 +10815,17 @@
       <c r="G153" t="inlineStr"/>
       <c r="H153" t="inlineStr">
         <is>
-          <t>TotHcv</t>
+          <t>Un50Hcv</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>Yearly Hepatitis C cases (2013-2016)</t>
+          <t>Yearly Hepatitis C cases - Under 50 years old (2013-2016)</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>Mean total yearly Hepitatis C cases from 2013-2016</t>
+          <t>Mean yearly Hepatatis C cases in people under 50 years of age from 2013-2016</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -10850,7 +10850,7 @@
       </c>
       <c r="P153" t="inlineStr">
         <is>
-          <t>54200</t>
+          <t>9400</t>
         </is>
       </c>
       <c r="Q153" t="inlineStr"/>
@@ -10878,17 +10878,17 @@
       <c r="G154" t="inlineStr"/>
       <c r="H154" t="inlineStr">
         <is>
-          <t>MlHcv</t>
+          <t>A50_74Hcv</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>Yearly Hepatitis C cases - Men (2013-2016)</t>
+          <t>Yearly Hepatitis C cases - 50 to 74 years old (2013-2016)</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>Mean yearly Hepatitis C cases in men from 2013-2016</t>
+          <t>Mean yearly Hepatitis C cases in people between 50 to 74 years of age from 2013-2016</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -10913,7 +10913,7 @@
       </c>
       <c r="P154" t="inlineStr">
         <is>
-          <t>37500</t>
+          <t>43300</t>
         </is>
       </c>
       <c r="Q154" t="inlineStr"/>
@@ -10941,17 +10941,17 @@
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="inlineStr">
         <is>
-          <t>FmHcv</t>
+          <t>Ov75Hcv</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>Yearly Hepatitis C cases - Women (2013-2016)</t>
+          <t>Yearly Hepatitis C cases - Over 75 years old (2013-2016)</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>Mean yearly Hepatitis C cases in women from 2013-2016</t>
+          <t>Mean yearly Hepatitis C cases in people over 75 years of age from 2013-2016</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -10976,7 +10976,7 @@
       </c>
       <c r="P155" t="inlineStr">
         <is>
-          <t>16900</t>
+          <t>1600</t>
         </is>
       </c>
       <c r="Q155" t="inlineStr"/>
@@ -11004,17 +11004,17 @@
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Un50Hcv</t>
+          <t>BlkHcv</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>Yearly Hepatitis C cases - Under 50 years old (2013-2016)</t>
+          <t>Yearly Hepatitis C cases - Black (2013-2016)</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>Mean yearly Hepatatis C cases in people under 50 years of age from 2013-2016</t>
+          <t>Mean yearly Hepatitis C cases in populations identified as non-hispanic Black alone across 2013-2016</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -11039,7 +11039,7 @@
       </c>
       <c r="P156" t="inlineStr">
         <is>
-          <t>9400</t>
+          <t>5600</t>
         </is>
       </c>
       <c r="Q156" t="inlineStr"/>
@@ -11067,17 +11067,17 @@
       <c r="G157" t="inlineStr"/>
       <c r="H157" t="inlineStr">
         <is>
-          <t>A50_74Hcv</t>
+          <t>NonBlkHcv</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>Yearly Hepatitis C cases - 50 to 74 years old (2013-2016)</t>
+          <t>Yearly Hepatitis C cases - non-Black (2013-2016)</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>Mean yearly Hepatitis C cases in people between 50 to 74 years of age from 2013-2016</t>
+          <t>Mean yearly Hepatitis C cases in populations non-Black other race/ethnicity populations 2013-2016</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
@@ -11102,7 +11102,7 @@
       </c>
       <c r="P157" t="inlineStr">
         <is>
-          <t>43300</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="Q157" t="inlineStr"/>
@@ -11130,17 +11130,17 @@
       <c r="G158" t="inlineStr"/>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Ov75Hcv</t>
+          <t>HcvD13</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>Yearly Hepatitis C cases - Over 75 years old (2013-2016)</t>
+          <t>Hepatitis C Deaths (2013)</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>Mean yearly Hepatitis C cases in people over 75 years of age from 2013-2016</t>
+          <t>Total Hepatitis C deaths in 2013</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
@@ -11160,12 +11160,12 @@
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="P158" t="inlineStr">
         <is>
-          <t>1600</t>
+          <t>592</t>
         </is>
       </c>
       <c r="Q158" t="inlineStr"/>
@@ -11193,17 +11193,17 @@
       <c r="G159" t="inlineStr"/>
       <c r="H159" t="inlineStr">
         <is>
-          <t>BlkHcv</t>
+          <t>MlHcvD13</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>Yearly Hepatitis C cases - Black (2013-2016)</t>
+          <t>Hepatitis C Deaths - Men (2013)</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>Mean yearly Hepatitis C cases in populations identified as non-hispanic Black alone across 2013-2016</t>
+          <t>Hepatitis C deaths among men in 2013</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
@@ -11223,12 +11223,12 @@
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="P159" t="inlineStr">
         <is>
-          <t>5600</t>
+          <t>417</t>
         </is>
       </c>
       <c r="Q159" t="inlineStr"/>
@@ -11256,17 +11256,17 @@
       <c r="G160" t="inlineStr"/>
       <c r="H160" t="inlineStr">
         <is>
-          <t>NonBlkHcv</t>
+          <t>FlHcvD13</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>Yearly Hepatitis C cases - non-Black (2013-2016)</t>
+          <t>Hepatitis C Deaths - Women (2013)</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>Mean yearly Hepatitis C cases in populations non-Black other race/ethnicity populations 2013-2016</t>
+          <t>Hepatitis C deaths among women in 2013</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -11286,12 +11286,12 @@
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="P160" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>175</t>
         </is>
       </c>
       <c r="Q160" t="inlineStr"/>
@@ -11319,17 +11319,17 @@
       <c r="G161" t="inlineStr"/>
       <c r="H161" t="inlineStr">
         <is>
-          <t>HcvD13</t>
+          <t>AmInHcvD13</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths (2013)</t>
+          <t>Hepatitis C Deaths - American Indian (2013)</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>Total Hepatitis C deaths in 2013</t>
+          <t>Hepatitis C deaths among American Indian populations in 2013</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
@@ -11354,7 +11354,7 @@
       </c>
       <c r="P161" t="inlineStr">
         <is>
-          <t>592</t>
+          <t>20</t>
         </is>
       </c>
       <c r="Q161" t="inlineStr"/>
@@ -11382,17 +11382,17 @@
       <c r="G162" t="inlineStr"/>
       <c r="H162" t="inlineStr">
         <is>
-          <t>MlHcvD13</t>
+          <t>AsPiHcvD13</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Men (2013)</t>
+          <t>Hepatitis C Deaths - Asian &amp; Pacific Islander (2013)</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths among men in 2013</t>
+          <t>Hepatitis C deaths among Asian and Pacific Islander populations in 2013</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
@@ -11417,7 +11417,7 @@
       </c>
       <c r="P162" t="inlineStr">
         <is>
-          <t>417</t>
+          <t>29</t>
         </is>
       </c>
       <c r="Q162" t="inlineStr"/>
@@ -11445,17 +11445,17 @@
       <c r="G163" t="inlineStr"/>
       <c r="H163" t="inlineStr">
         <is>
-          <t>FlHcvD13</t>
+          <t>BlkHcvD13</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Women (2013)</t>
+          <t>Hepatitis C Deaths - Black (2013)</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths among women in 2013</t>
+          <t>Hepatitis C deaths among Black population in 2013</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
@@ -11480,7 +11480,7 @@
       </c>
       <c r="P163" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>48</t>
         </is>
       </c>
       <c r="Q163" t="inlineStr"/>
@@ -11508,17 +11508,17 @@
       <c r="G164" t="inlineStr"/>
       <c r="H164" t="inlineStr">
         <is>
-          <t>AmInHcvD13</t>
+          <t>HspHcvD13</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - American Indian (2013)</t>
+          <t>Hepatitis C Deaths - Hispanic (2013)</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths among American Indian populations in 2013</t>
+          <t>Hepatitis C deaths among hispanic populations in 2013</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
@@ -11543,7 +11543,7 @@
       </c>
       <c r="P164" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>32</t>
         </is>
       </c>
       <c r="Q164" t="inlineStr"/>
@@ -11571,17 +11571,17 @@
       <c r="G165" t="inlineStr"/>
       <c r="H165" t="inlineStr">
         <is>
-          <t>AsPiHcvD13</t>
+          <t>U50HcvD13</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Asian &amp; Pacific Islander (2013)</t>
+          <t>Hepatitis C Deaths - Under 50 years old (2013)</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths among Asian and Pacific Islander populations in 2013</t>
+          <t>Hepatitis C deaths in populations under 50 years of age in 2013</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -11606,7 +11606,7 @@
       </c>
       <c r="P165" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>40</t>
         </is>
       </c>
       <c r="Q165" t="inlineStr"/>
@@ -11634,17 +11634,17 @@
       <c r="G166" t="inlineStr"/>
       <c r="H166" t="inlineStr">
         <is>
-          <t>BlkHcvD13</t>
+          <t>A50_74HcvD13</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Black (2013)</t>
+          <t>Hepatitis C Deaths - 50 to 74 years old (2013)</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths among Black population in 2013</t>
+          <t>Hepatitis C deaths among populations between 50 and 74 years of age in 2013</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -11669,7 +11669,7 @@
       </c>
       <c r="P166" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>515</t>
         </is>
       </c>
       <c r="Q166" t="inlineStr"/>
@@ -11697,17 +11697,17 @@
       <c r="G167" t="inlineStr"/>
       <c r="H167" t="inlineStr">
         <is>
-          <t>HspHcvD13</t>
+          <t>O75HcvD13</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Hispanic (2013)</t>
+          <t>Hepatitis C Deaths - Over 75 years old (2013)</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths among hispanic populations in 2013</t>
+          <t>Hepatitis C deaths among populations over 75 years of age in 2013</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -11732,7 +11732,7 @@
       </c>
       <c r="P167" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>17</t>
         </is>
       </c>
       <c r="Q167" t="inlineStr"/>
@@ -11760,17 +11760,17 @@
       <c r="G168" t="inlineStr"/>
       <c r="H168" t="inlineStr">
         <is>
-          <t>U50HcvD13</t>
+          <t>HcvD14</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Under 50 years old (2013)</t>
+          <t>Hepatitis C Deaths (2014)</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths in populations under 50 years of age in 2013</t>
+          <t>Total Hepatitis C deaths in 2014</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -11795,7 +11795,7 @@
       </c>
       <c r="P168" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>644</t>
         </is>
       </c>
       <c r="Q168" t="inlineStr"/>
@@ -11823,17 +11823,17 @@
       <c r="G169" t="inlineStr"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>A50_74HcvD13</t>
+          <t>MlHcvD14</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - 50 to 74 years old (2013)</t>
+          <t>Hepatitis C Deaths - Men (2014)</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths among populations between 50 and 74 years of age in 2013</t>
+          <t>Hepatitis C deaths among men in 2014</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -11858,7 +11858,7 @@
       </c>
       <c r="P169" t="inlineStr">
         <is>
-          <t>515</t>
+          <t>438</t>
         </is>
       </c>
       <c r="Q169" t="inlineStr"/>
@@ -11886,17 +11886,17 @@
       <c r="G170" t="inlineStr"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>O75HcvD13</t>
+          <t>FlHcvD14</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Over 75 years old (2013)</t>
+          <t>Hepatitis C Deaths - Women (2014)</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths among populations over 75 years of age in 2013</t>
+          <t>Hepatitis C deaths among women in 2014</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
@@ -11921,7 +11921,7 @@
       </c>
       <c r="P170" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>206</t>
         </is>
       </c>
       <c r="Q170" t="inlineStr"/>
@@ -11949,17 +11949,17 @@
       <c r="G171" t="inlineStr"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>HcvD14</t>
+          <t>AmInHcvD14</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths (2014)</t>
+          <t>Hepatitis C Deaths - American Indian (2014)</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>Total Hepatitis C deaths in 2014</t>
+          <t>Hepatitis C deaths among American Indian populations in 2014</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
@@ -11984,7 +11984,7 @@
       </c>
       <c r="P171" t="inlineStr">
         <is>
-          <t>644</t>
+          <t>27</t>
         </is>
       </c>
       <c r="Q171" t="inlineStr"/>
@@ -12012,17 +12012,17 @@
       <c r="G172" t="inlineStr"/>
       <c r="H172" t="inlineStr">
         <is>
-          <t>MlHcvD14</t>
+          <t>AsPiHcvD14</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Men (2014)</t>
+          <t>Hepatitis C Deaths - Asian &amp; Pacific Islander (2014)</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths among men in 2014</t>
+          <t>Hepatitis C deaths among Asian and Pacific Islander populations in 2014</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
@@ -12047,7 +12047,7 @@
       </c>
       <c r="P172" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>25</t>
         </is>
       </c>
       <c r="Q172" t="inlineStr"/>
@@ -12075,17 +12075,17 @@
       <c r="G173" t="inlineStr"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>FlHcvD14</t>
+          <t>BlkHcvD14</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Women (2014)</t>
+          <t>Hepatitis C Deaths - Black (2014)</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths among women in 2014</t>
+          <t>Hepatitis C deaths among Black population in 2014</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -12110,7 +12110,7 @@
       </c>
       <c r="P173" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>38</t>
         </is>
       </c>
       <c r="Q173" t="inlineStr"/>
@@ -12138,17 +12138,17 @@
       <c r="G174" t="inlineStr"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>AmInHcvD14</t>
+          <t>HspHcvD14</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - American Indian (2014)</t>
+          <t>Hepatitis C Deaths - Hispanic (2014)</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths among American Indian populations in 2014</t>
+          <t>Hepatitis C deaths among hispanic populations in 2014</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -12173,7 +12173,7 @@
       </c>
       <c r="P174" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>41</t>
         </is>
       </c>
       <c r="Q174" t="inlineStr"/>
@@ -12201,17 +12201,17 @@
       <c r="G175" t="inlineStr"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>AsPiHcvD14</t>
+          <t>U50HcvD14</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Asian &amp; Pacific Islander (2014)</t>
+          <t>Hepatitis C Deaths - Under 50 years old (2014)</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths among Asian and Pacific Islander populations in 2014</t>
+          <t>Hepatitis C deaths in populations under 50 years of age in 2014</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -12236,7 +12236,7 @@
       </c>
       <c r="P175" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>34</t>
         </is>
       </c>
       <c r="Q175" t="inlineStr"/>
@@ -12264,17 +12264,17 @@
       <c r="G176" t="inlineStr"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>BlkHcvD14</t>
+          <t>A50_74HcvD14</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Black (2014)</t>
+          <t>Hepatitis C Deaths - 50 to 74 years old (2014)</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths among Black population in 2014</t>
+          <t>Hepatitis C deaths among populations between 50 and 74 years of age in 2014</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -12299,7 +12299,7 @@
       </c>
       <c r="P176" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>546</t>
         </is>
       </c>
       <c r="Q176" t="inlineStr"/>
@@ -12327,17 +12327,17 @@
       <c r="G177" t="inlineStr"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>HspHcvD14</t>
+          <t>O75HcvD14</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Hispanic (2014)</t>
+          <t>Hepatitis C Deaths - Over 75 years old (2014)</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths among hispanic populations in 2014</t>
+          <t>Hepatitis C deaths among populations over 75 years of age in 2014</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -12362,7 +12362,7 @@
       </c>
       <c r="P177" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>34</t>
         </is>
       </c>
       <c r="Q177" t="inlineStr"/>
@@ -12390,17 +12390,17 @@
       <c r="G178" t="inlineStr"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>U50HcvD14</t>
+          <t>HcvD15</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Under 50 years old (2014)</t>
+          <t>Hepatitis C Deaths (2015)</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths in populations under 50 years of age in 2014</t>
+          <t>Total Hepatitis C deaths in 2015</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -12425,7 +12425,7 @@
       </c>
       <c r="P178" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>651</t>
         </is>
       </c>
       <c r="Q178" t="inlineStr"/>
@@ -12453,17 +12453,17 @@
       <c r="G179" t="inlineStr"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>A50_74HcvD14</t>
+          <t>MlHcvD15</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - 50 to 74 years old (2014)</t>
+          <t>Hepatitis C Deaths - Men (2015)</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths among populations between 50 and 74 years of age in 2014</t>
+          <t>Hepatitis C deaths among men in 2015</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -12488,7 +12488,7 @@
       </c>
       <c r="P179" t="inlineStr">
         <is>
-          <t>546</t>
+          <t>462</t>
         </is>
       </c>
       <c r="Q179" t="inlineStr"/>
@@ -12516,17 +12516,17 @@
       <c r="G180" t="inlineStr"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>O75HcvD14</t>
+          <t>FlHcvD15</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Over 75 years old (2014)</t>
+          <t>Hepatitis C Deaths - Women (2015)</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths among populations over 75 years of age in 2014</t>
+          <t>Hepatitis C deaths among women in 2015</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -12551,7 +12551,7 @@
       </c>
       <c r="P180" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>189</t>
         </is>
       </c>
       <c r="Q180" t="inlineStr"/>
@@ -12579,17 +12579,17 @@
       <c r="G181" t="inlineStr"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>HcvD15</t>
+          <t>AmInHcvD15</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths (2015)</t>
+          <t>Hepatitis C Deaths - American Indian (2015)</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>Total Hepatitis C deaths in 2015</t>
+          <t>Hepatitis C deaths among American Indian populations in 2015</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
@@ -12614,7 +12614,7 @@
       </c>
       <c r="P181" t="inlineStr">
         <is>
-          <t>651</t>
+          <t>21</t>
         </is>
       </c>
       <c r="Q181" t="inlineStr"/>
@@ -12642,17 +12642,17 @@
       <c r="G182" t="inlineStr"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>MlHcvD15</t>
+          <t>AsPiHcvD15</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Men (2015)</t>
+          <t>Hepatitis C Deaths - Asian &amp; Pacific Islander (2015)</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths among men in 2015</t>
+          <t>Hepatitis C deaths among Asian and Pacific Islander populations in 2015</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -12677,7 +12677,7 @@
       </c>
       <c r="P182" t="inlineStr">
         <is>
-          <t>462</t>
+          <t>27</t>
         </is>
       </c>
       <c r="Q182" t="inlineStr"/>
@@ -12705,17 +12705,17 @@
       <c r="G183" t="inlineStr"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>FlHcvD15</t>
+          <t>BlkHcvD15</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Women (2015)</t>
+          <t>Hepatitis C Deaths - Black (2015)</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths among women in 2015</t>
+          <t>Hepatitis C deaths among Black population in 2015</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
@@ -12740,7 +12740,7 @@
       </c>
       <c r="P183" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>48</t>
         </is>
       </c>
       <c r="Q183" t="inlineStr"/>
@@ -12768,17 +12768,17 @@
       <c r="G184" t="inlineStr"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>AmInHcvD15</t>
+          <t>HspHcvD15</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - American Indian (2015)</t>
+          <t>Hepatitis C Deaths - Hispanic (2015)</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths among American Indian populations in 2015</t>
+          <t>Hepatitis C deaths among hispanic populations in 2015</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -12803,7 +12803,7 @@
       </c>
       <c r="P184" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>37</t>
         </is>
       </c>
       <c r="Q184" t="inlineStr"/>
@@ -12831,17 +12831,17 @@
       <c r="G185" t="inlineStr"/>
       <c r="H185" t="inlineStr">
         <is>
-          <t>AsPiHcvD15</t>
+          <t>U50HcvD15</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Asian &amp; Pacific Islander (2015)</t>
+          <t>Hepatitis C Deaths - Under 50 years old (2015)</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths among Asian and Pacific Islander populations in 2015</t>
+          <t>Hepatitis C deaths in populations under 50 years of age in 2015</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -12866,7 +12866,7 @@
       </c>
       <c r="P185" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>25</t>
         </is>
       </c>
       <c r="Q185" t="inlineStr"/>
@@ -12894,17 +12894,17 @@
       <c r="G186" t="inlineStr"/>
       <c r="H186" t="inlineStr">
         <is>
-          <t>BlkHcvD15</t>
+          <t>D50_74Hcv15</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Black (2015)</t>
+          <t>Hepatitis C Deaths - 50 to 74 years old (2015)</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths among Black population in 2015</t>
+          <t>Hepatitis C deaths among populations between 50 and 74 years of age in 2015</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -12929,7 +12929,7 @@
       </c>
       <c r="P186" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>568</t>
         </is>
       </c>
       <c r="Q186" t="inlineStr"/>
@@ -12957,17 +12957,17 @@
       <c r="G187" t="inlineStr"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>HspHcvD15</t>
+          <t>O75HcvD15</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Hispanic (2015)</t>
+          <t>Hepatitis C Deaths - Over 75 years old (2015)</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths among hispanic populations in 2015</t>
+          <t>Hepatitis C deaths among populations over 75 years of age in 2015</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
@@ -12992,7 +12992,7 @@
       </c>
       <c r="P187" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>46</t>
         </is>
       </c>
       <c r="Q187" t="inlineStr"/>
@@ -13020,17 +13020,17 @@
       <c r="G188" t="inlineStr"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>U50HcvD15</t>
+          <t>HcvD16</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Under 50 years old (2015)</t>
+          <t>Hepatitis C Deaths (2016)</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths in populations under 50 years of age in 2015</t>
+          <t>Total Hepatitis C deaths in 2016</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -13055,7 +13055,7 @@
       </c>
       <c r="P188" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>517</t>
         </is>
       </c>
       <c r="Q188" t="inlineStr"/>
@@ -13083,17 +13083,17 @@
       <c r="G189" t="inlineStr"/>
       <c r="H189" t="inlineStr">
         <is>
-          <t>D50_74Hcv15</t>
+          <t>MlHcvD16</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - 50 to 74 years old (2015)</t>
+          <t>Hepatitis C Deaths - Men (2016)</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths among populations between 50 and 74 years of age in 2015</t>
+          <t>Hepatitis C deaths among men in 2016</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -13118,7 +13118,7 @@
       </c>
       <c r="P189" t="inlineStr">
         <is>
-          <t>568</t>
+          <t>354</t>
         </is>
       </c>
       <c r="Q189" t="inlineStr"/>
@@ -13146,17 +13146,17 @@
       <c r="G190" t="inlineStr"/>
       <c r="H190" t="inlineStr">
         <is>
-          <t>O75HcvD15</t>
+          <t>FlHcvD16</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Over 75 years old (2015)</t>
+          <t>Hepatitis C Deaths - Women (2016)</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths among populations over 75 years of age in 2015</t>
+          <t>Hepatitis C deaths among women in 2016</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
@@ -13181,7 +13181,7 @@
       </c>
       <c r="P190" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>163</t>
         </is>
       </c>
       <c r="Q190" t="inlineStr"/>
@@ -13209,17 +13209,17 @@
       <c r="G191" t="inlineStr"/>
       <c r="H191" t="inlineStr">
         <is>
-          <t>HcvD16</t>
+          <t>AmInHcvD16</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths (2016)</t>
+          <t>Hepatitis C Deaths - American Indian (2016)</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>Total Hepatitis C deaths in 2016</t>
+          <t>Hepatitis C deaths among American Indian populations in 2016</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
@@ -13244,7 +13244,7 @@
       </c>
       <c r="P191" t="inlineStr">
         <is>
-          <t>517</t>
+          <t>24</t>
         </is>
       </c>
       <c r="Q191" t="inlineStr"/>
@@ -13272,17 +13272,17 @@
       <c r="G192" t="inlineStr"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>MlHcvD16</t>
+          <t>AsPiHcvD16</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Men (2016)</t>
+          <t>Hepatitis C Deaths - Asian &amp; Pacific Islander (2016)</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths among men in 2016</t>
+          <t>Hepatitis C deaths among Asian and Pacific Islander populations in 2016</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
@@ -13307,7 +13307,7 @@
       </c>
       <c r="P192" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>24</t>
         </is>
       </c>
       <c r="Q192" t="inlineStr"/>
@@ -13335,17 +13335,17 @@
       <c r="G193" t="inlineStr"/>
       <c r="H193" t="inlineStr">
         <is>
-          <t>FlHcvD16</t>
+          <t>BlkHcvD16</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Women (2016)</t>
+          <t>Hepatitis C Deaths - Black (2016)</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths among women in 2016</t>
+          <t>Hepatitis C deaths among Black population in 2016</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -13370,7 +13370,7 @@
       </c>
       <c r="P193" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>38</t>
         </is>
       </c>
       <c r="Q193" t="inlineStr"/>
@@ -13398,17 +13398,17 @@
       <c r="G194" t="inlineStr"/>
       <c r="H194" t="inlineStr">
         <is>
-          <t>AmInHcvD16</t>
+          <t>HspHcvD16</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - American Indian (2016)</t>
+          <t>Hepatitis C Deaths - Hispanic (2016)</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths among American Indian populations in 2016</t>
+          <t>Hepatitis C deaths among hispanic populations in 2016</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
@@ -13433,7 +13433,7 @@
       </c>
       <c r="P194" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>27</t>
         </is>
       </c>
       <c r="Q194" t="inlineStr"/>
@@ -13461,17 +13461,17 @@
       <c r="G195" t="inlineStr"/>
       <c r="H195" t="inlineStr">
         <is>
-          <t>AsPiHcvD16</t>
+          <t>U50HcvD16</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Asian &amp; Pacific Islander (2016)</t>
+          <t>Hepatitis C Deaths - Under 50 years old (2016)</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths among Asian and Pacific Islander populations in 2016</t>
+          <t>Hepatitis C deaths in populations under 50 years of age in 2016</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
@@ -13496,7 +13496,7 @@
       </c>
       <c r="P195" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>17</t>
         </is>
       </c>
       <c r="Q195" t="inlineStr"/>
@@ -13524,17 +13524,17 @@
       <c r="G196" t="inlineStr"/>
       <c r="H196" t="inlineStr">
         <is>
-          <t>BlkHcvD16</t>
+          <t>A50_74HcvD16</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Black (2016)</t>
+          <t>Hepatitis C Deaths - 50 to 74 years old (2016)</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths among Black population in 2016</t>
+          <t>Hepatitis C deaths among populations between 50 and 74 years of age in 2016</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
@@ -13559,7 +13559,7 @@
       </c>
       <c r="P196" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>453</t>
         </is>
       </c>
       <c r="Q196" t="inlineStr"/>
@@ -13587,17 +13587,17 @@
       <c r="G197" t="inlineStr"/>
       <c r="H197" t="inlineStr">
         <is>
-          <t>HspHcvD16</t>
+          <t>O75HcvD16</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Hispanic (2016)</t>
+          <t>Hepatitis C Deaths - Over 75 years old (2016)</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths among hispanic populations in 2016</t>
+          <t>Hepatitis C deaths among populations over 75 years of age in 2016</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -13622,7 +13622,7 @@
       </c>
       <c r="P197" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>26</t>
         </is>
       </c>
       <c r="Q197" t="inlineStr"/>
@@ -13650,17 +13650,17 @@
       <c r="G198" t="inlineStr"/>
       <c r="H198" t="inlineStr">
         <is>
-          <t>U50HcvD16</t>
+          <t>HcvD17</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Under 50 years old (2016)</t>
+          <t>Hepatitis C Deaths (2017)</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths in populations under 50 years of age in 2016</t>
+          <t>Total Hepatitis C deaths in 2017</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -13685,7 +13685,7 @@
       </c>
       <c r="P198" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>528</t>
         </is>
       </c>
       <c r="Q198" t="inlineStr"/>
@@ -13713,17 +13713,17 @@
       <c r="G199" t="inlineStr"/>
       <c r="H199" t="inlineStr">
         <is>
-          <t>A50_74HcvD16</t>
+          <t>MlHcvD17</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - 50 to 74 years old (2016)</t>
+          <t>Hepatitis C Deaths - Men (2017)</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths among populations between 50 and 74 years of age in 2016</t>
+          <t>Hepatitis C deaths among men in 2017</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
@@ -13748,7 +13748,7 @@
       </c>
       <c r="P199" t="inlineStr">
         <is>
-          <t>453</t>
+          <t>375</t>
         </is>
       </c>
       <c r="Q199" t="inlineStr"/>
@@ -13776,17 +13776,17 @@
       <c r="G200" t="inlineStr"/>
       <c r="H200" t="inlineStr">
         <is>
-          <t>O75HcvD16</t>
+          <t>FlHcvD17</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Over 75 years old (2016)</t>
+          <t>Hepatitis C Deaths - Women (2017)</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths among populations over 75 years of age in 2016</t>
+          <t>Hepatitis C deaths among women in 2017</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
@@ -13811,7 +13811,7 @@
       </c>
       <c r="P200" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>153</t>
         </is>
       </c>
       <c r="Q200" t="inlineStr"/>
@@ -13839,17 +13839,17 @@
       <c r="G201" t="inlineStr"/>
       <c r="H201" t="inlineStr">
         <is>
-          <t>HcvD17</t>
+          <t>AmInHcvD17</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths (2017)</t>
+          <t>Hepatitis C Deaths - American Indian (2017)</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>Total Hepatitis C deaths in 2017</t>
+          <t>Hepatitis C deaths among American Indian populations in 2017</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -13874,7 +13874,7 @@
       </c>
       <c r="P201" t="inlineStr">
         <is>
-          <t>528</t>
+          <t>26</t>
         </is>
       </c>
       <c r="Q201" t="inlineStr"/>
@@ -13902,17 +13902,17 @@
       <c r="G202" t="inlineStr"/>
       <c r="H202" t="inlineStr">
         <is>
-          <t>MlHcvD17</t>
+          <t>AsPiHcvD17</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Men (2017)</t>
+          <t>Hepatitis C Deaths - Asian &amp; Pacific Islander (2017)</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths among men in 2017</t>
+          <t>Hepatitis C deaths among Asian and Pacific Islander populations in 2017</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
@@ -13937,7 +13937,7 @@
       </c>
       <c r="P202" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>17</t>
         </is>
       </c>
       <c r="Q202" t="inlineStr"/>
@@ -13965,17 +13965,17 @@
       <c r="G203" t="inlineStr"/>
       <c r="H203" t="inlineStr">
         <is>
-          <t>FlHcvD17</t>
+          <t>BlkHcvD17</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Women (2017)</t>
+          <t>Hepatitis C Deaths - Black (2017)</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths among women in 2017</t>
+          <t>Hepatitis C deaths among Black population in 2017</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -14000,7 +14000,7 @@
       </c>
       <c r="P203" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>39</t>
         </is>
       </c>
       <c r="Q203" t="inlineStr"/>
@@ -14028,17 +14028,17 @@
       <c r="G204" t="inlineStr"/>
       <c r="H204" t="inlineStr">
         <is>
-          <t>AmInHcvD17</t>
+          <t>HspHcvD17</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - American Indian (2017)</t>
+          <t>Hepatitis C Deaths - Hispanic (2017)</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths among American Indian populations in 2017</t>
+          <t>Hepatitis C deaths among hispanic populations in 2017</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -14063,7 +14063,7 @@
       </c>
       <c r="P204" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>35</t>
         </is>
       </c>
       <c r="Q204" t="inlineStr"/>
@@ -14091,17 +14091,17 @@
       <c r="G205" t="inlineStr"/>
       <c r="H205" t="inlineStr">
         <is>
-          <t>AsPiHcvD17</t>
+          <t>U50HcvD17</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Asian &amp; Pacific Islander (2017)</t>
+          <t>Hepatitis C Deaths - Under 50 years old (2017)</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths among Asian and Pacific Islander populations in 2017</t>
+          <t>Hepatitis C deaths in populations under 50 years of age in 2017</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -14154,17 +14154,17 @@
       <c r="G206" t="inlineStr"/>
       <c r="H206" t="inlineStr">
         <is>
-          <t>BlkHcvD17</t>
+          <t>A50_74HcvD17</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Black (2017)</t>
+          <t>Hepatitis C Deaths - 50 to 74 years old (2017)</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths among Black population in 2017</t>
+          <t>Hepatitis C deaths among populations between 50 and 74 years of age in 2017</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -14189,7 +14189,7 @@
       </c>
       <c r="P206" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>472</t>
         </is>
       </c>
       <c r="Q206" t="inlineStr"/>
@@ -14217,17 +14217,17 @@
       <c r="G207" t="inlineStr"/>
       <c r="H207" t="inlineStr">
         <is>
-          <t>HspHcvD17</t>
+          <t>O75HcvD17</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Hispanic (2017)</t>
+          <t>Hepatitis C Deaths - Over 75 years old (2016)</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths among hispanic populations in 2017</t>
+          <t>Hepatitis C deaths among populations over 75 years of age in 2017</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -14252,7 +14252,7 @@
       </c>
       <c r="P207" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>12</t>
         </is>
       </c>
       <c r="Q207" t="inlineStr"/>
@@ -14280,17 +14280,17 @@
       <c r="G208" t="inlineStr"/>
       <c r="H208" t="inlineStr">
         <is>
-          <t>U50HcvD17</t>
+          <t>AvHcvD</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Under 50 years old (2017)</t>
+          <t>Hepatitis C Deaths (2013 - 2017)</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths in populations under 50 years of age in 2017</t>
+          <t>Mean total yearly Hepatitis C deaths from 2013-2017</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -14310,20 +14310,16 @@
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="P208" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>586.4</t>
         </is>
       </c>
       <c r="Q208" t="inlineStr"/>
-      <c r="R208" t="inlineStr">
-        <is>
-          <t>Data included for Hepatitis C State and County Mortality is for 2014-2017, while Hepatitis C State Prevalence data are available for 2013-2016</t>
-        </is>
-      </c>
+      <c r="R208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -14343,17 +14339,17 @@
       <c r="G209" t="inlineStr"/>
       <c r="H209" t="inlineStr">
         <is>
-          <t>A50_74HcvD17</t>
+          <t>AvMlHcvD</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - 50 to 74 years old (2017)</t>
+          <t>Hepatitis C Deaths - Men (2013 - 2017)</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths among populations between 50 and 74 years of age in 2017</t>
+          <t>Mean yearly Hepatitis C deaths among men from 2013-2017</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -14373,20 +14369,16 @@
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="P209" t="inlineStr">
         <is>
-          <t>472</t>
+          <t>409.2</t>
         </is>
       </c>
       <c r="Q209" t="inlineStr"/>
-      <c r="R209" t="inlineStr">
-        <is>
-          <t>Data included for Hepatitis C State and County Mortality is for 2014-2017, while Hepatitis C State Prevalence data are available for 2013-2016</t>
-        </is>
-      </c>
+      <c r="R209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -14406,17 +14398,17 @@
       <c r="G210" t="inlineStr"/>
       <c r="H210" t="inlineStr">
         <is>
-          <t>O75HcvD17</t>
+          <t>AvFlHcvD</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Over 75 years old (2016)</t>
+          <t>Hepatitis C Deaths - Women (2013 - 2017)</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths among populations over 75 years of age in 2017</t>
+          <t>Mean yearly Hepatitis C deaths among women from 2013-2017</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -14436,20 +14428,16 @@
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="P210" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>177.2</t>
         </is>
       </c>
       <c r="Q210" t="inlineStr"/>
-      <c r="R210" t="inlineStr">
-        <is>
-          <t>Data included for Hepatitis C State and County Mortality is for 2014-2017, while Hepatitis C State Prevalence data are available for 2013-2016</t>
-        </is>
-      </c>
+      <c r="R210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -14469,17 +14457,17 @@
       <c r="G211" t="inlineStr"/>
       <c r="H211" t="inlineStr">
         <is>
-          <t>AvHcvD</t>
+          <t>AvAmInHcvD</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths (2013 - 2017)</t>
+          <t>Hepatitis C Deaths - American Indian (2013 - 2017)</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>Mean total yearly Hepatitis C deaths from 2013-2017</t>
+          <t>Mean yearly Hepatitis C deaths among American Indian population from 2013-2017</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -14504,7 +14492,7 @@
       </c>
       <c r="P211" t="inlineStr">
         <is>
-          <t>586.4</t>
+          <t>23.6</t>
         </is>
       </c>
       <c r="Q211" t="inlineStr"/>
@@ -14528,17 +14516,17 @@
       <c r="G212" t="inlineStr"/>
       <c r="H212" t="inlineStr">
         <is>
-          <t>AvMlHcvD</t>
+          <t>AvAsPiHcvD</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Men (2013 - 2017)</t>
+          <t>Hepatitis C Deaths - Asian &amp; Pacific Islander (2013 - 2017)</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>Mean yearly Hepatitis C deaths among men from 2013-2017</t>
+          <t>Mean yearly Hepatitis C deaths among Asian and Pacific Islanders population from 2013-2017</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -14563,7 +14551,7 @@
       </c>
       <c r="P212" t="inlineStr">
         <is>
-          <t>409.2</t>
+          <t>24.4</t>
         </is>
       </c>
       <c r="Q212" t="inlineStr"/>
@@ -14587,17 +14575,17 @@
       <c r="G213" t="inlineStr"/>
       <c r="H213" t="inlineStr">
         <is>
-          <t>AvFlHcvD</t>
+          <t>AvBlkHcvD</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Women (2013 - 2017)</t>
+          <t>Hepatitis C Deaths - Black (2013 - 2017)</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>Mean yearly Hepatitis C deaths among women from 2013-2017</t>
+          <t>Mean yearly Hepatitis C deaths among Black populations from 2013-2017</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -14622,7 +14610,7 @@
       </c>
       <c r="P213" t="inlineStr">
         <is>
-          <t>177.2</t>
+          <t>42.2</t>
         </is>
       </c>
       <c r="Q213" t="inlineStr"/>
@@ -14646,17 +14634,17 @@
       <c r="G214" t="inlineStr"/>
       <c r="H214" t="inlineStr">
         <is>
-          <t>AvAmInHcvD</t>
+          <t>AvHspHcvD</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - American Indian (2013 - 2017)</t>
+          <t>Hepatitis C Deaths - Hispanic (2013 - 2017)</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>Mean yearly Hepatitis C deaths among American Indian population from 2013-2017</t>
+          <t>Mean yearly Hepatitis C deaths among Hispanic populations from 2013-2017</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -14681,7 +14669,7 @@
       </c>
       <c r="P214" t="inlineStr">
         <is>
-          <t>23.6</t>
+          <t>34.4</t>
         </is>
       </c>
       <c r="Q214" t="inlineStr"/>
@@ -14705,17 +14693,17 @@
       <c r="G215" t="inlineStr"/>
       <c r="H215" t="inlineStr">
         <is>
-          <t>AvAsPiHcvD</t>
+          <t>AvU50HcvD</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Asian &amp; Pacific Islander (2013 - 2017)</t>
+          <t>Hepatitis C Deaths - Age Under 50 (2013 - 2017)</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>Mean yearly Hepatitis C deaths among Asian and Pacific Islanders population from 2013-2017</t>
+          <t>Mean yearly Hepatitis C deaths among people under 50 years of age from 2013-2017</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -14740,7 +14728,7 @@
       </c>
       <c r="P215" t="inlineStr">
         <is>
-          <t>24.4</t>
+          <t>26.6</t>
         </is>
       </c>
       <c r="Q215" t="inlineStr"/>
@@ -14764,17 +14752,17 @@
       <c r="G216" t="inlineStr"/>
       <c r="H216" t="inlineStr">
         <is>
-          <t>AvBlkHcvD</t>
+          <t>Av50_74HcvD</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Black (2013 - 2017)</t>
+          <t>Hepatitis C Deaths - Age 50 to 74 (2013 - 2017)</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>Mean yearly Hepatitis C deaths among Black populations from 2013-2017</t>
+          <t>Mean yearly Hepatitis C deaths among people between 50 and 74 years of age from 2013-2017</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -14799,7 +14787,7 @@
       </c>
       <c r="P216" t="inlineStr">
         <is>
-          <t>42.2</t>
+          <t>510.8</t>
         </is>
       </c>
       <c r="Q216" t="inlineStr"/>
@@ -14823,17 +14811,17 @@
       <c r="G217" t="inlineStr"/>
       <c r="H217" t="inlineStr">
         <is>
-          <t>AvHspHcvD</t>
+          <t>AvO75HcvD</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Hispanic (2013 - 2017)</t>
+          <t>Hepatitis C Deaths - Age Over 75  (2013 - 2017)</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>Mean yearly Hepatitis C deaths among Hispanic populations from 2013-2017</t>
+          <t>Mean yearly Hepatitis C deaths among people over 75 years of age</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
@@ -14858,7 +14846,7 @@
       </c>
       <c r="P217" t="inlineStr">
         <is>
-          <t>34.4</t>
+          <t>27</t>
         </is>
       </c>
       <c r="Q217" t="inlineStr"/>
@@ -14882,32 +14870,32 @@
       <c r="G218" t="inlineStr"/>
       <c r="H218" t="inlineStr">
         <is>
-          <t>AvU50HcvD</t>
+          <t>OpRxRt20</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Age Under 50 (2013 - 2017)</t>
+          <t>Opioid Prescription Rate (2020)</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>Mean yearly Hepatitis C deaths among people under 50 years of age from 2013-2017</t>
+          <t>Opioid prescription rate in 2020</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/HepC.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/OpioidIndicators.md</t>
         </is>
       </c>
       <c r="L218" t="inlineStr">
         <is>
-          <t>HepVu, 2017</t>
+          <t>HepVu, 2020</t>
         </is>
       </c>
       <c r="M218" t="inlineStr">
         <is>
-          <t>HepVu, 2017</t>
+          <t>HepVu, 2020</t>
         </is>
       </c>
       <c r="O218" t="inlineStr">
@@ -14917,7 +14905,7 @@
       </c>
       <c r="P218" t="inlineStr">
         <is>
-          <t>26.6</t>
+          <t>39.5</t>
         </is>
       </c>
       <c r="Q218" t="inlineStr"/>
@@ -14941,32 +14929,32 @@
       <c r="G219" t="inlineStr"/>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Av50_74HcvD</t>
+          <t>PrMsuse20P</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Age 50 to 74 (2013 - 2017)</t>
+          <t>% Self-Report Misuse of Prescription Pain Medication (2020)</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>Mean yearly Hepatitis C deaths among people between 50 and 74 years of age from 2013-2017</t>
+          <t>Percent of persons who self-report misusing prescription pain relief medication in 2020.</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/HepC.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/OpioidIndicators.md</t>
         </is>
       </c>
       <c r="L219" t="inlineStr">
         <is>
-          <t>HepVu, 2017</t>
+          <t>HepVu, 2020</t>
         </is>
       </c>
       <c r="M219" t="inlineStr">
         <is>
-          <t>HepVu, 2017</t>
+          <t>HepVu, 2020</t>
         </is>
       </c>
       <c r="O219" t="inlineStr">
@@ -14976,7 +14964,7 @@
       </c>
       <c r="P219" t="inlineStr">
         <is>
-          <t>510.8</t>
+          <t>4.15</t>
         </is>
       </c>
       <c r="Q219" t="inlineStr"/>
@@ -15000,32 +14988,32 @@
       <c r="G220" t="inlineStr"/>
       <c r="H220" t="inlineStr">
         <is>
-          <t>AvO75HcvD</t>
+          <t>OdMortRt14</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Age Over 75  (2013 - 2017)</t>
+          <t>Opioid Mortality Rate (2014)</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>Mean yearly Hepatitis C deaths among people over 75 years of age</t>
+          <t>Overdose mortality rate in 2014</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/HepC.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/OpioidIndicators.md</t>
         </is>
       </c>
       <c r="L220" t="inlineStr">
         <is>
-          <t>HepVu, 2017</t>
+          <t>HepVu, 2020</t>
         </is>
       </c>
       <c r="M220" t="inlineStr">
         <is>
-          <t>HepVu, 2017</t>
+          <t>HepVu, 2020</t>
         </is>
       </c>
       <c r="O220" t="inlineStr">
@@ -15035,7 +15023,7 @@
       </c>
       <c r="P220" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>13.3</t>
         </is>
       </c>
       <c r="Q220" t="inlineStr"/>
@@ -15059,17 +15047,17 @@
       <c r="G221" t="inlineStr"/>
       <c r="H221" t="inlineStr">
         <is>
-          <t>OpRxRt20</t>
+          <t>OdMortRt15</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>Opioid Prescription Rate (2020)</t>
+          <t>Opioid Mortality Rate (2015)</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>Opioid prescription rate in 2020</t>
+          <t>Overdose mortality rate in 2015</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -15094,7 +15082,7 @@
       </c>
       <c r="P221" t="inlineStr">
         <is>
-          <t>39.5</t>
+          <t>14.7</t>
         </is>
       </c>
       <c r="Q221" t="inlineStr"/>
@@ -15118,17 +15106,17 @@
       <c r="G222" t="inlineStr"/>
       <c r="H222" t="inlineStr">
         <is>
-          <t>PrMsuse20P</t>
+          <t>OdMortRt16</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>% Self-Report Misuse of Prescription Pain Medication (2020)</t>
+          <t>Opioid Mortality Rate (2016)</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>Percent of persons who self-report misusing prescription pain relief medication in 2020.</t>
+          <t>Overdose mortality rate in 2016</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
@@ -15153,7 +15141,7 @@
       </c>
       <c r="P222" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>14.5</t>
         </is>
       </c>
       <c r="Q222" t="inlineStr"/>
@@ -15177,17 +15165,17 @@
       <c r="G223" t="inlineStr"/>
       <c r="H223" t="inlineStr">
         <is>
-          <t>OdMortRt14</t>
+          <t>OdMortRt17</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>Opioid Mortality Rate (2014)</t>
+          <t>Opioid Mortality Rate (2017)</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>Overdose mortality rate in 2014</t>
+          <t>Overdose mortality rate in 2017</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -15212,7 +15200,7 @@
       </c>
       <c r="P223" t="inlineStr">
         <is>
-          <t>13.3</t>
+          <t>15.2</t>
         </is>
       </c>
       <c r="Q223" t="inlineStr"/>
@@ -15236,17 +15224,17 @@
       <c r="G224" t="inlineStr"/>
       <c r="H224" t="inlineStr">
         <is>
-          <t>OdMortRt15</t>
+          <t>OdMortRt18</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>Opioid Mortality Rate (2015)</t>
+          <t>Opioid Mortality Rate (2018)</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>Overdose mortality rate in 2015</t>
+          <t>Overdose mortality rate in 2018</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -15271,7 +15259,7 @@
       </c>
       <c r="P224" t="inlineStr">
         <is>
-          <t>14.7</t>
+          <t>35.4</t>
         </is>
       </c>
       <c r="Q224" t="inlineStr"/>
@@ -15295,17 +15283,17 @@
       <c r="G225" t="inlineStr"/>
       <c r="H225" t="inlineStr">
         <is>
-          <t>OdMortRt16</t>
+          <t>OdMortRt19</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>Opioid Mortality Rate (2016)</t>
+          <t>Opioid Mortality Rate (2019)</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>Overdose mortality rate in 2016</t>
+          <t>Overdose mortality rate in 2019</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
@@ -15330,7 +15318,7 @@
       </c>
       <c r="P225" t="inlineStr">
         <is>
-          <t>14.5</t>
+          <t>15.8</t>
         </is>
       </c>
       <c r="Q225" t="inlineStr"/>
@@ -15354,17 +15342,17 @@
       <c r="G226" t="inlineStr"/>
       <c r="H226" t="inlineStr">
         <is>
-          <t>OdMortRt17</t>
+          <t>OdMortRt20</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>Opioid Mortality Rate (2017)</t>
+          <t>Opioid Mortality Rate (2020)</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>Overdose mortality rate in 2017</t>
+          <t>Overdose mortality rate in 2020</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
@@ -15389,7 +15377,7 @@
       </c>
       <c r="P226" t="inlineStr">
         <is>
-          <t>15.2</t>
+          <t>22</t>
         </is>
       </c>
       <c r="Q226" t="inlineStr"/>
@@ -15413,17 +15401,17 @@
       <c r="G227" t="inlineStr"/>
       <c r="H227" t="inlineStr">
         <is>
-          <t>OdMortRt18</t>
+          <t>OdMortRtAv</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>Opioid Mortality Rate (2018)</t>
+          <t>Opioid Mortality Rate</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>Overdose mortality rate in 2018</t>
+          <t>Average overdose mortality rate from 2016-2020</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
@@ -15448,188 +15436,11 @@
       </c>
       <c r="P227" t="inlineStr">
         <is>
-          <t>35.4</t>
+          <t>20.58</t>
         </is>
       </c>
       <c r="Q227" t="inlineStr"/>
       <c r="R227" t="inlineStr"/>
-    </row>
-    <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t>Outcome</t>
-        </is>
-      </c>
-      <c r="B228" t="inlineStr"/>
-      <c r="C228" t="inlineStr"/>
-      <c r="D228" t="inlineStr"/>
-      <c r="E228" t="inlineStr"/>
-      <c r="F228" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="G228" t="inlineStr"/>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>OdMortRt19</t>
-        </is>
-      </c>
-      <c r="I228" t="inlineStr">
-        <is>
-          <t>Opioid Mortality Rate (2019)</t>
-        </is>
-      </c>
-      <c r="J228" t="inlineStr">
-        <is>
-          <t>Overdose mortality rate in 2019</t>
-        </is>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/OpioidIndicators.md</t>
-        </is>
-      </c>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>HepVu, 2020</t>
-        </is>
-      </c>
-      <c r="M228" t="inlineStr">
-        <is>
-          <t>HepVu, 2020</t>
-        </is>
-      </c>
-      <c r="O228" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="P228" t="inlineStr">
-        <is>
-          <t>15.8</t>
-        </is>
-      </c>
-      <c r="Q228" t="inlineStr"/>
-      <c r="R228" t="inlineStr"/>
-    </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>Outcome</t>
-        </is>
-      </c>
-      <c r="B229" t="inlineStr"/>
-      <c r="C229" t="inlineStr"/>
-      <c r="D229" t="inlineStr"/>
-      <c r="E229" t="inlineStr"/>
-      <c r="F229" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="G229" t="inlineStr"/>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>OdMortRt20</t>
-        </is>
-      </c>
-      <c r="I229" t="inlineStr">
-        <is>
-          <t>Opioid Mortality Rate (2020)</t>
-        </is>
-      </c>
-      <c r="J229" t="inlineStr">
-        <is>
-          <t>Overdose mortality rate in 2020</t>
-        </is>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/OpioidIndicators.md</t>
-        </is>
-      </c>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>HepVu, 2020</t>
-        </is>
-      </c>
-      <c r="M229" t="inlineStr">
-        <is>
-          <t>HepVu, 2020</t>
-        </is>
-      </c>
-      <c r="O229" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="P229" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="Q229" t="inlineStr"/>
-      <c r="R229" t="inlineStr"/>
-    </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>Outcome</t>
-        </is>
-      </c>
-      <c r="B230" t="inlineStr"/>
-      <c r="C230" t="inlineStr"/>
-      <c r="D230" t="inlineStr"/>
-      <c r="E230" t="inlineStr"/>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="G230" t="inlineStr"/>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>OdMortRtAv</t>
-        </is>
-      </c>
-      <c r="I230" t="inlineStr">
-        <is>
-          <t>Opioid Mortality Rate</t>
-        </is>
-      </c>
-      <c r="J230" t="inlineStr">
-        <is>
-          <t>Average overdose mortality rate from 2016-2020</t>
-        </is>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/OpioidIndicators.md</t>
-        </is>
-      </c>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>HepVu, 2020</t>
-        </is>
-      </c>
-      <c r="M230" t="inlineStr">
-        <is>
-          <t>HepVu, 2020</t>
-        </is>
-      </c>
-      <c r="O230" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="P230" t="inlineStr">
-        <is>
-          <t>20.58</t>
-        </is>
-      </c>
-      <c r="Q230" t="inlineStr"/>
-      <c r="R230" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/backend/oeps/data/dictionaries/S_Dict.xlsx
+++ b/backend/oeps/data/dictionaries/S_Dict.xlsx
@@ -557,73 +557,65 @@
           <t>Geography</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>HEROP_ID</t>
+          <t>TotTracts</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>HEROP_ID</t>
+          <t>Total Census Tract Count</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>A derived unique id corresponding to the relevant geographic unit.</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr"/>
+          <t>Total number of census tracts within the state.</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_FQHCs_MinDistance.md</t>
+        </is>
+      </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Healthy Regions &amp; Policies Lab, UIUC</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr"/>
+          <t>Tiger/Line 2018</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Tiger/Line 2018 Shapefiles</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>050US01001-2018</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr"/>
+          <t>1458</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
+        </is>
+      </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>The HEROP_ID is generated as follows: Summary Level Code + "US" + GEOID + “-” + Year</t>
+          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
         </is>
       </c>
     </row>
@@ -633,70 +625,63 @@
           <t>Geography</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>GEOID</t>
+          <t>AreaSqMi</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>GEOID</t>
+          <t>Land Area (Square Miles)</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Unique identifer for the geography unit to which this value should be attached</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr"/>
+          <t>Land area of geography in sq miles</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/AlcoholOutlets_2018.md</t>
+        </is>
+      </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Tiger/Line 2018; Tiger/Line 2010</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr"/>
+          <t>InfoGroup, 2018</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>InfoGroup's 2018 Business and Consumer Historical Datafile</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>36061</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr"/>
+          <t>66452.74</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Alcohol outlet density is one approximation for accessibility or demand, though a limited one for describing or understanding the complex relationship between alcohol consumption and the surrounding area or communithy.
+The category of 'alcohol outlets' included in this dataset does not include supermarkets and/or drug stores that may carry beer, wine, or liquor. The laws governing these sales varies from state to state, permitting alcohol sales in different kind of sales outlets. Outlets that are permitted to make these sales may not always fall under the same NAICS code for Beer, Wine, and Liquor Stores.</t>
+        </is>
+      </c>
       <c r="S3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -705,65 +690,77 @@
           <t>Geography</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>TotTracts</t>
+          <t>HEROP_ID</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Total Census Tract Count</t>
+          <t>HEROP_ID</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Total number of census tracts within the state.</t>
+          <t>A derived unique id corresponding to the relevant geographic unit.</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_FQHCs_MinDistance.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Geographic_Boundaries.md</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Tiger/Line 2018</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>Tiger/Line 2018 Shapefiles</t>
-        </is>
-      </c>
+          <t>Healthy Regions &amp; Policies Lab, UIUC</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>string</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>1458</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
-        </is>
-      </c>
+          <t>050US01001-2018</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr">
         <is>
-          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
+          <t>The HEROP_ID is generated as follows: Summary Level Code + "US" + GEOID</t>
         </is>
       </c>
     </row>
@@ -773,63 +770,74 @@
           <t>Geography</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>AreaSqMi</t>
+          <t>GEOID</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Land Area (Square Miles)</t>
+          <t>GEOID</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Land area of geography in sq miles</t>
+          <t>Unique identifer for the geography unit to which this value should be attached</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/AlcoholOutlets_2018.md</t>
+          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Geographic_Boundaries.md</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>InfoGroup, 2018</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>InfoGroup's 2018 Business and Consumer Historical Datafile</t>
-        </is>
-      </c>
+          <t>Tiger/Line 2018; Tiger/Line 2010</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>66452.74</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>Alcohol outlet density is one approximation for accessibility or demand, though a limited one for describing or understanding the complex relationship between alcohol consumption and the surrounding area or communithy.
-The category of 'alcohol outlets' included in this dataset does not include supermarkets and/or drug stores that may carry beer, wine, or liquor. The laws governing these sales varies from state to state, permitting alcohol sales in different kind of sales outlets. Outlets that are permitted to make these sales may not always fall under the same NAICS code for Beer, Wine, and Liquor Stores.</t>
-        </is>
-      </c>
+          <t>36061</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -5405,7 +5413,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t xml:space="preserve">Driving Time (min) to nearest Pharmacy </t>
+          <t xml:space="preserve">Avg. Driving Time (min) to nearest Pharmacy </t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -5813,7 +5821,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Driving Time to nearest Hospital</t>
+          <t>Avg. Driving Time to nearest Hospital</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -7834,7 +7842,7 @@
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>2010-06-10 00:00:00</t>
+          <t>6/10/2010</t>
         </is>
       </c>
       <c r="R104" t="inlineStr"/>
@@ -7900,7 +7908,7 @@
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>2015-10-01 00:00:00</t>
+          <t>10/1/2015</t>
         </is>
       </c>
       <c r="R105" t="inlineStr"/>
@@ -8577,7 +8585,7 @@
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>2010-07-01 00:00:00</t>
+          <t>7/1/2010</t>
         </is>
       </c>
       <c r="R115" t="inlineStr"/>
@@ -8637,7 +8645,7 @@
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>2015-08-01 00:00:00</t>
+          <t>8/1/2015</t>
         </is>
       </c>
       <c r="R116" t="inlineStr"/>
@@ -8697,7 +8705,7 @@
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>2014-05-01 00:00:00</t>
+          <t>5/1/2014</t>
         </is>
       </c>
       <c r="R117" t="inlineStr"/>
@@ -9257,7 +9265,7 @@
       </c>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>2007-07-22 00:00:00</t>
+          <t>7/22/2007</t>
         </is>
       </c>
       <c r="R126" t="inlineStr">
@@ -9321,7 +9329,7 @@
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>2011-08-01 00:00:00</t>
+          <t>8/1/2011</t>
         </is>
       </c>
       <c r="R127" t="inlineStr">
@@ -9385,7 +9393,7 @@
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>2012-01-01 00:00:00</t>
+          <t>1/1/2012</t>
         </is>
       </c>
       <c r="R128" t="inlineStr">
@@ -9449,7 +9457,7 @@
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>2014-07-01 00:00:00</t>
+          <t>7/1/2014</t>
         </is>
       </c>
       <c r="R129" t="inlineStr">
@@ -9513,7 +9521,7 @@
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>2007-07-22 00:00:00</t>
+          <t>7/22/2007</t>
         </is>
       </c>
       <c r="R130" t="inlineStr">

--- a/backend/oeps/data/dictionaries/S_Dict.xlsx
+++ b/backend/oeps/data/dictionaries/S_Dict.xlsx
@@ -1034,32 +1034,32 @@
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr">
         <is>
-          <t>ParkArea</t>
+          <t>StateArea</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>Park Area</t>
+          <t>State Area</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>Area (in square meters) of park or green space in a state).</t>
+          <t>Area (in square meters) of state</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
@@ -1069,12 +1069,12 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>OSM</t>
+          <t>Tiger/Line 2018</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>OpenStreetMap</t>
+          <t>Tiger/Line 2018 Shapefiles</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1084,7 +1084,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>39296898972.47</t>
+          <t>4486028684.18</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr"/>
@@ -1105,32 +1105,32 @@
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr">
         <is>
-          <t>StateArea</t>
+          <t>ParkArea</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>State Area</t>
+          <t>Park Area</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>Area (in square meters) of state</t>
+          <t>Area (in square meters) of park or green space in a state).</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
@@ -1140,12 +1140,12 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>Tiger/Line 2018</t>
+          <t>OSM</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>Tiger/Line 2018 Shapefiles</t>
+          <t>OpenStreetMap</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>4486028684.18</t>
+          <t>39296898972.47</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr"/>
@@ -5278,7 +5278,7 @@
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr">
         <is>
-          <t>CntNalT</t>
+          <t>CntNaltT</t>
         </is>
       </c>
       <c r="U54" t="inlineStr">
@@ -5515,7 +5515,7 @@
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr">
         <is>
-          <t>AvNalTime</t>
+          <t>AvNaltTime</t>
         </is>
       </c>
       <c r="U57" t="inlineStr">
@@ -5752,7 +5752,7 @@
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr">
         <is>
-          <t>PctNalT</t>
+          <t>PctNaltT</t>
         </is>
       </c>
       <c r="U60" t="inlineStr">
@@ -6333,7 +6333,7 @@
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr">
         <is>
-          <t>NalCtTmDr</t>
+          <t>NaltCtTmDr</t>
         </is>
       </c>
       <c r="U67" t="inlineStr">
@@ -6416,7 +6416,7 @@
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr">
         <is>
-          <t>NalCtTmBk</t>
+          <t>NaltCtTmBk</t>
         </is>
       </c>
       <c r="U68" t="inlineStr">
@@ -6499,7 +6499,7 @@
       <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr">
         <is>
-          <t>NalCtTmWk</t>
+          <t>NaltCtTmWk</t>
         </is>
       </c>
       <c r="U69" t="inlineStr">
@@ -7080,7 +7080,7 @@
       <c r="S76" t="inlineStr"/>
       <c r="T76" t="inlineStr">
         <is>
-          <t>NalAvTmDr</t>
+          <t>NaltAvTmDr</t>
         </is>
       </c>
       <c r="U76" t="inlineStr">
@@ -7163,7 +7163,7 @@
       <c r="S77" t="inlineStr"/>
       <c r="T77" t="inlineStr">
         <is>
-          <t>NalAvTmBk</t>
+          <t>NaltAvTmBk</t>
         </is>
       </c>
       <c r="U77" t="inlineStr">
@@ -7246,7 +7246,7 @@
       <c r="S78" t="inlineStr"/>
       <c r="T78" t="inlineStr">
         <is>
-          <t>NalAvTmWk</t>
+          <t>NaltAvTmWk</t>
         </is>
       </c>
       <c r="U78" t="inlineStr">
@@ -7827,7 +7827,7 @@
       <c r="S85" t="inlineStr"/>
       <c r="T85" t="inlineStr">
         <is>
-          <t>NalTmDrP</t>
+          <t>NaltTmDrP</t>
         </is>
       </c>
       <c r="U85" t="inlineStr">
@@ -7910,7 +7910,7 @@
       <c r="S86" t="inlineStr"/>
       <c r="T86" t="inlineStr">
         <is>
-          <t>NalTmBkP</t>
+          <t>NaltTmBkP</t>
         </is>
       </c>
       <c r="U86" t="inlineStr">
@@ -7993,7 +7993,7 @@
       <c r="S87" t="inlineStr"/>
       <c r="T87" t="inlineStr">
         <is>
-          <t>NalTmWkP</t>
+          <t>NaltTmWkP</t>
         </is>
       </c>
       <c r="U87" t="inlineStr">
@@ -12471,7 +12471,7 @@
       <c r="S141" t="inlineStr"/>
       <c r="T141" t="inlineStr">
         <is>
-          <t>AnyNalDt</t>
+          <t>AnyNalxDt</t>
         </is>
       </c>
       <c r="U141" t="inlineStr">
@@ -12562,7 +12562,7 @@
       <c r="S142" t="inlineStr"/>
       <c r="T142" t="inlineStr">
         <is>
-          <t>NalPrStDt</t>
+          <t>NalxPrStDt</t>
         </is>
       </c>
       <c r="U142" t="inlineStr">
@@ -12653,7 +12653,7 @@
       <c r="S143" t="inlineStr"/>
       <c r="T143" t="inlineStr">
         <is>
-          <t>NalPresDt</t>
+          <t>NalxPresDt</t>
         </is>
       </c>
       <c r="U143" t="inlineStr">
@@ -12744,7 +12744,7 @@
       <c r="S144" t="inlineStr"/>
       <c r="T144" t="inlineStr">
         <is>
-          <t>AnyNalFr</t>
+          <t>AnyNalxFr</t>
         </is>
       </c>
       <c r="U144" t="inlineStr">
@@ -12835,7 +12835,7 @@
       <c r="S145" t="inlineStr"/>
       <c r="T145" t="inlineStr">
         <is>
-          <t>NalPrStFr</t>
+          <t>NalxPrStFr</t>
         </is>
       </c>
       <c r="U145" t="inlineStr">
@@ -12926,7 +12926,7 @@
       <c r="S146" t="inlineStr"/>
       <c r="T146" t="inlineStr">
         <is>
-          <t>NalPresFr</t>
+          <t>NalxPresFr</t>
         </is>
       </c>
       <c r="U146" t="inlineStr">
@@ -13972,44 +13972,32 @@
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M157" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N157" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O157" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="inlineStr"/>
+      <c r="O157" t="inlineStr"/>
       <c r="P157" t="inlineStr"/>
       <c r="Q157" t="inlineStr"/>
       <c r="R157" t="inlineStr"/>
       <c r="S157" t="inlineStr"/>
       <c r="T157" t="inlineStr">
         <is>
-          <t>CrrctExp</t>
+          <t>CrrctExpS</t>
         </is>
       </c>
       <c r="U157" t="inlineStr">
         <is>
-          <t>Corrections expenditures</t>
+          <t>Corrections Expenditures</t>
         </is>
       </c>
       <c r="V157" t="inlineStr">
         <is>
-          <t>Total expenditures on corrections system and operations</t>
+          <t>Expenditures on corrections system and operation by the State alone</t>
         </is>
       </c>
       <c r="W157" t="inlineStr">
@@ -14019,12 +14007,12 @@
       </c>
       <c r="X157" t="inlineStr">
         <is>
-          <t>State and Local Finance Data Finder</t>
+          <t>US Census, 2018</t>
         </is>
       </c>
       <c r="Y157" t="inlineStr">
         <is>
-          <t>State and Local Finance Data Finder</t>
+          <t>U.S. Census Bureau Annual Survey of State and Local Government Finances via Urban Institute &amp; Tax Policy Center's State and Local Finance Data Finder</t>
         </is>
       </c>
       <c r="AA157" t="inlineStr">
@@ -14034,10 +14022,14 @@
       </c>
       <c r="AB157" t="inlineStr">
         <is>
-          <t>1897193</t>
-        </is>
-      </c>
-      <c r="AC157" t="inlineStr"/>
+          <t>915105</t>
+        </is>
+      </c>
+      <c r="AC157" t="inlineStr">
+        <is>
+          <t>Local data outside of police and fire expenditures was not available for Washington, D.C.</t>
+        </is>
+      </c>
       <c r="AD157" t="inlineStr"/>
     </row>
     <row r="158">
@@ -14055,44 +14047,32 @@
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M158" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N158" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O158" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="inlineStr"/>
+      <c r="O158" t="inlineStr"/>
       <c r="P158" t="inlineStr"/>
       <c r="Q158" t="inlineStr"/>
       <c r="R158" t="inlineStr"/>
       <c r="S158" t="inlineStr"/>
       <c r="T158" t="inlineStr">
         <is>
-          <t>HlthExp</t>
+          <t>PlcFyrExpS</t>
         </is>
       </c>
       <c r="U158" t="inlineStr">
         <is>
-          <t>Public health expenditures</t>
+          <t>Police &amp; Fire Expenditures</t>
         </is>
       </c>
       <c r="V158" t="inlineStr">
         <is>
-          <t>Total expenditures on public health and hospitals</t>
+          <t>Expenditures on police and fire protection by the State alone</t>
         </is>
       </c>
       <c r="W158" t="inlineStr">
@@ -14102,12 +14082,12 @@
       </c>
       <c r="X158" t="inlineStr">
         <is>
-          <t>State and Local Finance Data Finder</t>
+          <t>US Census, 2018</t>
         </is>
       </c>
       <c r="Y158" t="inlineStr">
         <is>
-          <t>State and Local Finance Data Finder</t>
+          <t>U.S. Census Bureau Annual Survey of State and Local Government Finances via Urban Institute &amp; Tax Policy Center's State and Local Finance Data Finder</t>
         </is>
       </c>
       <c r="AA158" t="inlineStr">
@@ -14117,10 +14097,14 @@
       </c>
       <c r="AB158" t="inlineStr">
         <is>
-          <t>1897193</t>
-        </is>
-      </c>
-      <c r="AC158" t="inlineStr"/>
+          <t>305035</t>
+        </is>
+      </c>
+      <c r="AC158" t="inlineStr">
+        <is>
+          <t>Local data outside of police and fire expenditures was not available for Washington, D.C.</t>
+        </is>
+      </c>
       <c r="AD158" t="inlineStr"/>
     </row>
     <row r="159">
@@ -14138,44 +14122,32 @@
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M159" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N159" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O159" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="inlineStr"/>
+      <c r="O159" t="inlineStr"/>
       <c r="P159" t="inlineStr"/>
       <c r="Q159" t="inlineStr"/>
       <c r="R159" t="inlineStr"/>
       <c r="S159" t="inlineStr"/>
       <c r="T159" t="inlineStr">
         <is>
-          <t>PlcFyrExp</t>
+          <t>HlthExpS</t>
         </is>
       </c>
       <c r="U159" t="inlineStr">
         <is>
-          <t>Police &amp; fire expenditures</t>
+          <t>Public Health Expenditures</t>
         </is>
       </c>
       <c r="V159" t="inlineStr">
         <is>
-          <t>Total expenditures on police and fire protection</t>
+          <t>Expenditures on public health and hospitals by the State alone</t>
         </is>
       </c>
       <c r="W159" t="inlineStr">
@@ -14185,12 +14157,12 @@
       </c>
       <c r="X159" t="inlineStr">
         <is>
-          <t>State and Local Finance Data Finder</t>
+          <t>US Census, 2018</t>
         </is>
       </c>
       <c r="Y159" t="inlineStr">
         <is>
-          <t>State and Local Finance Data Finder</t>
+          <t>U.S. Census Bureau Annual Survey of State and Local Government Finances via Urban Institute &amp; Tax Policy Center's State and Local Finance Data Finder</t>
         </is>
       </c>
       <c r="AA159" t="inlineStr">
@@ -14200,10 +14172,14 @@
       </c>
       <c r="AB159" t="inlineStr">
         <is>
-          <t>1897193</t>
-        </is>
-      </c>
-      <c r="AC159" t="inlineStr"/>
+          <t>915105</t>
+        </is>
+      </c>
+      <c r="AC159" t="inlineStr">
+        <is>
+          <t>Local data outside of police and fire expenditures was not available for Washington, D.C.</t>
+        </is>
+      </c>
       <c r="AD159" t="inlineStr"/>
     </row>
     <row r="160">
@@ -14221,44 +14197,32 @@
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M160" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N160" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O160" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="inlineStr"/>
+      <c r="O160" t="inlineStr"/>
       <c r="P160" t="inlineStr"/>
       <c r="Q160" t="inlineStr"/>
       <c r="R160" t="inlineStr"/>
       <c r="S160" t="inlineStr"/>
       <c r="T160" t="inlineStr">
         <is>
-          <t>WlfrExp</t>
+          <t>WlfrExpS</t>
         </is>
       </c>
       <c r="U160" t="inlineStr">
         <is>
-          <t>Public welfare expenditures</t>
+          <t>Public Welfare Expenditures</t>
         </is>
       </c>
       <c r="V160" t="inlineStr">
         <is>
-          <t>Total expenditures on public welfare programs</t>
+          <t>Expenditures on public welfare progrmas by the State alone</t>
         </is>
       </c>
       <c r="W160" t="inlineStr">
@@ -14268,12 +14232,12 @@
       </c>
       <c r="X160" t="inlineStr">
         <is>
-          <t>State and Local Finance Data Finder</t>
+          <t>US Census, 2018</t>
         </is>
       </c>
       <c r="Y160" t="inlineStr">
         <is>
-          <t>State and Local Finance Data Finder</t>
+          <t>U.S. Census Bureau Annual Survey of State and Local Government Finances via Urban Institute &amp; Tax Policy Center's State and Local Finance Data Finder</t>
         </is>
       </c>
       <c r="AA160" t="inlineStr">
@@ -14283,10 +14247,14 @@
       </c>
       <c r="AB160" t="inlineStr">
         <is>
-          <t>1897193</t>
-        </is>
-      </c>
-      <c r="AC160" t="inlineStr"/>
+          <t>1830210</t>
+        </is>
+      </c>
+      <c r="AC160" t="inlineStr">
+        <is>
+          <t>Local data outside of police and fire expenditures was not available for Washington, D.C.</t>
+        </is>
+      </c>
       <c r="AD160" t="inlineStr"/>
     </row>
     <row r="161">
@@ -14319,17 +14287,17 @@
       <c r="S161" t="inlineStr"/>
       <c r="T161" t="inlineStr">
         <is>
-          <t>CrrctExpS</t>
+          <t>CrrctExpL</t>
         </is>
       </c>
       <c r="U161" t="inlineStr">
         <is>
-          <t>Corrections Expenditures</t>
+          <t>Corrections Expenditures (Local)</t>
         </is>
       </c>
       <c r="V161" t="inlineStr">
         <is>
-          <t>Expenditures on corrections system and operation by the State alone</t>
+          <t>Expenditures on corrections system and operation by local governments alone</t>
         </is>
       </c>
       <c r="W161" t="inlineStr">
@@ -14354,7 +14322,7 @@
       </c>
       <c r="AB161" t="inlineStr">
         <is>
-          <t>915105</t>
+          <t>2196606</t>
         </is>
       </c>
       <c r="AC161" t="inlineStr">
@@ -14394,17 +14362,17 @@
       <c r="S162" t="inlineStr"/>
       <c r="T162" t="inlineStr">
         <is>
-          <t>PlcFyrExpS</t>
+          <t>PlcFyrExpL</t>
         </is>
       </c>
       <c r="U162" t="inlineStr">
         <is>
-          <t>Police &amp; Fire Expenditures</t>
+          <t>Police &amp; Fire Expenditures (Local)</t>
         </is>
       </c>
       <c r="V162" t="inlineStr">
         <is>
-          <t>Expenditures on police and fire protection by the State alone</t>
+          <t>Expenditures on police and fire protection by the local government alone</t>
         </is>
       </c>
       <c r="W162" t="inlineStr">
@@ -14429,7 +14397,7 @@
       </c>
       <c r="AB162" t="inlineStr">
         <is>
-          <t>305035</t>
+          <t>3385247</t>
         </is>
       </c>
       <c r="AC162" t="inlineStr">
@@ -14469,17 +14437,17 @@
       <c r="S163" t="inlineStr"/>
       <c r="T163" t="inlineStr">
         <is>
-          <t>HlthExpS</t>
+          <t>HlthExpL</t>
         </is>
       </c>
       <c r="U163" t="inlineStr">
         <is>
-          <t>Public Health Expenditures</t>
+          <t>Public Health Expenditures (Local)</t>
         </is>
       </c>
       <c r="V163" t="inlineStr">
         <is>
-          <t>Expenditures on public health and hospitals by the State alone</t>
+          <t>Expenditures on public health and hospitals by the local government alone</t>
         </is>
       </c>
       <c r="W163" t="inlineStr">
@@ -14504,7 +14472,7 @@
       </c>
       <c r="AB163" t="inlineStr">
         <is>
-          <t>915105</t>
+          <t>2196606</t>
         </is>
       </c>
       <c r="AC163" t="inlineStr">
@@ -14544,17 +14512,17 @@
       <c r="S164" t="inlineStr"/>
       <c r="T164" t="inlineStr">
         <is>
-          <t>WlfrExpS</t>
+          <t>WlfrExpL</t>
         </is>
       </c>
       <c r="U164" t="inlineStr">
         <is>
-          <t>Public Welfare Expenditures</t>
+          <t>Public Welfare Expenditures (Local)</t>
         </is>
       </c>
       <c r="V164" t="inlineStr">
         <is>
-          <t>Expenditures on public welfare progrmas by the State alone</t>
+          <t>Expenditures on public welfare progrmas by the local government alone</t>
         </is>
       </c>
       <c r="W164" t="inlineStr">
@@ -14579,7 +14547,7 @@
       </c>
       <c r="AB164" t="inlineStr">
         <is>
-          <t>1830210</t>
+          <t>4393212</t>
         </is>
       </c>
       <c r="AC164" t="inlineStr">
@@ -14619,17 +14587,17 @@
       <c r="S165" t="inlineStr"/>
       <c r="T165" t="inlineStr">
         <is>
-          <t>CrrctExpL</t>
+          <t>CrrctExpT</t>
         </is>
       </c>
       <c r="U165" t="inlineStr">
         <is>
-          <t>Corrections Expenditures (Local)</t>
+          <t>Total Corrections Expenditures</t>
         </is>
       </c>
       <c r="V165" t="inlineStr">
         <is>
-          <t>Expenditures on corrections system and operation by local governments alone</t>
+          <t>Total expenditures on corrections system and operations</t>
         </is>
       </c>
       <c r="W165" t="inlineStr">
@@ -14654,7 +14622,7 @@
       </c>
       <c r="AB165" t="inlineStr">
         <is>
-          <t>2196606</t>
+          <t>3111711</t>
         </is>
       </c>
       <c r="AC165" t="inlineStr">
@@ -14694,17 +14662,17 @@
       <c r="S166" t="inlineStr"/>
       <c r="T166" t="inlineStr">
         <is>
-          <t>PlcFyrExpL</t>
+          <t>PlcFyrExpT</t>
         </is>
       </c>
       <c r="U166" t="inlineStr">
         <is>
-          <t>Police &amp; Fire Expenditures (Local)</t>
+          <t>Total Police &amp; Fire Expenditures</t>
         </is>
       </c>
       <c r="V166" t="inlineStr">
         <is>
-          <t>Expenditures on police and fire protection by the local government alone</t>
+          <t>Total expenditures on police and fire protection</t>
         </is>
       </c>
       <c r="W166" t="inlineStr">
@@ -14729,7 +14697,7 @@
       </c>
       <c r="AB166" t="inlineStr">
         <is>
-          <t>3385247</t>
+          <t>3690282</t>
         </is>
       </c>
       <c r="AC166" t="inlineStr">
@@ -14769,17 +14737,17 @@
       <c r="S167" t="inlineStr"/>
       <c r="T167" t="inlineStr">
         <is>
-          <t>HlthExpL</t>
+          <t>HlthExpT</t>
         </is>
       </c>
       <c r="U167" t="inlineStr">
         <is>
-          <t>Public Health Expenditures (Local)</t>
+          <t>Total Public Health &amp; Welfare Expenditures</t>
         </is>
       </c>
       <c r="V167" t="inlineStr">
         <is>
-          <t>Expenditures on public health and hospitals by the local government alone</t>
+          <t>Total expenditures on public health and welfare</t>
         </is>
       </c>
       <c r="W167" t="inlineStr">
@@ -14804,7 +14772,7 @@
       </c>
       <c r="AB167" t="inlineStr">
         <is>
-          <t>2196606</t>
+          <t>3111711</t>
         </is>
       </c>
       <c r="AC167" t="inlineStr">
@@ -14844,17 +14812,17 @@
       <c r="S168" t="inlineStr"/>
       <c r="T168" t="inlineStr">
         <is>
-          <t>WlfrExpL</t>
+          <t>WlfrExpT</t>
         </is>
       </c>
       <c r="U168" t="inlineStr">
         <is>
-          <t>Public Welfare Expenditures (Local)</t>
+          <t>Total Public Welfare Expenditures</t>
         </is>
       </c>
       <c r="V168" t="inlineStr">
         <is>
-          <t>Expenditures on public welfare progrmas by the local government alone</t>
+          <t>Total expenditures on public welfare programs</t>
         </is>
       </c>
       <c r="W168" t="inlineStr">
@@ -14879,7 +14847,7 @@
       </c>
       <c r="AB168" t="inlineStr">
         <is>
-          <t>4393212</t>
+          <t>6223422</t>
         </is>
       </c>
       <c r="AC168" t="inlineStr">
@@ -14904,27 +14872,39 @@
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="inlineStr"/>
-      <c r="N169" t="inlineStr"/>
-      <c r="O169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N169" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P169" t="inlineStr"/>
       <c r="Q169" t="inlineStr"/>
       <c r="R169" t="inlineStr"/>
       <c r="S169" t="inlineStr"/>
       <c r="T169" t="inlineStr">
         <is>
-          <t>CrrctExpT</t>
+          <t>CrrctExp</t>
         </is>
       </c>
       <c r="U169" t="inlineStr">
         <is>
-          <t>Total Corrections Expenditures</t>
+          <t>Corrections expenditures</t>
         </is>
       </c>
       <c r="V169" t="inlineStr">
@@ -14939,12 +14919,12 @@
       </c>
       <c r="X169" t="inlineStr">
         <is>
-          <t>US Census, 2018</t>
+          <t>State and Local Finance Data Finder</t>
         </is>
       </c>
       <c r="Y169" t="inlineStr">
         <is>
-          <t>U.S. Census Bureau Annual Survey of State and Local Government Finances via Urban Institute &amp; Tax Policy Center's State and Local Finance Data Finder</t>
+          <t>State and Local Finance Data Finder</t>
         </is>
       </c>
       <c r="AA169" t="inlineStr">
@@ -14954,14 +14934,10 @@
       </c>
       <c r="AB169" t="inlineStr">
         <is>
-          <t>3111711</t>
-        </is>
-      </c>
-      <c r="AC169" t="inlineStr">
-        <is>
-          <t>Local data outside of police and fire expenditures was not available for Washington, D.C.</t>
-        </is>
-      </c>
+          <t>1897193</t>
+        </is>
+      </c>
+      <c r="AC169" t="inlineStr"/>
       <c r="AD169" t="inlineStr"/>
     </row>
     <row r="170">
@@ -14979,32 +14955,44 @@
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="inlineStr"/>
-      <c r="N170" t="inlineStr"/>
-      <c r="O170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N170" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P170" t="inlineStr"/>
       <c r="Q170" t="inlineStr"/>
       <c r="R170" t="inlineStr"/>
       <c r="S170" t="inlineStr"/>
       <c r="T170" t="inlineStr">
         <is>
-          <t>PlcFyrExpT</t>
+          <t>HlthExp</t>
         </is>
       </c>
       <c r="U170" t="inlineStr">
         <is>
-          <t>Total Police &amp; Fire Expenditures</t>
+          <t>Public health expenditures</t>
         </is>
       </c>
       <c r="V170" t="inlineStr">
         <is>
-          <t>Total expenditures on police and fire protection</t>
+          <t>Total expenditures on public health and hospitals</t>
         </is>
       </c>
       <c r="W170" t="inlineStr">
@@ -15014,12 +15002,12 @@
       </c>
       <c r="X170" t="inlineStr">
         <is>
-          <t>US Census, 2018</t>
+          <t>State and Local Finance Data Finder</t>
         </is>
       </c>
       <c r="Y170" t="inlineStr">
         <is>
-          <t>U.S. Census Bureau Annual Survey of State and Local Government Finances via Urban Institute &amp; Tax Policy Center's State and Local Finance Data Finder</t>
+          <t>State and Local Finance Data Finder</t>
         </is>
       </c>
       <c r="AA170" t="inlineStr">
@@ -15029,14 +15017,10 @@
       </c>
       <c r="AB170" t="inlineStr">
         <is>
-          <t>3690282</t>
-        </is>
-      </c>
-      <c r="AC170" t="inlineStr">
-        <is>
-          <t>Local data outside of police and fire expenditures was not available for Washington, D.C.</t>
-        </is>
-      </c>
+          <t>1897193</t>
+        </is>
+      </c>
+      <c r="AC170" t="inlineStr"/>
       <c r="AD170" t="inlineStr"/>
     </row>
     <row r="171">
@@ -15054,32 +15038,44 @@
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="inlineStr"/>
-      <c r="N171" t="inlineStr"/>
-      <c r="O171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N171" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P171" t="inlineStr"/>
       <c r="Q171" t="inlineStr"/>
       <c r="R171" t="inlineStr"/>
       <c r="S171" t="inlineStr"/>
       <c r="T171" t="inlineStr">
         <is>
-          <t>HlthExpT</t>
+          <t>PlcFyrExp</t>
         </is>
       </c>
       <c r="U171" t="inlineStr">
         <is>
-          <t>Total Public Health &amp; Welfare Expenditures</t>
+          <t>Police &amp; fire expenditures</t>
         </is>
       </c>
       <c r="V171" t="inlineStr">
         <is>
-          <t>Total expenditures on public health and welfare</t>
+          <t>Total expenditures on police and fire protection</t>
         </is>
       </c>
       <c r="W171" t="inlineStr">
@@ -15089,12 +15085,12 @@
       </c>
       <c r="X171" t="inlineStr">
         <is>
-          <t>US Census, 2018</t>
+          <t>State and Local Finance Data Finder</t>
         </is>
       </c>
       <c r="Y171" t="inlineStr">
         <is>
-          <t>U.S. Census Bureau Annual Survey of State and Local Government Finances via Urban Institute &amp; Tax Policy Center's State and Local Finance Data Finder</t>
+          <t>State and Local Finance Data Finder</t>
         </is>
       </c>
       <c r="AA171" t="inlineStr">
@@ -15104,14 +15100,10 @@
       </c>
       <c r="AB171" t="inlineStr">
         <is>
-          <t>3111711</t>
-        </is>
-      </c>
-      <c r="AC171" t="inlineStr">
-        <is>
-          <t>Local data outside of police and fire expenditures was not available for Washington, D.C.</t>
-        </is>
-      </c>
+          <t>1897193</t>
+        </is>
+      </c>
+      <c r="AC171" t="inlineStr"/>
       <c r="AD171" t="inlineStr"/>
     </row>
     <row r="172">
@@ -15129,27 +15121,39 @@
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="inlineStr"/>
-      <c r="N172" t="inlineStr"/>
-      <c r="O172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N172" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P172" t="inlineStr"/>
       <c r="Q172" t="inlineStr"/>
       <c r="R172" t="inlineStr"/>
       <c r="S172" t="inlineStr"/>
       <c r="T172" t="inlineStr">
         <is>
-          <t>WlfrExpT</t>
+          <t>WlfrExp</t>
         </is>
       </c>
       <c r="U172" t="inlineStr">
         <is>
-          <t>Total Public Welfare Expenditures</t>
+          <t>Public welfare expenditures</t>
         </is>
       </c>
       <c r="V172" t="inlineStr">
@@ -15164,12 +15168,12 @@
       </c>
       <c r="X172" t="inlineStr">
         <is>
-          <t>US Census, 2018</t>
+          <t>State and Local Finance Data Finder</t>
         </is>
       </c>
       <c r="Y172" t="inlineStr">
         <is>
-          <t>U.S. Census Bureau Annual Survey of State and Local Government Finances via Urban Institute &amp; Tax Policy Center's State and Local Finance Data Finder</t>
+          <t>State and Local Finance Data Finder</t>
         </is>
       </c>
       <c r="AA172" t="inlineStr">
@@ -15179,14 +15183,10 @@
       </c>
       <c r="AB172" t="inlineStr">
         <is>
-          <t>6223422</t>
-        </is>
-      </c>
-      <c r="AC172" t="inlineStr">
-        <is>
-          <t>Local data outside of police and fire expenditures was not available for Washington, D.C.</t>
-        </is>
-      </c>
+          <t>1897193</t>
+        </is>
+      </c>
+      <c r="AC172" t="inlineStr"/>
       <c r="AD172" t="inlineStr"/>
     </row>
     <row r="173">
@@ -15667,37 +15667,73 @@
       <c r="C179" t="inlineStr"/>
       <c r="D179" t="inlineStr"/>
       <c r="E179" t="inlineStr"/>
-      <c r="F179" t="inlineStr"/>
-      <c r="G179" t="inlineStr"/>
-      <c r="H179" t="inlineStr"/>
-      <c r="I179" t="inlineStr"/>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="J179" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="inlineStr"/>
-      <c r="N179" t="inlineStr"/>
-      <c r="O179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N179" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P179" t="inlineStr"/>
       <c r="Q179" t="inlineStr"/>
       <c r="R179" t="inlineStr"/>
       <c r="S179" t="inlineStr"/>
       <c r="T179" t="inlineStr">
         <is>
-          <t>TotHcv</t>
+          <t>HcvD</t>
         </is>
       </c>
       <c r="U179" t="inlineStr">
         <is>
-          <t>Yearly Hepatitis C cases (2013-2016)</t>
+          <t>Hepatitis C Deaths</t>
         </is>
       </c>
       <c r="V179" t="inlineStr">
         <is>
-          <t>Mean total yearly Hepitatis C cases from 2013-2016</t>
+          <t>Total Hepatitis C deaths</t>
         </is>
       </c>
       <c r="W179" t="inlineStr">
@@ -15717,12 +15753,12 @@
       </c>
       <c r="AA179" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="AB179" t="inlineStr">
         <is>
-          <t>54200</t>
+          <t>592</t>
         </is>
       </c>
       <c r="AC179" t="inlineStr"/>
@@ -15742,37 +15778,73 @@
       <c r="C180" t="inlineStr"/>
       <c r="D180" t="inlineStr"/>
       <c r="E180" t="inlineStr"/>
-      <c r="F180" t="inlineStr"/>
-      <c r="G180" t="inlineStr"/>
-      <c r="H180" t="inlineStr"/>
-      <c r="I180" t="inlineStr"/>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="J180" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="inlineStr"/>
-      <c r="N180" t="inlineStr"/>
-      <c r="O180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N180" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P180" t="inlineStr"/>
       <c r="Q180" t="inlineStr"/>
       <c r="R180" t="inlineStr"/>
       <c r="S180" t="inlineStr"/>
       <c r="T180" t="inlineStr">
         <is>
-          <t>MlHcv</t>
+          <t>MlHcvD</t>
         </is>
       </c>
       <c r="U180" t="inlineStr">
         <is>
-          <t>Yearly Hepatitis C cases - Men (2013-2016)</t>
+          <t>Hepatitis C Deaths - Men</t>
         </is>
       </c>
       <c r="V180" t="inlineStr">
         <is>
-          <t>Mean yearly Hepatitis C cases in men from 2013-2016</t>
+          <t>Hepatitis C deaths among men</t>
         </is>
       </c>
       <c r="W180" t="inlineStr">
@@ -15792,12 +15864,12 @@
       </c>
       <c r="AA180" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="AB180" t="inlineStr">
         <is>
-          <t>37500</t>
+          <t>417</t>
         </is>
       </c>
       <c r="AC180" t="inlineStr"/>
@@ -15817,37 +15889,73 @@
       <c r="C181" t="inlineStr"/>
       <c r="D181" t="inlineStr"/>
       <c r="E181" t="inlineStr"/>
-      <c r="F181" t="inlineStr"/>
-      <c r="G181" t="inlineStr"/>
-      <c r="H181" t="inlineStr"/>
-      <c r="I181" t="inlineStr"/>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="J181" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="inlineStr"/>
-      <c r="N181" t="inlineStr"/>
-      <c r="O181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N181" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O181" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P181" t="inlineStr"/>
       <c r="Q181" t="inlineStr"/>
       <c r="R181" t="inlineStr"/>
       <c r="S181" t="inlineStr"/>
       <c r="T181" t="inlineStr">
         <is>
-          <t>FmHcv</t>
+          <t>FlHcvD</t>
         </is>
       </c>
       <c r="U181" t="inlineStr">
         <is>
-          <t>Yearly Hepatitis C cases - Women (2013-2016)</t>
+          <t>Hepatitis C Deaths - Women</t>
         </is>
       </c>
       <c r="V181" t="inlineStr">
         <is>
-          <t>Mean yearly Hepatitis C cases in women from 2013-2016</t>
+          <t>Hepatitis C deaths among women</t>
         </is>
       </c>
       <c r="W181" t="inlineStr">
@@ -15867,12 +15975,12 @@
       </c>
       <c r="AA181" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="AB181" t="inlineStr">
         <is>
-          <t>16900</t>
+          <t>175</t>
         </is>
       </c>
       <c r="AC181" t="inlineStr"/>
@@ -15892,37 +16000,73 @@
       <c r="C182" t="inlineStr"/>
       <c r="D182" t="inlineStr"/>
       <c r="E182" t="inlineStr"/>
-      <c r="F182" t="inlineStr"/>
-      <c r="G182" t="inlineStr"/>
-      <c r="H182" t="inlineStr"/>
-      <c r="I182" t="inlineStr"/>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="J182" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="inlineStr"/>
-      <c r="N182" t="inlineStr"/>
-      <c r="O182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N182" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O182" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P182" t="inlineStr"/>
       <c r="Q182" t="inlineStr"/>
       <c r="R182" t="inlineStr"/>
       <c r="S182" t="inlineStr"/>
       <c r="T182" t="inlineStr">
         <is>
-          <t>Un50Hcv</t>
+          <t>AmInHcvD</t>
         </is>
       </c>
       <c r="U182" t="inlineStr">
         <is>
-          <t>Yearly Hepatitis C cases - Under 50 years old (2013-2016)</t>
+          <t>Hepatitis C Deaths - American Indian</t>
         </is>
       </c>
       <c r="V182" t="inlineStr">
         <is>
-          <t>Mean yearly Hepatatis C cases in people under 50 years of age from 2013-2016</t>
+          <t>Hepatitis C deaths among American Indian populations</t>
         </is>
       </c>
       <c r="W182" t="inlineStr">
@@ -15942,12 +16086,12 @@
       </c>
       <c r="AA182" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="AB182" t="inlineStr">
         <is>
-          <t>9400</t>
+          <t>20</t>
         </is>
       </c>
       <c r="AC182" t="inlineStr"/>
@@ -15967,10 +16111,26 @@
       <c r="C183" t="inlineStr"/>
       <c r="D183" t="inlineStr"/>
       <c r="E183" t="inlineStr"/>
-      <c r="F183" t="inlineStr"/>
-      <c r="G183" t="inlineStr"/>
-      <c r="H183" t="inlineStr"/>
-      <c r="I183" t="inlineStr"/>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="J183" t="inlineStr">
         <is>
           <t>x</t>
@@ -15987,17 +16147,17 @@
       <c r="S183" t="inlineStr"/>
       <c r="T183" t="inlineStr">
         <is>
-          <t>A50_74Hcv</t>
+          <t>AsPiHcvD</t>
         </is>
       </c>
       <c r="U183" t="inlineStr">
         <is>
-          <t>Yearly Hepatitis C cases - 50 to 74 years old (2013-2016)</t>
+          <t>Hepatitis C Deaths - Asian &amp; Pacific Islander</t>
         </is>
       </c>
       <c r="V183" t="inlineStr">
         <is>
-          <t>Mean yearly Hepatitis C cases in people between 50 to 74 years of age from 2013-2016</t>
+          <t>Hepatitis C deaths among Asian and Pacific Islander populations</t>
         </is>
       </c>
       <c r="W183" t="inlineStr">
@@ -16017,12 +16177,12 @@
       </c>
       <c r="AA183" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="AB183" t="inlineStr">
         <is>
-          <t>43300</t>
+          <t>29</t>
         </is>
       </c>
       <c r="AC183" t="inlineStr"/>
@@ -16042,37 +16202,73 @@
       <c r="C184" t="inlineStr"/>
       <c r="D184" t="inlineStr"/>
       <c r="E184" t="inlineStr"/>
-      <c r="F184" t="inlineStr"/>
-      <c r="G184" t="inlineStr"/>
-      <c r="H184" t="inlineStr"/>
-      <c r="I184" t="inlineStr"/>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="J184" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="inlineStr"/>
-      <c r="N184" t="inlineStr"/>
-      <c r="O184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N184" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P184" t="inlineStr"/>
       <c r="Q184" t="inlineStr"/>
       <c r="R184" t="inlineStr"/>
       <c r="S184" t="inlineStr"/>
       <c r="T184" t="inlineStr">
         <is>
-          <t>Ov75Hcv</t>
+          <t>BlkHcvD</t>
         </is>
       </c>
       <c r="U184" t="inlineStr">
         <is>
-          <t>Yearly Hepatitis C cases - Over 75 years old (2013-2016)</t>
+          <t>Hepatitis C Deaths - Black</t>
         </is>
       </c>
       <c r="V184" t="inlineStr">
         <is>
-          <t>Mean yearly Hepatitis C cases in people over 75 years of age from 2013-2016</t>
+          <t>Hepatitis C deaths among Black population</t>
         </is>
       </c>
       <c r="W184" t="inlineStr">
@@ -16092,12 +16288,12 @@
       </c>
       <c r="AA184" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="AB184" t="inlineStr">
         <is>
-          <t>1600</t>
+          <t>48</t>
         </is>
       </c>
       <c r="AC184" t="inlineStr"/>
@@ -16117,37 +16313,73 @@
       <c r="C185" t="inlineStr"/>
       <c r="D185" t="inlineStr"/>
       <c r="E185" t="inlineStr"/>
-      <c r="F185" t="inlineStr"/>
-      <c r="G185" t="inlineStr"/>
-      <c r="H185" t="inlineStr"/>
-      <c r="I185" t="inlineStr"/>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="J185" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="inlineStr"/>
-      <c r="N185" t="inlineStr"/>
-      <c r="O185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N185" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P185" t="inlineStr"/>
       <c r="Q185" t="inlineStr"/>
       <c r="R185" t="inlineStr"/>
       <c r="S185" t="inlineStr"/>
       <c r="T185" t="inlineStr">
         <is>
-          <t>BlkHcv</t>
+          <t>HspHcvD</t>
         </is>
       </c>
       <c r="U185" t="inlineStr">
         <is>
-          <t>Yearly Hepatitis C cases - Black (2013-2016)</t>
+          <t>Hepatitis C Deaths - Hispanic</t>
         </is>
       </c>
       <c r="V185" t="inlineStr">
         <is>
-          <t>Mean yearly Hepatitis C cases in populations identified as non-hispanic Black alone across 2013-2016</t>
+          <t>Hepatitis C deaths among hispanic populations</t>
         </is>
       </c>
       <c r="W185" t="inlineStr">
@@ -16167,12 +16399,12 @@
       </c>
       <c r="AA185" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="AB185" t="inlineStr">
         <is>
-          <t>5600</t>
+          <t>32</t>
         </is>
       </c>
       <c r="AC185" t="inlineStr"/>
@@ -16192,37 +16424,73 @@
       <c r="C186" t="inlineStr"/>
       <c r="D186" t="inlineStr"/>
       <c r="E186" t="inlineStr"/>
-      <c r="F186" t="inlineStr"/>
-      <c r="G186" t="inlineStr"/>
-      <c r="H186" t="inlineStr"/>
-      <c r="I186" t="inlineStr"/>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="J186" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="inlineStr"/>
-      <c r="N186" t="inlineStr"/>
-      <c r="O186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N186" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P186" t="inlineStr"/>
       <c r="Q186" t="inlineStr"/>
       <c r="R186" t="inlineStr"/>
       <c r="S186" t="inlineStr"/>
       <c r="T186" t="inlineStr">
         <is>
-          <t>NonBlkHcv</t>
+          <t>U50HcvD</t>
         </is>
       </c>
       <c r="U186" t="inlineStr">
         <is>
-          <t>Yearly Hepatitis C cases - non-Black (2013-2016)</t>
+          <t>Hepatitis C Deaths - Under 50 years old</t>
         </is>
       </c>
       <c r="V186" t="inlineStr">
         <is>
-          <t>Mean yearly Hepatitis C cases in populations non-Black other race/ethnicity populations 2013-2016</t>
+          <t>Hepatitis C deaths in populations under 50 years of age</t>
         </is>
       </c>
       <c r="W186" t="inlineStr">
@@ -16242,12 +16510,12 @@
       </c>
       <c r="AA186" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="AB186" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>40</t>
         </is>
       </c>
       <c r="AC186" t="inlineStr"/>
@@ -16323,17 +16591,17 @@
       <c r="S187" t="inlineStr"/>
       <c r="T187" t="inlineStr">
         <is>
-          <t>HcvD</t>
+          <t>A50_74HcvD</t>
         </is>
       </c>
       <c r="U187" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths</t>
+          <t>Hepatitis C Deaths - 50 to 74 years old</t>
         </is>
       </c>
       <c r="V187" t="inlineStr">
         <is>
-          <t>Total Hepatitis C deaths</t>
+          <t>Hepatitis C deaths among populations between 50 and 74 years of age</t>
         </is>
       </c>
       <c r="W187" t="inlineStr">
@@ -16358,7 +16626,7 @@
       </c>
       <c r="AB187" t="inlineStr">
         <is>
-          <t>592</t>
+          <t>515</t>
         </is>
       </c>
       <c r="AC187" t="inlineStr"/>
@@ -16434,17 +16702,17 @@
       <c r="S188" t="inlineStr"/>
       <c r="T188" t="inlineStr">
         <is>
-          <t>MlHcvD</t>
+          <t>O75HcvD</t>
         </is>
       </c>
       <c r="U188" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Men</t>
+          <t>Hepatitis C Deaths - Over 75 years old</t>
         </is>
       </c>
       <c r="V188" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths among men</t>
+          <t>Hepatitis C deaths among populations over 75 years of age</t>
         </is>
       </c>
       <c r="W188" t="inlineStr">
@@ -16469,7 +16737,7 @@
       </c>
       <c r="AB188" t="inlineStr">
         <is>
-          <t>417</t>
+          <t>17</t>
         </is>
       </c>
       <c r="AC188" t="inlineStr"/>
@@ -16489,73 +16757,37 @@
       <c r="C189" t="inlineStr"/>
       <c r="D189" t="inlineStr"/>
       <c r="E189" t="inlineStr"/>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="G189" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I189" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="F189" t="inlineStr"/>
+      <c r="G189" t="inlineStr"/>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M189" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N189" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O189" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="inlineStr"/>
+      <c r="O189" t="inlineStr"/>
       <c r="P189" t="inlineStr"/>
       <c r="Q189" t="inlineStr"/>
       <c r="R189" t="inlineStr"/>
       <c r="S189" t="inlineStr"/>
       <c r="T189" t="inlineStr">
         <is>
-          <t>FlHcvD</t>
+          <t>TotHcv</t>
         </is>
       </c>
       <c r="U189" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Women</t>
+          <t>Yearly Hepatitis C cases (2013-2016)</t>
         </is>
       </c>
       <c r="V189" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths among women</t>
+          <t>Mean total yearly Hepitatis C cases from 2013-2016</t>
         </is>
       </c>
       <c r="W189" t="inlineStr">
@@ -16575,12 +16807,12 @@
       </c>
       <c r="AA189" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AB189" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>54200</t>
         </is>
       </c>
       <c r="AC189" t="inlineStr"/>
@@ -16600,73 +16832,37 @@
       <c r="C190" t="inlineStr"/>
       <c r="D190" t="inlineStr"/>
       <c r="E190" t="inlineStr"/>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="G190" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I190" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="F190" t="inlineStr"/>
+      <c r="G190" t="inlineStr"/>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M190" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N190" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O190" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="inlineStr"/>
+      <c r="O190" t="inlineStr"/>
       <c r="P190" t="inlineStr"/>
       <c r="Q190" t="inlineStr"/>
       <c r="R190" t="inlineStr"/>
       <c r="S190" t="inlineStr"/>
       <c r="T190" t="inlineStr">
         <is>
-          <t>AmInHcvD</t>
+          <t>MlHcv</t>
         </is>
       </c>
       <c r="U190" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - American Indian</t>
+          <t>Yearly Hepatitis C cases - Men (2013-2016)</t>
         </is>
       </c>
       <c r="V190" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths among American Indian populations</t>
+          <t>Mean yearly Hepatitis C cases in men from 2013-2016</t>
         </is>
       </c>
       <c r="W190" t="inlineStr">
@@ -16686,12 +16882,12 @@
       </c>
       <c r="AA190" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AB190" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>37500</t>
         </is>
       </c>
       <c r="AC190" t="inlineStr"/>
@@ -16711,26 +16907,10 @@
       <c r="C191" t="inlineStr"/>
       <c r="D191" t="inlineStr"/>
       <c r="E191" t="inlineStr"/>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="G191" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I191" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="F191" t="inlineStr"/>
+      <c r="G191" t="inlineStr"/>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr">
         <is>
           <t>x</t>
@@ -16747,17 +16927,17 @@
       <c r="S191" t="inlineStr"/>
       <c r="T191" t="inlineStr">
         <is>
-          <t>AsPiHcvD</t>
+          <t>FmHcv</t>
         </is>
       </c>
       <c r="U191" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Asian &amp; Pacific Islander</t>
+          <t>Yearly Hepatitis C cases - Women (2013-2016)</t>
         </is>
       </c>
       <c r="V191" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths among Asian and Pacific Islander populations</t>
+          <t>Mean yearly Hepatitis C cases in women from 2013-2016</t>
         </is>
       </c>
       <c r="W191" t="inlineStr">
@@ -16777,12 +16957,12 @@
       </c>
       <c r="AA191" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AB191" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>16900</t>
         </is>
       </c>
       <c r="AC191" t="inlineStr"/>
@@ -16802,73 +16982,37 @@
       <c r="C192" t="inlineStr"/>
       <c r="D192" t="inlineStr"/>
       <c r="E192" t="inlineStr"/>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="G192" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I192" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="F192" t="inlineStr"/>
+      <c r="G192" t="inlineStr"/>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M192" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N192" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O192" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="inlineStr"/>
+      <c r="O192" t="inlineStr"/>
       <c r="P192" t="inlineStr"/>
       <c r="Q192" t="inlineStr"/>
       <c r="R192" t="inlineStr"/>
       <c r="S192" t="inlineStr"/>
       <c r="T192" t="inlineStr">
         <is>
-          <t>BlkHcvD</t>
+          <t>Un50Hcv</t>
         </is>
       </c>
       <c r="U192" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Black</t>
+          <t>Yearly Hepatitis C cases - Under 50 years old (2013-2016)</t>
         </is>
       </c>
       <c r="V192" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths among Black population</t>
+          <t>Mean yearly Hepatatis C cases in people under 50 years of age from 2013-2016</t>
         </is>
       </c>
       <c r="W192" t="inlineStr">
@@ -16888,12 +17032,12 @@
       </c>
       <c r="AA192" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AB192" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>9400</t>
         </is>
       </c>
       <c r="AC192" t="inlineStr"/>
@@ -16913,73 +17057,37 @@
       <c r="C193" t="inlineStr"/>
       <c r="D193" t="inlineStr"/>
       <c r="E193" t="inlineStr"/>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="G193" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I193" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="F193" t="inlineStr"/>
+      <c r="G193" t="inlineStr"/>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M193" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N193" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O193" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="inlineStr"/>
+      <c r="O193" t="inlineStr"/>
       <c r="P193" t="inlineStr"/>
       <c r="Q193" t="inlineStr"/>
       <c r="R193" t="inlineStr"/>
       <c r="S193" t="inlineStr"/>
       <c r="T193" t="inlineStr">
         <is>
-          <t>HspHcvD</t>
+          <t>A50_74Hcv</t>
         </is>
       </c>
       <c r="U193" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Hispanic</t>
+          <t>Yearly Hepatitis C cases - 50 to 74 years old (2013-2016)</t>
         </is>
       </c>
       <c r="V193" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths among hispanic populations</t>
+          <t>Mean yearly Hepatitis C cases in people between 50 to 74 years of age from 2013-2016</t>
         </is>
       </c>
       <c r="W193" t="inlineStr">
@@ -16999,12 +17107,12 @@
       </c>
       <c r="AA193" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AB193" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>43300</t>
         </is>
       </c>
       <c r="AC193" t="inlineStr"/>
@@ -17024,73 +17132,37 @@
       <c r="C194" t="inlineStr"/>
       <c r="D194" t="inlineStr"/>
       <c r="E194" t="inlineStr"/>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="G194" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I194" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="F194" t="inlineStr"/>
+      <c r="G194" t="inlineStr"/>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M194" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N194" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O194" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="inlineStr"/>
+      <c r="O194" t="inlineStr"/>
       <c r="P194" t="inlineStr"/>
       <c r="Q194" t="inlineStr"/>
       <c r="R194" t="inlineStr"/>
       <c r="S194" t="inlineStr"/>
       <c r="T194" t="inlineStr">
         <is>
-          <t>U50HcvD</t>
+          <t>Ov75Hcv</t>
         </is>
       </c>
       <c r="U194" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Under 50 years old</t>
+          <t>Yearly Hepatitis C cases - Over 75 years old (2013-2016)</t>
         </is>
       </c>
       <c r="V194" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths in populations under 50 years of age</t>
+          <t>Mean yearly Hepatitis C cases in people over 75 years of age from 2013-2016</t>
         </is>
       </c>
       <c r="W194" t="inlineStr">
@@ -17110,12 +17182,12 @@
       </c>
       <c r="AA194" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AB194" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>1600</t>
         </is>
       </c>
       <c r="AC194" t="inlineStr"/>
@@ -17135,73 +17207,37 @@
       <c r="C195" t="inlineStr"/>
       <c r="D195" t="inlineStr"/>
       <c r="E195" t="inlineStr"/>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="G195" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I195" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="F195" t="inlineStr"/>
+      <c r="G195" t="inlineStr"/>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M195" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N195" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O195" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="inlineStr"/>
+      <c r="O195" t="inlineStr"/>
       <c r="P195" t="inlineStr"/>
       <c r="Q195" t="inlineStr"/>
       <c r="R195" t="inlineStr"/>
       <c r="S195" t="inlineStr"/>
       <c r="T195" t="inlineStr">
         <is>
-          <t>A50_74HcvD</t>
+          <t>BlkHcv</t>
         </is>
       </c>
       <c r="U195" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - 50 to 74 years old</t>
+          <t>Yearly Hepatitis C cases - Black (2013-2016)</t>
         </is>
       </c>
       <c r="V195" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths among populations between 50 and 74 years of age</t>
+          <t>Mean yearly Hepatitis C cases in populations identified as non-hispanic Black alone across 2013-2016</t>
         </is>
       </c>
       <c r="W195" t="inlineStr">
@@ -17221,12 +17257,12 @@
       </c>
       <c r="AA195" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AB195" t="inlineStr">
         <is>
-          <t>515</t>
+          <t>5600</t>
         </is>
       </c>
       <c r="AC195" t="inlineStr"/>
@@ -17246,73 +17282,37 @@
       <c r="C196" t="inlineStr"/>
       <c r="D196" t="inlineStr"/>
       <c r="E196" t="inlineStr"/>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="G196" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="I196" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="F196" t="inlineStr"/>
+      <c r="G196" t="inlineStr"/>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M196" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N196" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O196" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="inlineStr"/>
+      <c r="O196" t="inlineStr"/>
       <c r="P196" t="inlineStr"/>
       <c r="Q196" t="inlineStr"/>
       <c r="R196" t="inlineStr"/>
       <c r="S196" t="inlineStr"/>
       <c r="T196" t="inlineStr">
         <is>
-          <t>O75HcvD</t>
+          <t>NonBlkHcv</t>
         </is>
       </c>
       <c r="U196" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Over 75 years old</t>
+          <t>Yearly Hepatitis C cases - non-Black (2013-2016)</t>
         </is>
       </c>
       <c r="V196" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths among populations over 75 years of age</t>
+          <t>Mean yearly Hepatitis C cases in populations non-Black other race/ethnicity populations 2013-2016</t>
         </is>
       </c>
       <c r="W196" t="inlineStr">
@@ -17332,12 +17332,12 @@
       </c>
       <c r="AA196" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AB196" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="AC196" t="inlineStr"/>
@@ -18029,10 +18029,26 @@
       <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="inlineStr"/>
-      <c r="N206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N206" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O206" t="inlineStr">
         <is>
           <t>x</t>
@@ -18044,19 +18060,15 @@
       <c r="S206" t="inlineStr"/>
       <c r="T206" t="inlineStr">
         <is>
-          <t>AvHcvD</t>
+          <t>AsHcvD</t>
         </is>
       </c>
       <c r="U206" t="inlineStr">
         <is>
-          <t>Average Hepitatis C virus Deaths</t>
-        </is>
-      </c>
-      <c r="V206" t="inlineStr">
-        <is>
-          <t>Mean total yearly Hepatitis C deaths from 2013-2017, 2018-2022</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Hepatitis C deaths among Asian populations </t>
+        </is>
+      </c>
+      <c r="V206" t="inlineStr"/>
       <c r="W206" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/HepC.md</t>
@@ -18079,7 +18091,7 @@
       </c>
       <c r="AB206" t="inlineStr">
         <is>
-          <t>121.0</t>
+          <t>60.0</t>
         </is>
       </c>
       <c r="AC206" t="inlineStr"/>
@@ -18131,12 +18143,12 @@
       <c r="S207" t="inlineStr"/>
       <c r="T207" t="inlineStr">
         <is>
-          <t>AsHcvD</t>
+          <t>NhPiHcvD</t>
         </is>
       </c>
       <c r="U207" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hepatitis C deaths among Asian populations </t>
+          <t xml:space="preserve">Hepatitis C deaths among Native Hawaiian and Pacific Islander populations </t>
         </is>
       </c>
       <c r="V207" t="inlineStr"/>
@@ -18214,12 +18226,12 @@
       <c r="S208" t="inlineStr"/>
       <c r="T208" t="inlineStr">
         <is>
-          <t>NhPiHcvD</t>
+          <t>WhtHcvD</t>
         </is>
       </c>
       <c r="U208" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hepatitis C deaths among Native Hawaiian and Pacific Islander populations </t>
+          <t>Hepatitis C deaths among White populations</t>
         </is>
       </c>
       <c r="V208" t="inlineStr"/>
@@ -18297,12 +18309,12 @@
       <c r="S209" t="inlineStr"/>
       <c r="T209" t="inlineStr">
         <is>
-          <t>WhtHcvD</t>
+          <t>MulHcvD</t>
         </is>
       </c>
       <c r="U209" t="inlineStr">
         <is>
-          <t>Hepatitis C deaths among White populations</t>
+          <t xml:space="preserve">Hepatitis C deaths among Multiple Race populations </t>
         </is>
       </c>
       <c r="V209" t="inlineStr"/>
@@ -18349,26 +18361,10 @@
       <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M210" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N210" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="inlineStr"/>
+      <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr">
         <is>
           <t>x</t>
@@ -18380,15 +18376,19 @@
       <c r="S210" t="inlineStr"/>
       <c r="T210" t="inlineStr">
         <is>
-          <t>MulHcvD</t>
+          <t>AvHcvD</t>
         </is>
       </c>
       <c r="U210" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hepatitis C deaths among Multiple Race populations </t>
-        </is>
-      </c>
-      <c r="V210" t="inlineStr"/>
+          <t>Average Hepitatis C virus Deaths</t>
+        </is>
+      </c>
+      <c r="V210" t="inlineStr">
+        <is>
+          <t>Mean total yearly Hepatitis C deaths from 2013-2017, 2018-2022</t>
+        </is>
+      </c>
       <c r="W210" t="inlineStr">
         <is>
           <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/HepC.md</t>
@@ -18411,7 +18411,7 @@
       </c>
       <c r="AB210" t="inlineStr">
         <is>
-          <t>60.0</t>
+          <t>121.0</t>
         </is>
       </c>
       <c r="AC210" t="inlineStr"/>

--- a/backend/oeps/data/dictionaries/S_Dict.xlsx
+++ b/backend/oeps/data/dictionaries/S_Dict.xlsx
@@ -982,17 +982,17 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>GEOID</t>
+          <t>FIPS</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>GEOID</t>
+          <t>Federal Information Processing Standard code</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>Unique identifer for the geography unit to which this value should be attached</t>
+          <t>Federal Information Processing Standard code designated by the NIST; is two digits for states, five digits for counties, eleven digits for tracts.</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
